--- a/Nextion/EEPROM_settings_N26.xlsx
+++ b/Nextion/EEPROM_settings_N26.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadd\RoseEngine\Nextion\RoseEngine_26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C873476-3AFC-42CB-A65C-D647138AB46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272329E6-283D-4B9E-9EB4-E45782B6080C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31065" yWindow="1485" windowWidth="16890" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eeprom" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
-    <sheet name="PinOuts" sheetId="7" r:id="rId3"/>
-    <sheet name="Struct Size" sheetId="8" r:id="rId4"/>
+    <sheet name="PinOuts" sheetId="7" r:id="rId2"/>
+    <sheet name="Struct Size" sheetId="8" r:id="rId3"/>
+    <sheet name="ProgramKeys" sheetId="11" r:id="rId4"/>
     <sheet name="ControlLocation" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="525">
   <si>
     <t>Index</t>
   </si>
@@ -1461,30 +1461,6 @@
     <t>Home_B</t>
   </si>
   <si>
-    <t>Steps/360</t>
-  </si>
-  <si>
-    <t>Microsteps</t>
-  </si>
-  <si>
-    <t>GearRatio</t>
-  </si>
-  <si>
-    <t>MaxSpd</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>n51</t>
-  </si>
-  <si>
     <t>Vendor</t>
   </si>
   <si>
@@ -1567,13 +1543,121 @@
   </si>
   <si>
     <t>Stop Steppers in local functions</t>
+  </si>
+  <si>
+    <t>GreekKey</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>QM</t>
+  </si>
+  <si>
+    <t>QI(</t>
+  </si>
+  <si>
+    <t>QR</t>
+  </si>
+  <si>
+    <t>QS</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>VV</t>
+  </si>
+  <si>
+    <t>VK</t>
+  </si>
+  <si>
+    <t>VW</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JR </t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Disable:0</t>
+  </si>
+  <si>
+    <t>Enable:1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1610,6 +1694,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="27">
@@ -1894,7 +1991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2004,10 +2101,16 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2341,8 +2444,8 @@
   <dimension ref="A1:O393"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G84" sqref="G84"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2416,14 +2519,14 @@
         <v>695</v>
       </c>
       <c r="E2" s="5" t="str">
-        <f>DEC2HEX(F2)</f>
+        <f t="shared" ref="E2:E33" si="0">DEC2HEX(F2)</f>
         <v>FE</v>
       </c>
       <c r="F2" s="5">
         <v>254</v>
       </c>
       <c r="G2" s="5" t="str">
-        <f>CHAR(F2)</f>
+        <f t="shared" ref="G2:G33" si="1">CHAR(F2)</f>
         <v>þ</v>
       </c>
       <c r="I2" s="4">
@@ -2445,14 +2548,14 @@
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="47" t="str">
-        <f>DEC2HEX(F3)</f>
+        <f t="shared" si="0"/>
         <v>2D</v>
       </c>
       <c r="F3" s="47">
         <v>45</v>
       </c>
       <c r="G3" s="47" t="str">
-        <f>CHAR(F3)</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -2466,14 +2569,14 @@
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
       <c r="E4" s="47" t="str">
-        <f>DEC2HEX(F4)</f>
+        <f t="shared" si="0"/>
         <v>CE</v>
       </c>
       <c r="F4" s="47">
         <v>206</v>
       </c>
       <c r="G4" s="47" t="str">
-        <f>CHAR(F4)</f>
+        <f t="shared" si="1"/>
         <v>Î</v>
       </c>
     </row>
@@ -2487,14 +2590,14 @@
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
       <c r="E5" s="47" t="str">
-        <f>DEC2HEX(F5)</f>
+        <f t="shared" si="0"/>
         <v>D7</v>
       </c>
       <c r="F5" s="47">
         <v>215</v>
       </c>
       <c r="G5" s="47" t="str">
-        <f>CHAR(F5)</f>
+        <f t="shared" si="1"/>
         <v>×</v>
       </c>
     </row>
@@ -2508,14 +2611,14 @@
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
       <c r="E6" s="47" t="str">
-        <f>DEC2HEX(F6)</f>
+        <f t="shared" si="0"/>
         <v>EC</v>
       </c>
       <c r="F6" s="47">
         <v>236</v>
       </c>
       <c r="G6" s="47" t="str">
-        <f>CHAR(F6)</f>
+        <f t="shared" si="1"/>
         <v>ì</v>
       </c>
     </row>
@@ -2529,14 +2632,14 @@
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
       <c r="E7" s="47" t="str">
-        <f>DEC2HEX(F7)</f>
+        <f t="shared" si="0"/>
         <v>7E</v>
       </c>
       <c r="F7" s="47">
         <v>126</v>
       </c>
       <c r="G7" s="47" t="str">
-        <f>CHAR(F7)</f>
+        <f t="shared" si="1"/>
         <v>~</v>
       </c>
     </row>
@@ -2554,22 +2657,22 @@
         <v>35</v>
       </c>
       <c r="E8" s="44" t="str">
-        <f>DEC2HEX(F8)</f>
+        <f t="shared" si="0"/>
         <v>6F</v>
       </c>
       <c r="F8" s="43">
         <v>111</v>
       </c>
       <c r="G8" s="44" t="str">
-        <f>CHAR(F8)</f>
+        <f t="shared" si="1"/>
         <v>o</v>
       </c>
       <c r="I8" s="4">
-        <f>IF(ISBLANK(B8),D8-C8+1,0)</f>
+        <f t="shared" ref="I8:I30" si="2">IF(ISBLANK(B8),D8-C8+1,0)</f>
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <f>IF(ISBLANK(B8),0,D8-C8+1)</f>
+        <f t="shared" ref="J8:J30" si="3">IF(ISBLANK(B8),0,D8-C8+1)</f>
         <v>4</v>
       </c>
     </row>
@@ -2587,22 +2690,22 @@
         <v>47</v>
       </c>
       <c r="E9" s="44" t="str">
-        <f>DEC2HEX(F9)</f>
+        <f t="shared" si="0"/>
         <v>6F</v>
       </c>
       <c r="F9" s="43">
         <v>111</v>
       </c>
       <c r="G9" s="44" t="str">
-        <f>CHAR(F9)</f>
+        <f t="shared" si="1"/>
         <v>o</v>
       </c>
       <c r="I9" s="4">
-        <f>IF(ISBLANK(B9),D9-C9+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <f>IF(ISBLANK(B9),0,D9-C9+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2620,22 +2723,22 @@
         <v>55</v>
       </c>
       <c r="E10" s="44" t="str">
-        <f>DEC2HEX(F10)</f>
+        <f t="shared" si="0"/>
         <v>6F</v>
       </c>
       <c r="F10" s="43">
         <v>111</v>
       </c>
       <c r="G10" s="44" t="str">
-        <f>CHAR(F10)</f>
+        <f t="shared" si="1"/>
         <v>o</v>
       </c>
       <c r="I10" s="4">
-        <f>IF(ISBLANK(B10),D10-C10+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <f>IF(ISBLANK(B10),0,D10-C10+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2653,22 +2756,22 @@
         <v>103</v>
       </c>
       <c r="E11" s="44" t="str">
-        <f>DEC2HEX(F11)</f>
+        <f t="shared" si="0"/>
         <v>6E</v>
       </c>
       <c r="F11" s="44">
         <v>110</v>
       </c>
       <c r="G11" s="44" t="str">
-        <f>CHAR(F11)</f>
+        <f t="shared" si="1"/>
         <v>n</v>
       </c>
       <c r="I11" s="4">
-        <f>IF(ISBLANK(B11),D11-C11+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <f>IF(ISBLANK(B11),0,D11-C11+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2686,22 +2789,22 @@
         <v>167</v>
       </c>
       <c r="E12" s="5" t="str">
-        <f>DEC2HEX(F12)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="F12" s="5">
         <v>72</v>
       </c>
       <c r="G12" s="5" t="str">
-        <f>CHAR(F12)</f>
+        <f t="shared" si="1"/>
         <v>H</v>
       </c>
       <c r="I12" s="4">
-        <f>IF(ISBLANK(B12),D12-C12+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <f>IF(ISBLANK(B12),0,D12-C12+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2719,23 +2822,23 @@
         <v>211</v>
       </c>
       <c r="E13" s="5" t="str">
-        <f>DEC2HEX(F13)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="F13" s="5">
         <v>84</v>
       </c>
       <c r="G13" s="5" t="str">
-        <f>CHAR(F13)</f>
+        <f t="shared" si="1"/>
         <v>T</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="4">
-        <f>IF(ISBLANK(B13),D13-C13+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <f>IF(ISBLANK(B13),0,D13-C13+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2743,32 +2846,32 @@
       <c r="A14" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="67">
         <v>224</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="67">
         <v>231</v>
       </c>
-      <c r="E14" s="69" t="str">
-        <f>DEC2HEX(F14)</f>
+      <c r="E14" s="68" t="str">
+        <f t="shared" si="0"/>
         <v>E3</v>
       </c>
-      <c r="F14" s="69">
+      <c r="F14" s="68">
         <v>227</v>
       </c>
-      <c r="G14" s="69" t="str">
-        <f>CHAR(F14)</f>
+      <c r="G14" s="68" t="str">
+        <f t="shared" si="1"/>
         <v>ã</v>
       </c>
       <c r="I14" s="4">
-        <f>IF(ISBLANK(B14),D14-C14+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <f>IF(ISBLANK(B14),0,D14-C14+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2776,32 +2879,32 @@
       <c r="A15" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="69">
+      <c r="C15" s="68">
         <v>240</v>
       </c>
-      <c r="D15" s="69">
+      <c r="D15" s="68">
         <v>243</v>
       </c>
-      <c r="E15" s="69" t="str">
-        <f>DEC2HEX(F15)</f>
+      <c r="E15" s="68" t="str">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="F15" s="69">
+      <c r="F15" s="68">
         <v>70</v>
       </c>
-      <c r="G15" s="69" t="str">
-        <f>CHAR(F15)</f>
+      <c r="G15" s="68" t="str">
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="I15" s="4">
-        <f>IF(ISBLANK(B15),D15-C15+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <f>IF(ISBLANK(B15),0,D15-C15+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2819,22 +2922,22 @@
         <v>283</v>
       </c>
       <c r="E16" s="5" t="str">
-        <f>DEC2HEX(F16)</f>
+        <f t="shared" si="0"/>
         <v>E4</v>
       </c>
       <c r="F16" s="5">
         <v>228</v>
       </c>
       <c r="G16" s="5" t="str">
-        <f>CHAR(F16)</f>
+        <f t="shared" si="1"/>
         <v>ä</v>
       </c>
       <c r="I16" s="4">
-        <f>IF(ISBLANK(B16),D16-C16+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <f>IF(ISBLANK(B16),0,D16-C16+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2852,22 +2955,22 @@
         <v>291</v>
       </c>
       <c r="E17" s="5" t="str">
-        <f>DEC2HEX(F17)</f>
+        <f t="shared" si="0"/>
         <v>E4</v>
       </c>
       <c r="F17" s="5">
         <v>228</v>
       </c>
       <c r="G17" s="5" t="str">
-        <f>CHAR(F17)</f>
+        <f t="shared" si="1"/>
         <v>ä</v>
       </c>
       <c r="I17" s="4">
-        <f>IF(ISBLANK(B17),D17-C17+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <f>IF(ISBLANK(B17),0,D17-C17+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2875,32 +2978,32 @@
       <c r="A18" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="67">
         <v>292</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="67">
         <v>299</v>
       </c>
-      <c r="E18" s="69" t="str">
-        <f>DEC2HEX(F18)</f>
+      <c r="E18" s="68" t="str">
+        <f t="shared" si="0"/>
         <v>E3</v>
       </c>
-      <c r="F18" s="69">
+      <c r="F18" s="68">
         <v>227</v>
       </c>
-      <c r="G18" s="69" t="str">
-        <f>CHAR(F18)</f>
+      <c r="G18" s="68" t="str">
+        <f t="shared" si="1"/>
         <v>ã</v>
       </c>
       <c r="I18" s="4">
-        <f>IF(ISBLANK(B18),D18-C18+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <f>IF(ISBLANK(B18),0,D18-C18+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2918,22 +3021,22 @@
         <v>455</v>
       </c>
       <c r="E19" s="5" t="str">
-        <f>DEC2HEX(F19)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="F19" s="5">
         <v>89</v>
       </c>
       <c r="G19" s="5" t="str">
-        <f>CHAR(F19)</f>
+        <f t="shared" si="1"/>
         <v>Y</v>
       </c>
       <c r="I19" s="4">
-        <f>IF(ISBLANK(B19),D19-C19+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <f>IF(ISBLANK(B19),0,D19-C19+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2951,22 +3054,22 @@
         <v>527</v>
       </c>
       <c r="E20" s="5" t="str">
-        <f>DEC2HEX(F20)</f>
+        <f t="shared" si="0"/>
         <v>E4</v>
       </c>
       <c r="F20" s="5">
         <v>228</v>
       </c>
       <c r="G20" s="5" t="str">
-        <f>CHAR(F20)</f>
+        <f t="shared" si="1"/>
         <v>ä</v>
       </c>
       <c r="I20" s="4">
-        <f>IF(ISBLANK(B20),D20-C20+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <f>IF(ISBLANK(B20),0,D20-C20+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2974,32 +3077,32 @@
       <c r="A21" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="67" t="s">
         <v>389</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="67">
         <v>528</v>
       </c>
-      <c r="D21" s="68">
+      <c r="D21" s="67">
         <v>535</v>
       </c>
-      <c r="E21" s="69" t="str">
-        <f>DEC2HEX(F21)</f>
+      <c r="E21" s="68" t="str">
+        <f t="shared" si="0"/>
         <v>E3</v>
       </c>
-      <c r="F21" s="69">
+      <c r="F21" s="68">
         <v>227</v>
       </c>
-      <c r="G21" s="69" t="str">
-        <f>CHAR(F21)</f>
+      <c r="G21" s="68" t="str">
+        <f t="shared" si="1"/>
         <v>ã</v>
       </c>
       <c r="I21" s="4">
-        <f>IF(ISBLANK(B21),D21-C21+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <f>IF(ISBLANK(B21),0,D21-C21+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3008,7 +3111,7 @@
         <v>134</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C22" s="60">
         <v>696</v>
@@ -3017,22 +3120,22 @@
         <v>703</v>
       </c>
       <c r="E22" s="50" t="str">
-        <f>DEC2HEX(F22)</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="F22" s="50">
         <v>97</v>
       </c>
       <c r="G22" s="50" t="str">
-        <f>CHAR(F22)</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="I22" s="4">
-        <f>IF(ISBLANK(B22),D22-C22+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <f>IF(ISBLANK(B22),0,D22-C22+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3050,22 +3153,22 @@
         <v>823</v>
       </c>
       <c r="E23" s="34" t="str">
-        <f>DEC2HEX(F23)</f>
+        <f t="shared" si="0"/>
         <v>BA</v>
       </c>
       <c r="F23" s="34">
         <v>186</v>
       </c>
       <c r="G23" s="34" t="str">
-        <f>CHAR(F23)</f>
+        <f t="shared" si="1"/>
         <v>º</v>
       </c>
       <c r="I23" s="4">
-        <f>IF(ISBLANK(B23),D23-C23+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J23" s="4">
-        <f>IF(ISBLANK(B23),0,D23-C23+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3083,22 +3186,22 @@
         <v>827</v>
       </c>
       <c r="E24" s="34" t="str">
-        <f>DEC2HEX(F24)</f>
+        <f t="shared" si="0"/>
         <v>B9</v>
       </c>
       <c r="F24" s="34">
         <v>185</v>
       </c>
       <c r="G24" s="34" t="str">
-        <f>CHAR(F24)</f>
+        <f t="shared" si="1"/>
         <v>¹</v>
       </c>
       <c r="I24" s="4">
-        <f>IF(ISBLANK(B24),D24-C24+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J24" s="4">
-        <f>IF(ISBLANK(B24),0,D24-C24+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3116,22 +3219,22 @@
         <v>831</v>
       </c>
       <c r="E25" s="34" t="str">
-        <f>DEC2HEX(F25)</f>
+        <f t="shared" si="0"/>
         <v>3A</v>
       </c>
       <c r="F25" s="34">
         <v>58</v>
       </c>
       <c r="G25" s="34" t="str">
-        <f>CHAR(F25)</f>
+        <f t="shared" si="1"/>
         <v>:</v>
       </c>
       <c r="I25" s="4">
-        <f>IF(ISBLANK(B25),D25-C25+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <f>IF(ISBLANK(B25),0,D25-C25+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3149,22 +3252,22 @@
         <v>835</v>
       </c>
       <c r="E26" s="34" t="str">
-        <f>DEC2HEX(F26)</f>
+        <f t="shared" si="0"/>
         <v>3B</v>
       </c>
       <c r="F26" s="34">
         <v>59</v>
       </c>
       <c r="G26" s="34" t="str">
-        <f>CHAR(F26)</f>
+        <f t="shared" si="1"/>
         <v>;</v>
       </c>
       <c r="I26" s="4">
-        <f>IF(ISBLANK(B26),D26-C26+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J26" s="4">
-        <f>IF(ISBLANK(B26),0,D26-C26+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="N26" s="5"/>
@@ -3184,22 +3287,22 @@
         <v>871</v>
       </c>
       <c r="E27" s="34" t="str">
-        <f>DEC2HEX(F27)</f>
+        <f t="shared" si="0"/>
         <v>BA</v>
       </c>
       <c r="F27" s="34">
         <v>186</v>
       </c>
       <c r="G27" s="34" t="str">
-        <f>CHAR(F27)</f>
+        <f t="shared" si="1"/>
         <v>º</v>
       </c>
       <c r="I27" s="4">
-        <f>IF(ISBLANK(B27),D27-C27+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J27" s="4">
-        <f>IF(ISBLANK(B27),0,D27-C27+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3217,22 +3320,22 @@
         <v>879</v>
       </c>
       <c r="E28" s="34" t="str">
-        <f>DEC2HEX(F28)</f>
+        <f t="shared" si="0"/>
         <v>B9</v>
       </c>
       <c r="F28" s="34">
         <v>185</v>
       </c>
       <c r="G28" s="34" t="str">
-        <f>CHAR(F28)</f>
+        <f t="shared" si="1"/>
         <v>¹</v>
       </c>
       <c r="I28" s="4">
-        <f>IF(ISBLANK(B28),D28-C28+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J28" s="4">
-        <f>IF(ISBLANK(B28),0,D28-C28+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3250,22 +3353,22 @@
         <v>883</v>
       </c>
       <c r="E29" s="34" t="str">
-        <f>DEC2HEX(F29)</f>
+        <f t="shared" si="0"/>
         <v>B9</v>
       </c>
       <c r="F29" s="34">
         <v>185</v>
       </c>
       <c r="G29" s="34" t="str">
-        <f>CHAR(F29)</f>
+        <f t="shared" si="1"/>
         <v>¹</v>
       </c>
       <c r="I29" s="4">
-        <f>IF(ISBLANK(B29),D29-C29+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J29" s="4">
-        <f>IF(ISBLANK(B29),0,D29-C29+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3283,22 +3386,22 @@
         <v>951</v>
       </c>
       <c r="E30" s="34" t="str">
-        <f>DEC2HEX(F30)</f>
+        <f t="shared" si="0"/>
         <v>BA</v>
       </c>
       <c r="F30" s="34">
         <v>186</v>
       </c>
       <c r="G30" s="34" t="str">
-        <f>CHAR(F30)</f>
+        <f t="shared" si="1"/>
         <v>º</v>
       </c>
       <c r="I30" s="4">
-        <f>IF(ISBLANK(B30),D30-C30+1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J30" s="4">
-        <f>IF(ISBLANK(B30),0,D30-C30+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3312,14 +3415,14 @@
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
       <c r="E31" s="47" t="str">
-        <f>DEC2HEX(F31)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="F31" s="47">
         <v>105</v>
       </c>
       <c r="G31" s="47" t="str">
-        <f>CHAR(F31)</f>
+        <f t="shared" si="1"/>
         <v>i</v>
       </c>
     </row>
@@ -3333,14 +3436,14 @@
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
       <c r="E32" s="47" t="str">
-        <f>DEC2HEX(F32)</f>
+        <f t="shared" si="0"/>
         <v>C9</v>
       </c>
       <c r="F32" s="47">
         <v>201</v>
       </c>
       <c r="G32" s="47" t="str">
-        <f>CHAR(F32)</f>
+        <f t="shared" si="1"/>
         <v>É</v>
       </c>
     </row>
@@ -3354,14 +3457,14 @@
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
       <c r="E33" s="47" t="str">
-        <f>DEC2HEX(F33)</f>
+        <f t="shared" si="0"/>
         <v>E7</v>
       </c>
       <c r="F33" s="47">
         <v>231</v>
       </c>
       <c r="G33" s="47" t="str">
-        <f>CHAR(F33)</f>
+        <f t="shared" si="1"/>
         <v>ç</v>
       </c>
     </row>
@@ -3379,22 +3482,22 @@
         <v>31</v>
       </c>
       <c r="E34" s="44" t="str">
-        <f>DEC2HEX(F34)</f>
+        <f t="shared" ref="E34:E65" si="4">DEC2HEX(F34)</f>
         <v>6F</v>
       </c>
       <c r="F34" s="43">
         <v>111</v>
       </c>
       <c r="G34" s="44" t="str">
-        <f>CHAR(F34)</f>
+        <f t="shared" ref="G34:G65" si="5">CHAR(F34)</f>
         <v>o</v>
       </c>
       <c r="I34" s="4">
-        <f>IF(ISBLANK(B34),D34-C34+1,0)</f>
+        <f t="shared" ref="I34:I51" si="6">IF(ISBLANK(B34),D34-C34+1,0)</f>
         <v>0</v>
       </c>
       <c r="J34" s="4">
-        <f>IF(ISBLANK(B34),0,D34-C34+1)</f>
+        <f t="shared" ref="J34:J51" si="7">IF(ISBLANK(B34),0,D34-C34+1)</f>
         <v>4</v>
       </c>
     </row>
@@ -3412,22 +3515,22 @@
         <v>63</v>
       </c>
       <c r="E35" s="44" t="str">
-        <f>DEC2HEX(F35)</f>
+        <f t="shared" si="4"/>
         <v>6E</v>
       </c>
       <c r="F35" s="44">
         <v>110</v>
       </c>
       <c r="G35" s="44" t="str">
-        <f>CHAR(F35)</f>
+        <f t="shared" si="5"/>
         <v>n</v>
       </c>
       <c r="I35" s="4">
-        <f>IF(ISBLANK(B35),D35-C35+1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J35" s="4">
-        <f>IF(ISBLANK(B35),0,D35-C35+1)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -3445,22 +3548,22 @@
         <v>67</v>
       </c>
       <c r="E36" s="44" t="str">
-        <f>DEC2HEX(F36)</f>
+        <f t="shared" si="4"/>
         <v>6F</v>
       </c>
       <c r="F36" s="43">
         <v>111</v>
       </c>
       <c r="G36" s="44" t="str">
-        <f>CHAR(F36)</f>
+        <f t="shared" si="5"/>
         <v>o</v>
       </c>
       <c r="I36" s="4">
-        <f>IF(ISBLANK(B36),D36-C36+1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J36" s="4">
-        <f>IF(ISBLANK(B36),0,D36-C36+1)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -3478,22 +3581,22 @@
         <v>71</v>
       </c>
       <c r="E37" s="44" t="str">
-        <f>DEC2HEX(F37)</f>
+        <f t="shared" si="4"/>
         <v>6F</v>
       </c>
       <c r="F37" s="43">
         <v>111</v>
       </c>
       <c r="G37" s="44" t="str">
-        <f>CHAR(F37)</f>
+        <f t="shared" si="5"/>
         <v>o</v>
       </c>
       <c r="I37" s="4">
-        <f>IF(ISBLANK(B37),D37-C37+1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J37" s="4">
-        <f>IF(ISBLANK(B37),0,D37-C37+1)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -3511,22 +3614,22 @@
         <v>379</v>
       </c>
       <c r="E38" s="5" t="str">
-        <f>DEC2HEX(F38)</f>
+        <f t="shared" si="4"/>
         <v>FC</v>
       </c>
       <c r="F38" s="5">
         <v>252</v>
       </c>
       <c r="G38" s="5" t="str">
-        <f>CHAR(F38)</f>
+        <f t="shared" si="5"/>
         <v>ü</v>
       </c>
       <c r="I38" s="4">
-        <f>IF(ISBLANK(B38),D38-C38+1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J38" s="4">
-        <f>IF(ISBLANK(B38),0,D38-C38+1)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="K38" s="5"/>
@@ -3546,22 +3649,22 @@
         <v>435</v>
       </c>
       <c r="E39" s="5" t="str">
-        <f>DEC2HEX(F39)</f>
+        <f t="shared" si="4"/>
         <v>2B</v>
       </c>
       <c r="F39" s="5">
         <v>43</v>
       </c>
       <c r="G39" s="5" t="str">
-        <f>CHAR(F39)</f>
+        <f t="shared" si="5"/>
         <v>+</v>
       </c>
       <c r="I39" s="4">
-        <f>IF(ISBLANK(B39),D39-C39+1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J39" s="4">
-        <f>IF(ISBLANK(B39),0,D39-C39+1)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -3579,22 +3682,22 @@
         <v>499</v>
       </c>
       <c r="E40" s="5" t="str">
-        <f>DEC2HEX(F40)</f>
+        <f t="shared" si="4"/>
         <v>2E</v>
       </c>
       <c r="F40" s="5">
         <v>46</v>
       </c>
       <c r="G40" s="5" t="str">
-        <f>CHAR(F40)</f>
+        <f t="shared" si="5"/>
         <v>.</v>
       </c>
       <c r="I40" s="4">
-        <f>IF(ISBLANK(B40),D40-C40+1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J40" s="4">
-        <f>IF(ISBLANK(B40),0,D40-C40+1)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -3612,22 +3715,22 @@
         <v>511</v>
       </c>
       <c r="E41" s="61" t="str">
-        <f>DEC2HEX(F41)</f>
+        <f t="shared" si="4"/>
         <v>B6</v>
       </c>
       <c r="F41" s="61">
         <v>182</v>
       </c>
       <c r="G41" s="61" t="str">
-        <f>CHAR(F41)</f>
+        <f t="shared" si="5"/>
         <v>¶</v>
       </c>
       <c r="I41" s="4">
-        <f>IF(ISBLANK(B41),D41-C41+1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J41" s="4">
-        <f>IF(ISBLANK(B41),0,D41-C41+1)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -3645,22 +3748,22 @@
         <v>627</v>
       </c>
       <c r="E42" s="5" t="str">
-        <f>DEC2HEX(F42)</f>
+        <f t="shared" si="4"/>
         <v>FB</v>
       </c>
       <c r="F42" s="5">
         <v>251</v>
       </c>
       <c r="G42" s="5" t="str">
-        <f>CHAR(F42)</f>
+        <f t="shared" si="5"/>
         <v>û</v>
       </c>
       <c r="I42" s="4">
-        <f>IF(ISBLANK(B42),D42-C42+1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J42" s="4">
-        <f>IF(ISBLANK(B42),0,D42-C42+1)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
@@ -3678,22 +3781,22 @@
         <v>755</v>
       </c>
       <c r="E43" s="5" t="str">
-        <f>DEC2HEX(F43)</f>
+        <f t="shared" si="4"/>
         <v>FD</v>
       </c>
       <c r="F43" s="5">
         <v>253</v>
       </c>
       <c r="G43" s="5" t="str">
-        <f>CHAR(F43)</f>
+        <f t="shared" si="5"/>
         <v>ý</v>
       </c>
       <c r="I43" s="4">
-        <f>IF(ISBLANK(B43),D43-C43+1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J43" s="4">
-        <f>IF(ISBLANK(B43),0,D43-C43+1)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L43" s="5"/>
@@ -3713,23 +3816,23 @@
         <v>807</v>
       </c>
       <c r="E44" s="34" t="str">
-        <f>DEC2HEX(F44)</f>
+        <f t="shared" si="4"/>
         <v>3A</v>
       </c>
       <c r="F44" s="34">
         <v>58</v>
       </c>
       <c r="G44" s="34" t="str">
-        <f>CHAR(F44)</f>
+        <f t="shared" si="5"/>
         <v>:</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="4">
-        <f>IF(ISBLANK(B44),D44-C44+1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J44" s="4">
-        <f>IF(ISBLANK(B44),0,D44-C44+1)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -3747,22 +3850,22 @@
         <v>811</v>
       </c>
       <c r="E45" s="34" t="str">
-        <f>DEC2HEX(F45)</f>
+        <f t="shared" si="4"/>
         <v>3B</v>
       </c>
       <c r="F45" s="34">
         <v>59</v>
       </c>
       <c r="G45" s="34" t="str">
-        <f>CHAR(F45)</f>
+        <f t="shared" si="5"/>
         <v>;</v>
       </c>
       <c r="I45" s="4">
-        <f>IF(ISBLANK(B45),D45-C45+1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J45" s="4">
-        <f>IF(ISBLANK(B45),0,D45-C45+1)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -3780,22 +3883,22 @@
         <v>815</v>
       </c>
       <c r="E46" s="34" t="str">
-        <f>DEC2HEX(F46)</f>
+        <f t="shared" si="4"/>
         <v>BA</v>
       </c>
       <c r="F46" s="34">
         <v>186</v>
       </c>
       <c r="G46" s="34" t="str">
-        <f>CHAR(F46)</f>
+        <f t="shared" si="5"/>
         <v>º</v>
       </c>
       <c r="I46" s="4">
-        <f>IF(ISBLANK(B46),D46-C46+1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J46" s="4">
-        <f>IF(ISBLANK(B46),0,D46-C46+1)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -3813,22 +3916,22 @@
         <v>819</v>
       </c>
       <c r="E47" s="34" t="str">
-        <f>DEC2HEX(F47)</f>
+        <f t="shared" si="4"/>
         <v>B9</v>
       </c>
       <c r="F47" s="34">
         <v>185</v>
       </c>
       <c r="G47" s="34" t="str">
-        <f>CHAR(F47)</f>
+        <f t="shared" si="5"/>
         <v>¹</v>
       </c>
       <c r="I47" s="4">
-        <f>IF(ISBLANK(B47),D47-C47+1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J47" s="4">
-        <f>IF(ISBLANK(B47),0,D47-C47+1)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -3846,22 +3949,22 @@
         <v>855</v>
       </c>
       <c r="E48" s="34" t="str">
-        <f>DEC2HEX(F48)</f>
+        <f t="shared" si="4"/>
         <v>B9</v>
       </c>
       <c r="F48" s="34">
         <v>185</v>
       </c>
       <c r="G48" s="34" t="str">
-        <f>CHAR(F48)</f>
+        <f t="shared" si="5"/>
         <v>¹</v>
       </c>
       <c r="I48" s="4">
-        <f>IF(ISBLANK(B48),D48-C48+1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J48" s="4">
-        <f>IF(ISBLANK(B48),0,D48-C48+1)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -3879,22 +3982,22 @@
         <v>859</v>
       </c>
       <c r="E49" s="34" t="str">
-        <f>DEC2HEX(F49)</f>
+        <f t="shared" si="4"/>
         <v>BA</v>
       </c>
       <c r="F49" s="34">
         <v>186</v>
       </c>
       <c r="G49" s="34" t="str">
-        <f>CHAR(F49)</f>
+        <f t="shared" si="5"/>
         <v>º</v>
       </c>
       <c r="I49" s="4">
-        <f>IF(ISBLANK(B49),D49-C49+1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J49" s="4">
-        <f>IF(ISBLANK(B49),0,D49-C49+1)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -3912,23 +4015,23 @@
         <v>863</v>
       </c>
       <c r="E50" s="34" t="str">
-        <f>DEC2HEX(F50)</f>
+        <f t="shared" si="4"/>
         <v>BA</v>
       </c>
       <c r="F50" s="34">
         <v>186</v>
       </c>
       <c r="G50" s="34" t="str">
-        <f>CHAR(F50)</f>
+        <f t="shared" si="5"/>
         <v>º</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4">
-        <f>IF(ISBLANK(B50),D50-C50+1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J50" s="4">
-        <f>IF(ISBLANK(B50),0,D50-C50+1)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K50" s="4"/>
@@ -3951,23 +4054,23 @@
         <v>867</v>
       </c>
       <c r="E51" s="34" t="str">
-        <f>DEC2HEX(F51)</f>
+        <f t="shared" si="4"/>
         <v>B9</v>
       </c>
       <c r="F51" s="34">
         <v>185</v>
       </c>
       <c r="G51" s="34" t="str">
-        <f>CHAR(F51)</f>
+        <f t="shared" si="5"/>
         <v>¹</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4">
-        <f>IF(ISBLANK(B51),D51-C51+1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J51" s="4">
-        <f>IF(ISBLANK(B51),0,D51-C51+1)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K51" s="4"/>
@@ -3981,19 +4084,19 @@
         <v>96</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C52" s="46"/>
       <c r="D52" s="46"/>
       <c r="E52" s="47" t="str">
-        <f>DEC2HEX(F52)</f>
+        <f t="shared" si="4"/>
         <v>F7</v>
       </c>
       <c r="F52" s="47">
         <v>247</v>
       </c>
       <c r="G52" s="47" t="str">
-        <f>CHAR(F52)</f>
+        <f t="shared" si="5"/>
         <v>÷</v>
       </c>
     </row>
@@ -4011,22 +4114,22 @@
         <v>107</v>
       </c>
       <c r="E53" s="5" t="str">
-        <f>DEC2HEX(F53)</f>
+        <f t="shared" si="4"/>
         <v>6E</v>
       </c>
       <c r="F53" s="5">
         <v>110</v>
       </c>
       <c r="G53" s="5" t="str">
-        <f>CHAR(F53)</f>
+        <f t="shared" si="5"/>
         <v>n</v>
       </c>
       <c r="I53" s="4">
-        <f>IF(ISBLANK(B53),D53-C53+1,0)</f>
+        <f t="shared" ref="I53:I76" si="8">IF(ISBLANK(B53),D53-C53+1,0)</f>
         <v>0</v>
       </c>
       <c r="J53" s="4">
-        <f>IF(ISBLANK(B53),0,D53-C53+1)</f>
+        <f t="shared" ref="J53:J76" si="9">IF(ISBLANK(B53),0,D53-C53+1)</f>
         <v>4</v>
       </c>
     </row>
@@ -4044,22 +4147,22 @@
         <v>125</v>
       </c>
       <c r="E54" s="5" t="str">
-        <f>DEC2HEX(F54)</f>
+        <f t="shared" si="4"/>
         <v>BE</v>
       </c>
       <c r="F54" s="5">
         <v>190</v>
       </c>
       <c r="G54" s="5" t="str">
-        <f>CHAR(F54)</f>
+        <f t="shared" si="5"/>
         <v>¾</v>
       </c>
       <c r="I54" s="4">
-        <f>IF(ISBLANK(B54),D54-C54+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J54" s="4">
-        <f>IF(ISBLANK(B54),0,D54-C54+1)</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
     </row>
@@ -4070,29 +4173,29 @@
       <c r="B55" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="61">
+      <c r="C55" s="5">
         <v>152</v>
       </c>
-      <c r="D55" s="61">
+      <c r="D55" s="5">
         <v>155</v>
       </c>
-      <c r="E55" s="61" t="str">
-        <f>DEC2HEX(F55)</f>
+      <c r="E55" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="F55" s="61">
+      <c r="F55" s="5">
         <v>69</v>
       </c>
-      <c r="G55" s="61" t="str">
-        <f>CHAR(F55)</f>
+      <c r="G55" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>E</v>
       </c>
       <c r="I55" s="4">
-        <f>IF(ISBLANK(B55),D55-C55+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J55" s="4">
-        <f>IF(ISBLANK(B55),0,D55-C55+1)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -4103,29 +4206,29 @@
       <c r="B56" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="60">
+      <c r="C56" s="4">
         <v>160</v>
       </c>
-      <c r="D56" s="60">
+      <c r="D56" s="4">
         <v>163</v>
       </c>
-      <c r="E56" s="61" t="str">
-        <f>DEC2HEX(F56)</f>
+      <c r="E56" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="F56" s="61">
+      <c r="F56" s="5">
         <v>69</v>
       </c>
-      <c r="G56" s="61" t="str">
-        <f>CHAR(F56)</f>
+      <c r="G56" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>E</v>
       </c>
       <c r="I56" s="4">
-        <f>IF(ISBLANK(B56),D56-C56+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J56" s="4">
-        <f>IF(ISBLANK(B56),0,D56-C56+1)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="L56" s="5"/>
@@ -4138,29 +4241,29 @@
       <c r="B57" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="61">
+      <c r="C57" s="5">
         <v>192</v>
       </c>
-      <c r="D57" s="61">
+      <c r="D57" s="5">
         <v>195</v>
       </c>
-      <c r="E57" s="61" t="str">
-        <f>DEC2HEX(F57)</f>
+      <c r="E57" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="F57" s="61">
+      <c r="F57" s="5">
         <v>69</v>
       </c>
-      <c r="G57" s="61" t="str">
-        <f>CHAR(F57)</f>
+      <c r="G57" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>E</v>
       </c>
       <c r="I57" s="4">
-        <f>IF(ISBLANK(B57),D57-C57+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J57" s="4">
-        <f>IF(ISBLANK(B57),0,D57-C57+1)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -4171,29 +4274,29 @@
       <c r="B58" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="57">
+      <c r="C58" s="4">
         <v>352</v>
       </c>
-      <c r="D58" s="57">
+      <c r="D58" s="4">
         <v>359</v>
       </c>
-      <c r="E58" s="58" t="str">
-        <f>DEC2HEX(F58)</f>
+      <c r="E58" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>BF</v>
       </c>
-      <c r="F58" s="58">
+      <c r="F58" s="5">
         <v>191</v>
       </c>
-      <c r="G58" s="58" t="str">
-        <f>CHAR(F58)</f>
+      <c r="G58" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>¿</v>
       </c>
       <c r="I58" s="4">
-        <f>IF(ISBLANK(B58),D58-C58+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J58" s="4">
-        <f>IF(ISBLANK(B58),0,D58-C58+1)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -4204,29 +4307,29 @@
       <c r="B59" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C59" s="57">
+      <c r="C59" s="4">
         <v>360</v>
       </c>
-      <c r="D59" s="57">
+      <c r="D59" s="4">
         <v>367</v>
       </c>
-      <c r="E59" s="58" t="str">
-        <f>DEC2HEX(F59)</f>
+      <c r="E59" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>BF</v>
       </c>
-      <c r="F59" s="58">
+      <c r="F59" s="5">
         <v>191</v>
       </c>
-      <c r="G59" s="58" t="str">
-        <f>CHAR(F59)</f>
+      <c r="G59" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>¿</v>
       </c>
       <c r="I59" s="4">
-        <f>IF(ISBLANK(B59),D59-C59+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J59" s="4">
-        <f>IF(ISBLANK(B59),0,D59-C59+1)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -4237,30 +4340,30 @@
       <c r="B60" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C60" s="67">
+      <c r="C60" s="4">
         <v>368</v>
       </c>
-      <c r="D60" s="67">
+      <c r="D60" s="4">
         <v>371</v>
       </c>
-      <c r="E60" s="35" t="str">
-        <f>DEC2HEX(F60)</f>
+      <c r="E60" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>F6</v>
       </c>
-      <c r="F60" s="35">
+      <c r="F60" s="5">
         <v>246</v>
       </c>
-      <c r="G60" s="35" t="str">
-        <f>CHAR(F60)</f>
+      <c r="G60" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>ö</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="4">
-        <f>IF(ISBLANK(B60),D60-C60+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J60" s="4">
-        <f>IF(ISBLANK(B60),0,D60-C60+1)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -4271,29 +4374,29 @@
       <c r="B61" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C61" s="60">
+      <c r="C61" s="4">
         <v>428</v>
       </c>
-      <c r="D61" s="61">
+      <c r="D61" s="5">
         <v>431</v>
       </c>
-      <c r="E61" s="61" t="str">
-        <f>DEC2HEX(F61)</f>
+      <c r="E61" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="F61" s="61">
+      <c r="F61" s="5">
         <v>69</v>
       </c>
-      <c r="G61" s="61" t="str">
-        <f>CHAR(F61)</f>
+      <c r="G61" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>E</v>
       </c>
       <c r="I61" s="4">
-        <f>IF(ISBLANK(B61),D61-C61+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J61" s="4">
-        <f>IF(ISBLANK(B61),0,D61-C61+1)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -4304,29 +4407,29 @@
       <c r="B62" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C62" s="60">
+      <c r="C62" s="4">
         <v>440</v>
       </c>
-      <c r="D62" s="60">
+      <c r="D62" s="4">
         <v>443</v>
       </c>
-      <c r="E62" s="61" t="str">
-        <f>DEC2HEX(F62)</f>
+      <c r="E62" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="F62" s="61">
+      <c r="F62" s="5">
         <v>69</v>
       </c>
-      <c r="G62" s="61" t="str">
-        <f>CHAR(F62)</f>
+      <c r="G62" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>E</v>
       </c>
       <c r="I62" s="4">
-        <f>IF(ISBLANK(B62),D62-C62+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J62" s="4">
-        <f>IF(ISBLANK(B62),0,D62-C62+1)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -4334,32 +4437,32 @@
       <c r="A63" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="56" t="s">
         <v>442</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="56">
         <v>536</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="56">
         <v>539</v>
       </c>
-      <c r="E63" s="5" t="str">
-        <f>DEC2HEX(F63)</f>
+      <c r="E63" s="55" t="str">
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="55">
         <v>196</v>
       </c>
-      <c r="G63" s="5" t="str">
-        <f>CHAR(F63)</f>
+      <c r="G63" s="55" t="str">
+        <f t="shared" si="5"/>
         <v>Ä</v>
       </c>
       <c r="I63" s="4">
-        <f>IF(ISBLANK(B63),D63-C63+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J63" s="4">
-        <f>IF(ISBLANK(B63),0,D63-C63+1)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -4367,32 +4470,32 @@
       <c r="A64" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="56">
         <v>572</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="56">
         <v>575</v>
       </c>
-      <c r="E64" s="5" t="str">
-        <f>DEC2HEX(F64)</f>
+      <c r="E64" s="55" t="str">
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="55">
         <v>196</v>
       </c>
-      <c r="G64" s="5" t="str">
-        <f>CHAR(F64)</f>
+      <c r="G64" s="55" t="str">
+        <f t="shared" si="5"/>
         <v>Ä</v>
       </c>
       <c r="I64" s="4">
-        <f>IF(ISBLANK(B64),D64-C64+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J64" s="4">
-        <f>IF(ISBLANK(B64),0,D64-C64+1)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -4403,29 +4506,29 @@
       <c r="B65" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C65" s="57">
+      <c r="C65" s="4">
         <v>580</v>
       </c>
-      <c r="D65" s="57">
+      <c r="D65" s="4">
         <v>587</v>
       </c>
-      <c r="E65" s="58" t="str">
-        <f>DEC2HEX(F65)</f>
+      <c r="E65" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>BF</v>
       </c>
-      <c r="F65" s="58">
+      <c r="F65" s="5">
         <v>191</v>
       </c>
-      <c r="G65" s="58" t="str">
-        <f>CHAR(F65)</f>
+      <c r="G65" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>¿</v>
       </c>
       <c r="I65" s="4">
-        <f>IF(ISBLANK(B65),D65-C65+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J65" s="4">
-        <f>IF(ISBLANK(B65),0,D65-C65+1)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -4433,32 +4536,32 @@
       <c r="A66" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="56" t="s">
         <v>441</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="55">
         <v>588</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="55">
         <v>591</v>
       </c>
-      <c r="E66" s="5" t="str">
-        <f>DEC2HEX(F66)</f>
+      <c r="E66" s="55" t="str">
+        <f t="shared" ref="E66:E67" si="10">DEC2HEX(F66)</f>
         <v>C4</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="55">
         <v>196</v>
       </c>
-      <c r="G66" s="5" t="str">
-        <f>CHAR(F66)</f>
+      <c r="G66" s="55" t="str">
+        <f t="shared" ref="G66:G67" si="11">CHAR(F66)</f>
         <v>Ä</v>
       </c>
       <c r="I66" s="4">
-        <f>IF(ISBLANK(B66),D66-C66+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J66" s="4">
-        <f>IF(ISBLANK(B66),0,D66-C66+1)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -4466,32 +4569,32 @@
       <c r="A67" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="56">
         <v>592</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="56">
         <v>595</v>
       </c>
-      <c r="E67" s="5" t="str">
-        <f>DEC2HEX(F67)</f>
+      <c r="E67" s="55" t="str">
+        <f t="shared" si="10"/>
         <v>C4</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="55">
         <v>196</v>
       </c>
-      <c r="G67" s="5" t="str">
-        <f>CHAR(F67)</f>
+      <c r="G67" s="55" t="str">
+        <f t="shared" si="11"/>
         <v>Ä</v>
       </c>
       <c r="I67" s="4">
-        <f>IF(ISBLANK(B67),D67-C67+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J67" s="4">
-        <f>IF(ISBLANK(B67),0,D67-C67+1)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -4511,11 +4614,11 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="I68" s="4">
-        <f>IF(ISBLANK(B68),D68-C68+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J68" s="4">
-        <f>IF(ISBLANK(B68),0,D68-C68+1)</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
     </row>
@@ -4534,11 +4637,11 @@
       </c>
       <c r="E69" s="4"/>
       <c r="I69" s="4">
-        <f>IF(ISBLANK(B69),D69-C69+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J69" s="4">
-        <f>IF(ISBLANK(B69),0,D69-C69+1)</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
     </row>
@@ -4549,29 +4652,29 @@
       <c r="B70" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C70" s="57">
+      <c r="C70" s="4">
         <v>672</v>
       </c>
-      <c r="D70" s="57">
+      <c r="D70" s="4">
         <v>679</v>
       </c>
-      <c r="E70" s="58" t="str">
+      <c r="E70" s="5" t="str">
         <f>DEC2HEX(F70)</f>
         <v>BF</v>
       </c>
-      <c r="F70" s="58">
+      <c r="F70" s="5">
         <v>191</v>
       </c>
-      <c r="G70" s="58" t="str">
+      <c r="G70" s="5" t="str">
         <f>CHAR(F70)</f>
         <v>¿</v>
       </c>
       <c r="I70" s="4">
-        <f>IF(ISBLANK(B70),D70-C70+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J70" s="4">
-        <f>IF(ISBLANK(B70),0,D70-C70+1)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -4582,29 +4685,29 @@
       <c r="B71" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C71" s="58">
+      <c r="C71" s="5">
         <v>680</v>
       </c>
-      <c r="D71" s="58">
+      <c r="D71" s="5">
         <v>687</v>
       </c>
-      <c r="E71" s="58" t="str">
+      <c r="E71" s="5" t="str">
         <f>DEC2HEX(F71)</f>
         <v>BF</v>
       </c>
-      <c r="F71" s="58">
+      <c r="F71" s="5">
         <v>191</v>
       </c>
-      <c r="G71" s="58" t="str">
+      <c r="G71" s="5" t="str">
         <f>CHAR(F71)</f>
         <v>¿</v>
       </c>
       <c r="I71" s="4">
-        <f>IF(ISBLANK(B71),D71-C71+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J71" s="4">
-        <f>IF(ISBLANK(B71),0,D71-C71+1)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -4612,32 +4715,32 @@
       <c r="A72" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="56">
         <v>708</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="56">
         <v>711</v>
       </c>
-      <c r="E72" s="5" t="str">
+      <c r="E72" s="55" t="str">
         <f>DEC2HEX(F72)</f>
         <v>C4</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="55">
         <v>196</v>
       </c>
-      <c r="G72" s="5" t="str">
+      <c r="G72" s="55" t="str">
         <f>CHAR(F72)</f>
         <v>Ä</v>
       </c>
       <c r="I72" s="4">
-        <f>IF(ISBLANK(B72),D72-C72+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J72" s="4">
-        <f>IF(ISBLANK(B72),0,D72-C72+1)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -4655,11 +4758,11 @@
         <v>725</v>
       </c>
       <c r="I73" s="4">
-        <f>IF(ISBLANK(B73),D73-C73+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J73" s="4">
-        <f>IF(ISBLANK(B73),0,D73-C73+1)</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
     </row>
@@ -4677,11 +4780,11 @@
         <v>739</v>
       </c>
       <c r="I74" s="4">
-        <f>IF(ISBLANK(B74),D74-C74+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J74" s="4">
-        <f>IF(ISBLANK(B74),0,D74-C74+1)</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
     </row>
@@ -4699,22 +4802,22 @@
         <v>907</v>
       </c>
       <c r="E75" s="5" t="str">
-        <f>DEC2HEX(F75)</f>
+        <f t="shared" ref="E75:E106" si="12">DEC2HEX(F75)</f>
         <v>3A</v>
       </c>
       <c r="F75" s="5">
         <v>58</v>
       </c>
       <c r="G75" s="5" t="str">
-        <f>CHAR(F75)</f>
+        <f t="shared" ref="G75:G106" si="13">CHAR(F75)</f>
         <v>:</v>
       </c>
       <c r="I75" s="4">
-        <f>IF(ISBLANK(B75),D75-C75+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J75" s="4">
-        <f>IF(ISBLANK(B75),0,D75-C75+1)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -4732,22 +4835,22 @@
         <v>947</v>
       </c>
       <c r="E76" s="5" t="str">
-        <f>DEC2HEX(F76)</f>
+        <f t="shared" si="12"/>
         <v>3B</v>
       </c>
       <c r="F76" s="5">
         <v>59</v>
       </c>
       <c r="G76" s="5" t="str">
-        <f>CHAR(F76)</f>
+        <f t="shared" si="13"/>
         <v>;</v>
       </c>
       <c r="I76" s="4">
-        <f>IF(ISBLANK(B76),D76-C76+1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J76" s="4">
-        <f>IF(ISBLANK(B76),0,D76-C76+1)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -4759,14 +4862,14 @@
         <v>2</v>
       </c>
       <c r="E77" s="5" t="str">
-        <f>DEC2HEX(F77)</f>
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
       <c r="F77" s="5">
         <v>81</v>
       </c>
       <c r="G77" s="5" t="str">
-        <f>CHAR(F77)</f>
+        <f t="shared" si="13"/>
         <v>Q</v>
       </c>
     </row>
@@ -4778,14 +4881,14 @@
         <v>1</v>
       </c>
       <c r="E78" s="5" t="str">
-        <f>DEC2HEX(F78)</f>
+        <f t="shared" si="12"/>
         <v>52</v>
       </c>
       <c r="F78" s="5">
         <v>82</v>
       </c>
       <c r="G78" s="5" t="str">
-        <f>CHAR(F78)</f>
+        <f t="shared" si="13"/>
         <v>R</v>
       </c>
     </row>
@@ -4793,32 +4896,32 @@
       <c r="A79" s="56" t="s">
         <v>344</v>
       </c>
-      <c r="B79" s="68" t="s">
+      <c r="B79" s="67" t="s">
         <v>458</v>
       </c>
-      <c r="C79" s="68">
+      <c r="C79" s="67">
         <v>140</v>
       </c>
-      <c r="D79" s="68">
+      <c r="D79" s="67">
         <v>143</v>
       </c>
-      <c r="E79" s="69" t="str">
-        <f>DEC2HEX(F79)</f>
+      <c r="E79" s="68" t="str">
+        <f t="shared" si="12"/>
         <v>67</v>
       </c>
-      <c r="F79" s="69">
+      <c r="F79" s="68">
         <v>103</v>
       </c>
-      <c r="G79" s="69" t="str">
-        <f>CHAR(F79)</f>
+      <c r="G79" s="68" t="str">
+        <f t="shared" si="13"/>
         <v>g</v>
       </c>
       <c r="I79" s="4">
-        <f>IF(ISBLANK(B79),D79-C79+1,0)</f>
+        <f t="shared" ref="I79:I90" si="14">IF(ISBLANK(B79),D79-C79+1,0)</f>
         <v>0</v>
       </c>
       <c r="J79" s="4">
-        <f>IF(ISBLANK(B79),0,D79-C79+1)</f>
+        <f t="shared" ref="J79:J90" si="15">IF(ISBLANK(B79),0,D79-C79+1)</f>
         <v>4</v>
       </c>
     </row>
@@ -4826,32 +4929,32 @@
       <c r="A80" s="56" t="s">
         <v>344</v>
       </c>
-      <c r="B80" s="68" t="s">
+      <c r="B80" s="67" t="s">
         <v>459</v>
       </c>
-      <c r="C80" s="68">
+      <c r="C80" s="67">
         <v>144</v>
       </c>
-      <c r="D80" s="68">
+      <c r="D80" s="67">
         <v>147</v>
       </c>
-      <c r="E80" s="69" t="str">
-        <f>DEC2HEX(F80)</f>
+      <c r="E80" s="68" t="str">
+        <f t="shared" si="12"/>
         <v>68</v>
       </c>
-      <c r="F80" s="69">
+      <c r="F80" s="68">
         <v>104</v>
       </c>
-      <c r="G80" s="69" t="str">
-        <f>CHAR(F80)</f>
+      <c r="G80" s="68" t="str">
+        <f t="shared" si="13"/>
         <v>h</v>
       </c>
       <c r="I80" s="4">
-        <f>IF(ISBLANK(B80),D80-C80+1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J80" s="4">
-        <f>IF(ISBLANK(B80),0,D80-C80+1)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -4859,32 +4962,32 @@
       <c r="A81" s="56" t="s">
         <v>344</v>
       </c>
-      <c r="B81" s="68" t="s">
+      <c r="B81" s="67" t="s">
         <v>460</v>
       </c>
-      <c r="C81" s="69">
+      <c r="C81" s="68">
         <v>176</v>
       </c>
-      <c r="D81" s="69">
+      <c r="D81" s="68">
         <v>179</v>
       </c>
-      <c r="E81" s="69" t="str">
-        <f>DEC2HEX(F81)</f>
+      <c r="E81" s="68" t="str">
+        <f t="shared" si="12"/>
         <v>6A</v>
       </c>
-      <c r="F81" s="69">
+      <c r="F81" s="68">
         <v>106</v>
       </c>
-      <c r="G81" s="69" t="str">
-        <f>CHAR(F81)</f>
+      <c r="G81" s="68" t="str">
+        <f t="shared" si="13"/>
         <v>j</v>
       </c>
       <c r="I81" s="4">
-        <f>IF(ISBLANK(B81),D81-C81+1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J81" s="4">
-        <f>IF(ISBLANK(B81),0,D81-C81+1)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -4893,7 +4996,7 @@
         <v>344</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C82" s="41">
         <v>184</v>
@@ -4902,22 +5005,22 @@
         <v>187</v>
       </c>
       <c r="E82" s="50" t="str">
-        <f>DEC2HEX(F82)</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="F82" s="50">
         <v>86</v>
       </c>
       <c r="G82" s="50" t="str">
-        <f>CHAR(F82)</f>
+        <f t="shared" si="13"/>
         <v>V</v>
       </c>
       <c r="I82" s="4">
-        <f>IF(ISBLANK(B82),D82-C82+1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J82" s="4">
-        <f>IF(ISBLANK(B82),0,D82-C82+1)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -4926,7 +5029,7 @@
         <v>344</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C83" s="4">
         <v>264</v>
@@ -4935,22 +5038,22 @@
         <v>267</v>
       </c>
       <c r="E83" s="61" t="str">
-        <f>DEC2HEX(F83)</f>
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
       <c r="F83" s="61">
         <v>71</v>
       </c>
       <c r="G83" s="61" t="str">
-        <f>CHAR(F83)</f>
+        <f t="shared" si="13"/>
         <v>G</v>
       </c>
       <c r="I83" s="4">
-        <f>IF(ISBLANK(B83),D83-C83+1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J83" s="4">
-        <f>IF(ISBLANK(B83),0,D83-C83+1)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -4959,7 +5062,7 @@
         <v>344</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C84" s="63">
         <v>348</v>
@@ -4968,22 +5071,22 @@
         <v>351</v>
       </c>
       <c r="E84" s="50" t="str">
-        <f>DEC2HEX(F84)</f>
+        <f t="shared" si="12"/>
         <v>A1</v>
       </c>
       <c r="F84" s="50">
         <v>161</v>
       </c>
       <c r="G84" s="50" t="str">
-        <f>CHAR(F84)</f>
+        <f t="shared" si="13"/>
         <v>¡</v>
       </c>
       <c r="I84" s="4">
-        <f>IF(ISBLANK(B84),D84-C84+1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J84" s="4">
-        <f>IF(ISBLANK(B84),0,D84-C84+1)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -5001,22 +5104,22 @@
         <v>395</v>
       </c>
       <c r="E85" s="5" t="str">
-        <f>DEC2HEX(F85)</f>
+        <f t="shared" si="12"/>
         <v>E1</v>
       </c>
       <c r="F85" s="5">
         <v>225</v>
       </c>
       <c r="G85" s="5" t="str">
-        <f>CHAR(F85)</f>
+        <f t="shared" si="13"/>
         <v>á</v>
       </c>
       <c r="I85" s="4">
-        <f>IF(ISBLANK(B85),D85-C85+1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J85" s="4">
-        <f>IF(ISBLANK(B85),0,D85-C85+1)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -5034,22 +5137,22 @@
         <v>427</v>
       </c>
       <c r="E86" s="5" t="str">
-        <f>DEC2HEX(F86)</f>
+        <f t="shared" si="12"/>
         <v>DC</v>
       </c>
       <c r="F86" s="5">
         <v>220</v>
       </c>
       <c r="G86" s="5" t="str">
-        <f>CHAR(F86)</f>
+        <f t="shared" si="13"/>
         <v>Ü</v>
       </c>
       <c r="I86" s="4">
-        <f>IF(ISBLANK(B86),D86-C86+1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J86" s="4">
-        <f>IF(ISBLANK(B86),0,D86-C86+1)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -5067,22 +5170,22 @@
         <v>479</v>
       </c>
       <c r="E87" s="5" t="str">
-        <f>DEC2HEX(F87)</f>
+        <f t="shared" si="12"/>
         <v>E0</v>
       </c>
       <c r="F87" s="5">
         <v>224</v>
       </c>
       <c r="G87" s="5" t="str">
-        <f>CHAR(F87)</f>
+        <f t="shared" si="13"/>
         <v>à</v>
       </c>
       <c r="I87" s="4">
-        <f>IF(ISBLANK(B87),D87-C87+1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J87" s="4">
-        <f>IF(ISBLANK(B87),0,D87-C87+1)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -5100,22 +5203,22 @@
         <v>579</v>
       </c>
       <c r="E88" s="5" t="str">
-        <f>DEC2HEX(F88)</f>
+        <f t="shared" si="12"/>
         <v>DF</v>
       </c>
       <c r="F88" s="5">
         <v>223</v>
       </c>
       <c r="G88" s="5" t="str">
-        <f>CHAR(F88)</f>
+        <f t="shared" si="13"/>
         <v>ß</v>
       </c>
       <c r="I88" s="4">
-        <f>IF(ISBLANK(B88),D88-C88+1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J88" s="4">
-        <f>IF(ISBLANK(B88),0,D88-C88+1)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -5133,22 +5236,22 @@
         <v>599</v>
       </c>
       <c r="E89" s="5" t="str">
-        <f>DEC2HEX(F89)</f>
+        <f t="shared" si="12"/>
         <v>DE</v>
       </c>
       <c r="F89" s="5">
         <v>222</v>
       </c>
       <c r="G89" s="5" t="str">
-        <f>CHAR(F89)</f>
+        <f t="shared" si="13"/>
         <v>Þ</v>
       </c>
       <c r="I89" s="4">
-        <f>IF(ISBLANK(B89),D89-C89+1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J89" s="4">
-        <f>IF(ISBLANK(B89),0,D89-C89+1)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="N89" s="5"/>
@@ -5168,22 +5271,22 @@
         <v>707</v>
       </c>
       <c r="E90" s="5" t="str">
-        <f>DEC2HEX(F90)</f>
+        <f t="shared" si="12"/>
         <v>DD</v>
       </c>
       <c r="F90" s="5">
         <v>221</v>
       </c>
       <c r="G90" s="5" t="str">
-        <f>CHAR(F90)</f>
+        <f t="shared" si="13"/>
         <v>Ý</v>
       </c>
       <c r="I90" s="4">
-        <f>IF(ISBLANK(B90),D90-C90+1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J90" s="4">
-        <f>IF(ISBLANK(B90),0,D90-C90+1)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -5197,14 +5300,14 @@
       <c r="C91" s="46"/>
       <c r="D91" s="46"/>
       <c r="E91" s="47" t="str">
-        <f>DEC2HEX(F91)</f>
+        <f t="shared" si="12"/>
         <v>A3</v>
       </c>
       <c r="F91" s="47">
         <v>163</v>
       </c>
       <c r="G91" s="47" t="str">
-        <f>CHAR(F91)</f>
+        <f t="shared" si="13"/>
         <v>£</v>
       </c>
     </row>
@@ -5222,22 +5325,22 @@
         <v>3</v>
       </c>
       <c r="E92" s="44" t="str">
-        <f>DEC2HEX(F92)</f>
+        <f t="shared" si="12"/>
         <v>6E</v>
       </c>
       <c r="F92" s="44">
         <v>110</v>
       </c>
       <c r="G92" s="44" t="str">
-        <f>CHAR(F92)</f>
+        <f t="shared" si="13"/>
         <v>n</v>
       </c>
       <c r="I92" s="4">
-        <f>IF(ISBLANK(B92),D92-C92+1,0)</f>
+        <f t="shared" ref="I92:I104" si="16">IF(ISBLANK(B92),D92-C92+1,0)</f>
         <v>0</v>
       </c>
       <c r="J92" s="4">
-        <f>IF(ISBLANK(B92),0,D92-C92+1)</f>
+        <f t="shared" ref="J92:J104" si="17">IF(ISBLANK(B92),0,D92-C92+1)</f>
         <v>4</v>
       </c>
       <c r="K92" s="4">
@@ -5267,22 +5370,22 @@
         <v>11</v>
       </c>
       <c r="E93" s="44" t="str">
-        <f>DEC2HEX(F93)</f>
+        <f t="shared" si="12"/>
         <v>6F</v>
       </c>
       <c r="F93" s="43">
         <v>111</v>
       </c>
       <c r="G93" s="44" t="str">
-        <f>CHAR(F93)</f>
+        <f t="shared" si="13"/>
         <v>o</v>
       </c>
       <c r="I93" s="4">
-        <f>IF(ISBLANK(B93),D93-C93+1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J93" s="4">
-        <f>IF(ISBLANK(B93),0,D93-C93+1)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
@@ -5300,22 +5403,22 @@
         <v>15</v>
       </c>
       <c r="E94" s="44" t="str">
-        <f>DEC2HEX(F94)</f>
+        <f t="shared" si="12"/>
         <v>6F</v>
       </c>
       <c r="F94" s="43">
         <v>111</v>
       </c>
       <c r="G94" s="44" t="str">
-        <f>CHAR(F94)</f>
+        <f t="shared" si="13"/>
         <v>o</v>
       </c>
       <c r="I94" s="4">
-        <f>IF(ISBLANK(B94),D94-C94+1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J94" s="4">
-        <f>IF(ISBLANK(B94),0,D94-C94+1)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
@@ -5333,22 +5436,22 @@
         <v>19</v>
       </c>
       <c r="E95" s="44" t="str">
-        <f>DEC2HEX(F95)</f>
+        <f t="shared" si="12"/>
         <v>6F</v>
       </c>
       <c r="F95" s="43">
         <v>111</v>
       </c>
       <c r="G95" s="44" t="str">
-        <f>CHAR(F95)</f>
+        <f t="shared" si="13"/>
         <v>o</v>
       </c>
       <c r="I95" s="4">
-        <f>IF(ISBLANK(B95),D95-C95+1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J95" s="4">
-        <f>IF(ISBLANK(B95),0,D95-C95+1)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
@@ -5366,22 +5469,22 @@
         <v>571</v>
       </c>
       <c r="E96" s="5" t="str">
-        <f>DEC2HEX(F96)</f>
+        <f t="shared" si="12"/>
         <v>C5</v>
       </c>
       <c r="F96" s="5">
         <v>197</v>
       </c>
       <c r="G96" s="5" t="str">
-        <f>CHAR(F96)</f>
+        <f t="shared" si="13"/>
         <v>Å</v>
       </c>
       <c r="I96" s="4">
-        <f>IF(ISBLANK(B96),D96-C96+1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J96" s="4">
-        <f>IF(ISBLANK(B96),0,D96-C96+1)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
@@ -5399,22 +5502,22 @@
         <v>875</v>
       </c>
       <c r="E97" s="34" t="str">
-        <f>DEC2HEX(F97)</f>
+        <f t="shared" si="12"/>
         <v>3A</v>
       </c>
       <c r="F97" s="34">
         <v>58</v>
       </c>
       <c r="G97" s="34" t="str">
-        <f>CHAR(F97)</f>
+        <f t="shared" si="13"/>
         <v>:</v>
       </c>
       <c r="I97" s="4">
-        <f>IF(ISBLANK(B97),D97-C97+1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J97" s="4">
-        <f>IF(ISBLANK(B97),0,D97-C97+1)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
@@ -5432,22 +5535,22 @@
         <v>915</v>
       </c>
       <c r="E98" s="34" t="str">
-        <f>DEC2HEX(F98)</f>
+        <f t="shared" si="12"/>
         <v>3B</v>
       </c>
       <c r="F98" s="34">
         <v>59</v>
       </c>
       <c r="G98" s="34" t="str">
-        <f>CHAR(F98)</f>
+        <f t="shared" si="13"/>
         <v>;</v>
       </c>
       <c r="I98" s="4">
-        <f>IF(ISBLANK(B98),D98-C98+1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J98" s="4">
-        <f>IF(ISBLANK(B98),0,D98-C98+1)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
@@ -5465,22 +5568,22 @@
         <v>955</v>
       </c>
       <c r="E99" s="34" t="str">
-        <f>DEC2HEX(F99)</f>
+        <f t="shared" si="12"/>
         <v>B9</v>
       </c>
       <c r="F99" s="34">
         <v>185</v>
       </c>
       <c r="G99" s="34" t="str">
-        <f>CHAR(F99)</f>
+        <f t="shared" si="13"/>
         <v>¹</v>
       </c>
       <c r="I99" s="4">
-        <f>IF(ISBLANK(B99),D99-C99+1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J99" s="4">
-        <f>IF(ISBLANK(B99),0,D99-C99+1)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
@@ -5498,22 +5601,22 @@
         <v>975</v>
       </c>
       <c r="E100" s="34" t="str">
-        <f>DEC2HEX(F100)</f>
+        <f t="shared" si="12"/>
         <v>BA</v>
       </c>
       <c r="F100" s="34">
         <v>186</v>
       </c>
       <c r="G100" s="34" t="str">
-        <f>CHAR(F100)</f>
+        <f t="shared" si="13"/>
         <v>º</v>
       </c>
       <c r="I100" s="4">
-        <f>IF(ISBLANK(B100),D100-C100+1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J100" s="4">
-        <f>IF(ISBLANK(B100),0,D100-C100+1)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
@@ -5531,22 +5634,22 @@
         <v>995</v>
       </c>
       <c r="E101" s="34" t="str">
-        <f>DEC2HEX(F101)</f>
+        <f t="shared" si="12"/>
         <v>B9</v>
       </c>
       <c r="F101" s="34">
         <v>185</v>
       </c>
       <c r="G101" s="34" t="str">
-        <f>CHAR(F101)</f>
+        <f t="shared" si="13"/>
         <v>¹</v>
       </c>
       <c r="I101" s="4">
-        <f>IF(ISBLANK(B101),D101-C101+1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J101" s="4">
-        <f>IF(ISBLANK(B101),0,D101-C101+1)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
@@ -5564,22 +5667,22 @@
         <v>1007</v>
       </c>
       <c r="E102" s="34" t="str">
-        <f>DEC2HEX(F102)</f>
+        <f t="shared" si="12"/>
         <v>BA</v>
       </c>
       <c r="F102" s="34">
         <v>186</v>
       </c>
       <c r="G102" s="34" t="str">
-        <f>CHAR(F102)</f>
+        <f t="shared" si="13"/>
         <v>º</v>
       </c>
       <c r="I102" s="4">
-        <f>IF(ISBLANK(B102),D102-C102+1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J102" s="4">
-        <f>IF(ISBLANK(B102),0,D102-C102+1)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
@@ -5597,23 +5700,23 @@
         <v>1019</v>
       </c>
       <c r="E103" s="34" t="str">
-        <f>DEC2HEX(F103)</f>
+        <f t="shared" si="12"/>
         <v>B9</v>
       </c>
       <c r="F103" s="34">
         <v>185</v>
       </c>
       <c r="G103" s="34" t="str">
-        <f>CHAR(F103)</f>
+        <f t="shared" si="13"/>
         <v>¹</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4">
-        <f>IF(ISBLANK(B103),D103-C103+1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J103" s="4">
-        <f>IF(ISBLANK(B103),0,D103-C103+1)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="K103" s="4"/>
@@ -5636,22 +5739,22 @@
         <v>1023</v>
       </c>
       <c r="E104" s="34" t="str">
-        <f>DEC2HEX(F104)</f>
+        <f t="shared" si="12"/>
         <v>BA</v>
       </c>
       <c r="F104" s="34">
         <v>186</v>
       </c>
       <c r="G104" s="34" t="str">
-        <f>CHAR(F104)</f>
+        <f t="shared" si="13"/>
         <v>º</v>
       </c>
       <c r="I104" s="4">
-        <f>IF(ISBLANK(B104),D104-C104+1,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J104" s="4">
-        <f>IF(ISBLANK(B104),0,D104-C104+1)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
@@ -5665,14 +5768,14 @@
       <c r="C105" s="46"/>
       <c r="D105" s="46"/>
       <c r="E105" s="47" t="str">
-        <f>DEC2HEX(F105)</f>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
       <c r="F105" s="47">
         <v>67</v>
       </c>
       <c r="G105" s="47" t="str">
-        <f>CHAR(F105)</f>
+        <f t="shared" si="13"/>
         <v>C</v>
       </c>
     </row>
@@ -5686,14 +5789,14 @@
       <c r="C106" s="46"/>
       <c r="D106" s="46"/>
       <c r="E106" s="47" t="str">
-        <f>DEC2HEX(F106)</f>
+        <f t="shared" si="12"/>
         <v>5A</v>
       </c>
       <c r="F106" s="47">
         <v>90</v>
       </c>
       <c r="G106" s="47" t="str">
-        <f>CHAR(F106)</f>
+        <f t="shared" si="13"/>
         <v>Z</v>
       </c>
     </row>
@@ -5707,14 +5810,14 @@
       <c r="C107" s="46"/>
       <c r="D107" s="46"/>
       <c r="E107" s="47" t="str">
-        <f>DEC2HEX(F107)</f>
+        <f t="shared" ref="E107:E125" si="18">DEC2HEX(F107)</f>
         <v>5B</v>
       </c>
       <c r="F107" s="47">
         <v>91</v>
       </c>
       <c r="G107" s="47" t="str">
-        <f>CHAR(F107)</f>
+        <f t="shared" ref="G107:G125" si="19">CHAR(F107)</f>
         <v>[</v>
       </c>
     </row>
@@ -5728,14 +5831,14 @@
       <c r="C108" s="46"/>
       <c r="D108" s="46"/>
       <c r="E108" s="47" t="str">
-        <f>DEC2HEX(F108)</f>
+        <f t="shared" si="18"/>
         <v>63</v>
       </c>
       <c r="F108" s="47">
         <v>99</v>
       </c>
       <c r="G108" s="47" t="str">
-        <f>CHAR(F108)</f>
+        <f t="shared" si="19"/>
         <v>c</v>
       </c>
     </row>
@@ -5749,14 +5852,14 @@
       <c r="C109" s="46"/>
       <c r="D109" s="46"/>
       <c r="E109" s="47" t="str">
-        <f>DEC2HEX(F109)</f>
+        <f t="shared" si="18"/>
         <v>6B</v>
       </c>
       <c r="F109" s="47">
         <v>107</v>
       </c>
       <c r="G109" s="47" t="str">
-        <f>CHAR(F109)</f>
+        <f t="shared" si="19"/>
         <v>k</v>
       </c>
     </row>
@@ -5770,14 +5873,14 @@
       <c r="C110" s="46"/>
       <c r="D110" s="46"/>
       <c r="E110" s="47" t="str">
-        <f>DEC2HEX(F110)</f>
+        <f t="shared" si="18"/>
         <v>6C</v>
       </c>
       <c r="F110" s="47">
         <v>108</v>
       </c>
       <c r="G110" s="47" t="str">
-        <f>CHAR(F110)</f>
+        <f t="shared" si="19"/>
         <v>l</v>
       </c>
     </row>
@@ -5791,14 +5894,14 @@
       <c r="C111" s="46"/>
       <c r="D111" s="46"/>
       <c r="E111" s="47" t="str">
-        <f>DEC2HEX(F111)</f>
+        <f t="shared" si="18"/>
         <v>A5</v>
       </c>
       <c r="F111" s="47">
         <v>165</v>
       </c>
       <c r="G111" s="47" t="str">
-        <f>CHAR(F111)</f>
+        <f t="shared" si="19"/>
         <v>¥</v>
       </c>
     </row>
@@ -5812,14 +5915,14 @@
       <c r="C112" s="46"/>
       <c r="D112" s="46"/>
       <c r="E112" s="47" t="str">
-        <f>DEC2HEX(F112)</f>
+        <f t="shared" si="18"/>
         <v>A6</v>
       </c>
       <c r="F112" s="47">
         <v>166</v>
       </c>
       <c r="G112" s="47" t="str">
-        <f>CHAR(F112)</f>
+        <f t="shared" si="19"/>
         <v>¦</v>
       </c>
     </row>
@@ -5833,14 +5936,14 @@
       <c r="C113" s="46"/>
       <c r="D113" s="46"/>
       <c r="E113" s="47" t="str">
-        <f>DEC2HEX(F113)</f>
+        <f t="shared" si="18"/>
         <v>AB</v>
       </c>
       <c r="F113" s="47">
         <v>171</v>
       </c>
       <c r="G113" s="47" t="str">
-        <f>CHAR(F113)</f>
+        <f t="shared" si="19"/>
         <v>«</v>
       </c>
     </row>
@@ -5854,14 +5957,14 @@
       <c r="C114" s="46"/>
       <c r="D114" s="46"/>
       <c r="E114" s="47" t="str">
-        <f>DEC2HEX(F114)</f>
+        <f t="shared" si="18"/>
         <v>AC</v>
       </c>
       <c r="F114" s="47">
         <v>172</v>
       </c>
       <c r="G114" s="47" t="str">
-        <f>CHAR(F114)</f>
+        <f t="shared" si="19"/>
         <v>¬</v>
       </c>
     </row>
@@ -5875,14 +5978,14 @@
       <c r="C115" s="46"/>
       <c r="D115" s="46"/>
       <c r="E115" s="47" t="str">
-        <f>DEC2HEX(F115)</f>
+        <f t="shared" si="18"/>
         <v>58</v>
       </c>
       <c r="F115" s="47">
         <v>88</v>
       </c>
       <c r="G115" s="47" t="str">
-        <f>CHAR(F115)</f>
+        <f t="shared" si="19"/>
         <v>X</v>
       </c>
     </row>
@@ -5891,7 +5994,7 @@
         <v>359</v>
       </c>
       <c r="B116" s="64" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C116" s="65">
         <v>200</v>
@@ -5900,14 +6003,14 @@
         <v>203</v>
       </c>
       <c r="E116" s="65" t="str">
-        <f>DEC2HEX(F116)</f>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="F116" s="65">
         <v>80</v>
       </c>
       <c r="G116" s="65" t="str">
-        <f>CHAR(F116)</f>
+        <f t="shared" si="19"/>
         <v>P</v>
       </c>
       <c r="I116" s="4">
@@ -5927,14 +6030,14 @@
         <v>435</v>
       </c>
       <c r="E117" s="5" t="str">
-        <f>DEC2HEX(F117)</f>
+        <f t="shared" si="18"/>
         <v>7C</v>
       </c>
       <c r="F117" s="5">
         <v>124</v>
       </c>
       <c r="G117" s="5" t="str">
-        <f>CHAR(F117)</f>
+        <f t="shared" si="19"/>
         <v>|</v>
       </c>
     </row>
@@ -5952,22 +6055,22 @@
         <v>39</v>
       </c>
       <c r="E118" s="44" t="str">
-        <f>DEC2HEX(F118)</f>
+        <f t="shared" si="18"/>
         <v>6F</v>
       </c>
       <c r="F118" s="43">
         <v>111</v>
       </c>
       <c r="G118" s="44" t="str">
-        <f>CHAR(F118)</f>
+        <f t="shared" si="19"/>
         <v>o</v>
       </c>
       <c r="I118" s="4">
-        <f>IF(ISBLANK(B118),D118-C118+1,0)</f>
+        <f t="shared" ref="I118:I134" si="20">IF(ISBLANK(B118),D118-C118+1,0)</f>
         <v>0</v>
       </c>
       <c r="J118" s="4">
-        <f>IF(ISBLANK(B118),0,D118-C118+1)</f>
+        <f t="shared" ref="J118:J134" si="21">IF(ISBLANK(B118),0,D118-C118+1)</f>
         <v>4</v>
       </c>
     </row>
@@ -5985,22 +6088,22 @@
         <v>43</v>
       </c>
       <c r="E119" s="44" t="str">
-        <f>DEC2HEX(F119)</f>
+        <f t="shared" si="18"/>
         <v>6F</v>
       </c>
       <c r="F119" s="43">
         <v>111</v>
       </c>
       <c r="G119" s="44" t="str">
-        <f>CHAR(F119)</f>
+        <f t="shared" si="19"/>
         <v>o</v>
       </c>
       <c r="I119" s="4">
-        <f>IF(ISBLANK(B119),D119-C119+1,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J119" s="4">
-        <f>IF(ISBLANK(B119),0,D119-C119+1)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
     </row>
@@ -6018,22 +6121,22 @@
         <v>95</v>
       </c>
       <c r="E120" s="44" t="str">
-        <f>DEC2HEX(F120)</f>
+        <f t="shared" si="18"/>
         <v>6F</v>
       </c>
       <c r="F120" s="43">
         <v>111</v>
       </c>
       <c r="G120" s="44" t="str">
-        <f>CHAR(F120)</f>
+        <f t="shared" si="19"/>
         <v>o</v>
       </c>
       <c r="I120" s="4">
-        <f>IF(ISBLANK(B120),D120-C120+1,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J120" s="4">
-        <f>IF(ISBLANK(B120),0,D120-C120+1)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
     </row>
@@ -6051,22 +6154,22 @@
         <v>175</v>
       </c>
       <c r="E121" s="5" t="str">
-        <f>DEC2HEX(F121)</f>
+        <f t="shared" si="18"/>
         <v>B5</v>
       </c>
       <c r="F121" s="5">
         <v>181</v>
       </c>
       <c r="G121" s="5" t="str">
-        <f>CHAR(F121)</f>
+        <f t="shared" si="19"/>
         <v>µ</v>
       </c>
       <c r="I121" s="4">
-        <f>IF(ISBLANK(B121),D121-C121+1,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J121" s="4">
-        <f>IF(ISBLANK(B121),0,D121-C121+1)</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
     </row>
@@ -6084,22 +6187,22 @@
         <v>323</v>
       </c>
       <c r="E122" s="5" t="str">
-        <f>DEC2HEX(F122)</f>
+        <f t="shared" si="18"/>
         <v>B5</v>
       </c>
       <c r="F122" s="5">
         <v>181</v>
       </c>
       <c r="G122" s="5" t="str">
-        <f>CHAR(F122)</f>
+        <f t="shared" si="19"/>
         <v>µ</v>
       </c>
       <c r="I122" s="4">
-        <f>IF(ISBLANK(B122),D122-C122+1,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J122" s="4">
-        <f>IF(ISBLANK(B122),0,D122-C122+1)</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
     </row>
@@ -6117,22 +6220,22 @@
         <v>339</v>
       </c>
       <c r="E123" s="5" t="str">
-        <f>DEC2HEX(F123)</f>
+        <f t="shared" si="18"/>
         <v>B5</v>
       </c>
       <c r="F123" s="5">
         <v>181</v>
       </c>
       <c r="G123" s="5" t="str">
-        <f>CHAR(F123)</f>
+        <f t="shared" si="19"/>
         <v>µ</v>
       </c>
       <c r="I123" s="4">
-        <f>IF(ISBLANK(B123),D123-C123+1,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J123" s="4">
-        <f>IF(ISBLANK(B123),0,D123-C123+1)</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="K123" s="5"/>
@@ -6152,22 +6255,22 @@
         <v>347</v>
       </c>
       <c r="E124" s="5" t="str">
-        <f>DEC2HEX(F124)</f>
+        <f t="shared" si="18"/>
         <v>B5</v>
       </c>
       <c r="F124" s="5">
         <v>181</v>
       </c>
       <c r="G124" s="5" t="str">
-        <f>CHAR(F124)</f>
+        <f t="shared" si="19"/>
         <v>µ</v>
       </c>
       <c r="I124" s="4">
-        <f>IF(ISBLANK(B124),D124-C124+1,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J124" s="4">
-        <f>IF(ISBLANK(B124),0,D124-C124+1)</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
     </row>
@@ -6185,22 +6288,22 @@
         <v>403</v>
       </c>
       <c r="E125" s="5" t="str">
-        <f>DEC2HEX(F125)</f>
+        <f t="shared" si="18"/>
         <v>B5</v>
       </c>
       <c r="F125" s="5">
         <v>181</v>
       </c>
       <c r="G125" s="5" t="str">
-        <f>CHAR(F125)</f>
+        <f t="shared" si="19"/>
         <v>µ</v>
       </c>
       <c r="I125" s="4">
-        <f>IF(ISBLANK(B125),D125-C125+1,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J125" s="4">
-        <f>IF(ISBLANK(B125),0,D125-C125+1)</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
     </row>
@@ -6208,27 +6311,27 @@
       <c r="A126" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B126" s="68" t="s">
+      <c r="B126" s="67" t="s">
         <v>451</v>
       </c>
-      <c r="C126" s="69">
+      <c r="C126" s="68">
         <v>444</v>
       </c>
-      <c r="D126" s="68">
+      <c r="D126" s="67">
         <v>451</v>
       </c>
-      <c r="E126" s="69"/>
-      <c r="F126" s="68"/>
-      <c r="G126" s="68"/>
+      <c r="E126" s="68"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="67"/>
       <c r="H126" s="4" t="s">
         <v>146</v>
       </c>
       <c r="I126" s="4">
-        <f>IF(ISBLANK(B126),D126-C126+1,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J126" s="4">
-        <f>IF(ISBLANK(B126),0,D126-C126+1)</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
     </row>
@@ -6246,7 +6349,7 @@
         <v>459</v>
       </c>
       <c r="E127" s="5" t="str">
-        <f>DEC2HEX(F127)</f>
+        <f t="shared" ref="E127:E158" si="22">DEC2HEX(F127)</f>
         <v>6D</v>
       </c>
       <c r="F127" s="5">
@@ -6259,11 +6362,11 @@
         <v>154</v>
       </c>
       <c r="I127" s="4">
-        <f>IF(ISBLANK(B127),D127-C127+1,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J127" s="4">
-        <f>IF(ISBLANK(B127),0,D127-C127+1)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
     </row>
@@ -6281,22 +6384,22 @@
         <v>507</v>
       </c>
       <c r="E128" s="5" t="str">
-        <f>DEC2HEX(F128)</f>
+        <f t="shared" si="22"/>
         <v>B5</v>
       </c>
       <c r="F128" s="5">
         <v>181</v>
       </c>
       <c r="G128" s="5" t="str">
-        <f>CHAR(F128)</f>
+        <f t="shared" ref="G128:G159" si="23">CHAR(F128)</f>
         <v>µ</v>
       </c>
       <c r="I128" s="4">
-        <f>IF(ISBLANK(B128),D128-C128+1,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J128" s="4">
-        <f>IF(ISBLANK(B128),0,D128-C128+1)</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
     </row>
@@ -6314,22 +6417,22 @@
         <v>891</v>
       </c>
       <c r="E129" s="34" t="str">
-        <f>DEC2HEX(F129)</f>
+        <f t="shared" si="22"/>
         <v>B9</v>
       </c>
       <c r="F129" s="34">
         <v>185</v>
       </c>
       <c r="G129" s="34" t="str">
-        <f>CHAR(F129)</f>
+        <f t="shared" si="23"/>
         <v>¹</v>
       </c>
       <c r="I129" s="4">
-        <f>IF(ISBLANK(B129),D129-C129+1,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J129" s="4">
-        <f>IF(ISBLANK(B129),0,D129-C129+1)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
     </row>
@@ -6347,22 +6450,22 @@
         <v>895</v>
       </c>
       <c r="E130" s="34" t="str">
-        <f>DEC2HEX(F130)</f>
+        <f t="shared" si="22"/>
         <v>BA</v>
       </c>
       <c r="F130" s="34">
         <v>186</v>
       </c>
       <c r="G130" s="34" t="str">
-        <f>CHAR(F130)</f>
+        <f t="shared" si="23"/>
         <v>º</v>
       </c>
       <c r="I130" s="4">
-        <f>IF(ISBLANK(B130),D130-C130+1,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J130" s="4">
-        <f>IF(ISBLANK(B130),0,D130-C130+1)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
     </row>
@@ -6380,22 +6483,22 @@
         <v>971</v>
       </c>
       <c r="E131" s="34" t="str">
-        <f>DEC2HEX(F131)</f>
+        <f t="shared" si="22"/>
         <v>B9</v>
       </c>
       <c r="F131" s="34">
         <v>185</v>
       </c>
       <c r="G131" s="34" t="str">
-        <f>CHAR(F131)</f>
+        <f t="shared" si="23"/>
         <v>¹</v>
       </c>
       <c r="I131" s="4">
-        <f>IF(ISBLANK(B131),D131-C131+1,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J131" s="4">
-        <f>IF(ISBLANK(B131),0,D131-C131+1)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
     </row>
@@ -6413,23 +6516,23 @@
         <v>991</v>
       </c>
       <c r="E132" s="34" t="str">
-        <f>DEC2HEX(F132)</f>
+        <f t="shared" si="22"/>
         <v>BA</v>
       </c>
       <c r="F132" s="34">
         <v>186</v>
       </c>
       <c r="G132" s="34" t="str">
-        <f>CHAR(F132)</f>
+        <f t="shared" si="23"/>
         <v>º</v>
       </c>
       <c r="H132" s="4"/>
       <c r="I132" s="4">
-        <f>IF(ISBLANK(B132),D132-C132+1,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J132" s="4">
-        <f>IF(ISBLANK(B132),0,D132-C132+1)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="K132" s="4"/>
@@ -6452,22 +6555,22 @@
         <v>1003</v>
       </c>
       <c r="E133" s="34" t="str">
-        <f>DEC2HEX(F133)</f>
+        <f t="shared" si="22"/>
         <v>B9</v>
       </c>
       <c r="F133" s="34">
         <v>185</v>
       </c>
       <c r="G133" s="34" t="str">
-        <f>CHAR(F133)</f>
+        <f t="shared" si="23"/>
         <v>¹</v>
       </c>
       <c r="I133" s="4">
-        <f>IF(ISBLANK(B133),D133-C133+1,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J133" s="4">
-        <f>IF(ISBLANK(B133),0,D133-C133+1)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
     </row>
@@ -6485,22 +6588,22 @@
         <v>1015</v>
       </c>
       <c r="E134" s="34" t="str">
-        <f>DEC2HEX(F134)</f>
+        <f t="shared" si="22"/>
         <v>BA</v>
       </c>
       <c r="F134" s="34">
         <v>186</v>
       </c>
       <c r="G134" s="34" t="str">
-        <f>CHAR(F134)</f>
+        <f t="shared" si="23"/>
         <v>º</v>
       </c>
       <c r="I134" s="4">
-        <f>IF(ISBLANK(B134),D134-C134+1,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J134" s="4">
-        <f>IF(ISBLANK(B134),0,D134-C134+1)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
     </row>
@@ -6514,14 +6617,14 @@
       <c r="C135" s="46"/>
       <c r="D135" s="46"/>
       <c r="E135" s="47" t="str">
-        <f>DEC2HEX(F135)</f>
+        <f t="shared" si="22"/>
         <v>B7</v>
       </c>
       <c r="F135" s="47">
         <v>183</v>
       </c>
       <c r="G135" s="47" t="str">
-        <f>CHAR(F135)</f>
+        <f t="shared" si="23"/>
         <v>·</v>
       </c>
     </row>
@@ -6535,14 +6638,14 @@
       <c r="C136" s="46"/>
       <c r="D136" s="46"/>
       <c r="E136" s="47" t="str">
-        <f>DEC2HEX(F136)</f>
+        <f t="shared" si="22"/>
         <v>B8</v>
       </c>
       <c r="F136" s="47">
         <v>184</v>
       </c>
       <c r="G136" s="47" t="str">
-        <f>CHAR(F136)</f>
+        <f t="shared" si="23"/>
         <v>¸</v>
       </c>
     </row>
@@ -6556,14 +6659,14 @@
       <c r="C137" s="46"/>
       <c r="D137" s="46"/>
       <c r="E137" s="47" t="str">
-        <f>DEC2HEX(F137)</f>
+        <f t="shared" si="22"/>
         <v>ED</v>
       </c>
       <c r="F137" s="47">
         <v>237</v>
       </c>
       <c r="G137" s="47" t="str">
-        <f>CHAR(F137)</f>
+        <f t="shared" si="23"/>
         <v>í</v>
       </c>
       <c r="H137" s="4" t="s">
@@ -6584,22 +6687,22 @@
         <v>23</v>
       </c>
       <c r="E138" s="44" t="str">
-        <f>DEC2HEX(F138)</f>
+        <f t="shared" si="22"/>
         <v>66</v>
       </c>
       <c r="F138" s="44">
         <v>102</v>
       </c>
       <c r="G138" s="44" t="str">
-        <f>CHAR(F138)</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="I138" s="4">
-        <f>IF(ISBLANK(B138),D138-C138+1,0)</f>
+        <f t="shared" ref="I138:I150" si="24">IF(ISBLANK(B138),D138-C138+1,0)</f>
         <v>0</v>
       </c>
       <c r="J138" s="4">
-        <f>IF(ISBLANK(B138),0,D138-C138+1)</f>
+        <f t="shared" ref="J138:J150" si="25">IF(ISBLANK(B138),0,D138-C138+1)</f>
         <v>4</v>
       </c>
     </row>
@@ -6617,22 +6720,22 @@
         <v>59</v>
       </c>
       <c r="E139" s="44" t="str">
-        <f>DEC2HEX(F139)</f>
+        <f t="shared" si="22"/>
         <v>66</v>
       </c>
       <c r="F139" s="44">
         <v>102</v>
       </c>
       <c r="G139" s="44" t="str">
-        <f>CHAR(F139)</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="I139" s="4">
-        <f>IF(ISBLANK(B139),D139-C139+1,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J139" s="4">
-        <f>IF(ISBLANK(B139),0,D139-C139+1)</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -6650,22 +6753,22 @@
         <v>87</v>
       </c>
       <c r="E140" s="44" t="str">
-        <f>DEC2HEX(F140)</f>
+        <f t="shared" si="22"/>
         <v>66</v>
       </c>
       <c r="F140" s="44">
         <v>102</v>
       </c>
       <c r="G140" s="44" t="str">
-        <f>CHAR(F140)</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="I140" s="4">
-        <f>IF(ISBLANK(B140),D140-C140+1,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J140" s="4">
-        <f>IF(ISBLANK(B140),0,D140-C140+1)</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -6683,22 +6786,22 @@
         <v>111</v>
       </c>
       <c r="E141" s="44" t="str">
-        <f>DEC2HEX(F141)</f>
+        <f t="shared" si="22"/>
         <v>66</v>
       </c>
       <c r="F141" s="44">
         <v>102</v>
       </c>
       <c r="G141" s="44" t="str">
-        <f>CHAR(F141)</f>
+        <f t="shared" si="23"/>
         <v>f</v>
       </c>
       <c r="I141" s="4">
-        <f>IF(ISBLANK(B141),D141-C141+1,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J141" s="4">
-        <f>IF(ISBLANK(B141),0,D141-C141+1)</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -6716,22 +6819,22 @@
         <v>475</v>
       </c>
       <c r="E142" s="5" t="str">
-        <f>DEC2HEX(F142)</f>
+        <f t="shared" si="22"/>
         <v>D0</v>
       </c>
       <c r="F142" s="5">
         <v>208</v>
       </c>
       <c r="G142" s="5" t="str">
-        <f>CHAR(F142)</f>
+        <f t="shared" si="23"/>
         <v>Ð</v>
       </c>
       <c r="I142" s="4">
-        <f>IF(ISBLANK(B142),D142-C142+1,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J142" s="4">
-        <f>IF(ISBLANK(B142),0,D142-C142+1)</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -6749,22 +6852,22 @@
         <v>795</v>
       </c>
       <c r="E143" s="34" t="str">
-        <f>DEC2HEX(F143)</f>
+        <f t="shared" si="22"/>
         <v>3B</v>
       </c>
       <c r="F143" s="34">
         <v>59</v>
       </c>
       <c r="G143" s="34" t="str">
-        <f>CHAR(F143)</f>
+        <f t="shared" si="23"/>
         <v>;</v>
       </c>
       <c r="I143" s="4">
-        <f>IF(ISBLANK(B143),D143-C143+1,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J143" s="4">
-        <f>IF(ISBLANK(B143),0,D143-C143+1)</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -6782,22 +6885,22 @@
         <v>839</v>
       </c>
       <c r="E144" s="34" t="str">
-        <f>DEC2HEX(F144)</f>
+        <f t="shared" si="22"/>
         <v>3B</v>
       </c>
       <c r="F144" s="34">
         <v>59</v>
       </c>
       <c r="G144" s="34" t="str">
-        <f>CHAR(F144)</f>
+        <f t="shared" si="23"/>
         <v>;</v>
       </c>
       <c r="I144" s="4">
-        <f>IF(ISBLANK(B144),D144-C144+1,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J144" s="4">
-        <f>IF(ISBLANK(B144),0,D144-C144+1)</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -6815,22 +6918,22 @@
         <v>843</v>
       </c>
       <c r="E145" s="34" t="str">
-        <f>DEC2HEX(F145)</f>
+        <f t="shared" si="22"/>
         <v>3A</v>
       </c>
       <c r="F145" s="34">
         <v>58</v>
       </c>
       <c r="G145" s="34" t="str">
-        <f>CHAR(F145)</f>
+        <f t="shared" si="23"/>
         <v>:</v>
       </c>
       <c r="I145" s="4">
-        <f>IF(ISBLANK(B145),D145-C145+1,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J145" s="4">
-        <f>IF(ISBLANK(B145),0,D145-C145+1)</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -6848,22 +6951,22 @@
         <v>847</v>
       </c>
       <c r="E146" s="34" t="str">
-        <f>DEC2HEX(F146)</f>
+        <f t="shared" si="22"/>
         <v>3A</v>
       </c>
       <c r="F146" s="34">
         <v>58</v>
       </c>
       <c r="G146" s="34" t="str">
-        <f>CHAR(F146)</f>
+        <f t="shared" si="23"/>
         <v>:</v>
       </c>
       <c r="I146" s="4">
-        <f>IF(ISBLANK(B146),D146-C146+1,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J146" s="4">
-        <f>IF(ISBLANK(B146),0,D146-C146+1)</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="L146" s="5"/>
@@ -6883,22 +6986,22 @@
         <v>851</v>
       </c>
       <c r="E147" s="34" t="str">
-        <f>DEC2HEX(F147)</f>
+        <f t="shared" si="22"/>
         <v>3B</v>
       </c>
       <c r="F147" s="34">
         <v>59</v>
       </c>
       <c r="G147" s="34" t="str">
-        <f>CHAR(F147)</f>
+        <f t="shared" si="23"/>
         <v>;</v>
       </c>
       <c r="I147" s="4">
-        <f>IF(ISBLANK(B147),D147-C147+1,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J147" s="4">
-        <f>IF(ISBLANK(B147),0,D147-C147+1)</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -6916,22 +7019,22 @@
         <v>903</v>
       </c>
       <c r="E148" s="34" t="str">
-        <f>DEC2HEX(F148)</f>
+        <f t="shared" si="22"/>
         <v>3A</v>
       </c>
       <c r="F148" s="34">
         <v>58</v>
       </c>
       <c r="G148" s="34" t="str">
-        <f>CHAR(F148)</f>
+        <f t="shared" si="23"/>
         <v>:</v>
       </c>
       <c r="I148" s="4">
-        <f>IF(ISBLANK(B148),D148-C148+1,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J148" s="4">
-        <f>IF(ISBLANK(B148),0,D148-C148+1)</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -6949,22 +7052,22 @@
         <v>943</v>
       </c>
       <c r="E149" s="34" t="str">
-        <f>DEC2HEX(F149)</f>
+        <f t="shared" si="22"/>
         <v>3B</v>
       </c>
       <c r="F149" s="34">
         <v>59</v>
       </c>
       <c r="G149" s="34" t="str">
-        <f>CHAR(F149)</f>
+        <f t="shared" si="23"/>
         <v>;</v>
       </c>
       <c r="I149" s="4">
-        <f>IF(ISBLANK(B149),D149-C149+1,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J149" s="4">
-        <f>IF(ISBLANK(B149),0,D149-C149+1)</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -6982,22 +7085,22 @@
         <v>987</v>
       </c>
       <c r="E150" s="34" t="str">
-        <f>DEC2HEX(F150)</f>
+        <f t="shared" si="22"/>
         <v>3A</v>
       </c>
       <c r="F150" s="34">
         <v>58</v>
       </c>
       <c r="G150" s="34" t="str">
-        <f>CHAR(F150)</f>
+        <f t="shared" si="23"/>
         <v>:</v>
       </c>
       <c r="I150" s="4">
-        <f>IF(ISBLANK(B150),D150-C150+1,0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J150" s="4">
-        <f>IF(ISBLANK(B150),0,D150-C150+1)</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
     </row>
@@ -7011,14 +7114,14 @@
       <c r="C151" s="46"/>
       <c r="D151" s="46"/>
       <c r="E151" s="47" t="str">
-        <f>DEC2HEX(F151)</f>
+        <f t="shared" si="22"/>
         <v>5E</v>
       </c>
       <c r="F151" s="47">
         <v>94</v>
       </c>
       <c r="G151" s="47" t="str">
-        <f>CHAR(F151)</f>
+        <f t="shared" si="23"/>
         <v>^</v>
       </c>
     </row>
@@ -7032,14 +7135,14 @@
       <c r="C152" s="46"/>
       <c r="D152" s="46"/>
       <c r="E152" s="47" t="str">
-        <f>DEC2HEX(F152)</f>
+        <f t="shared" si="22"/>
         <v>5E</v>
       </c>
       <c r="F152" s="47">
         <v>94</v>
       </c>
       <c r="G152" s="47" t="str">
-        <f>CHAR(F152)</f>
+        <f t="shared" si="23"/>
         <v>^</v>
       </c>
     </row>
@@ -7053,14 +7156,14 @@
       <c r="C153" s="46"/>
       <c r="D153" s="46"/>
       <c r="E153" s="47" t="str">
-        <f>DEC2HEX(F153)</f>
+        <f t="shared" si="22"/>
         <v>5F</v>
       </c>
       <c r="F153" s="47">
         <v>95</v>
       </c>
       <c r="G153" s="47" t="str">
-        <f>CHAR(F153)</f>
+        <f t="shared" si="23"/>
         <v>_</v>
       </c>
     </row>
@@ -7074,14 +7177,14 @@
       <c r="C154" s="46"/>
       <c r="D154" s="46"/>
       <c r="E154" s="47" t="str">
-        <f>DEC2HEX(F154)</f>
+        <f t="shared" si="22"/>
         <v>5F</v>
       </c>
       <c r="F154" s="47">
         <v>95</v>
       </c>
       <c r="G154" s="47" t="str">
-        <f>CHAR(F154)</f>
+        <f t="shared" si="23"/>
         <v>_</v>
       </c>
     </row>
@@ -7095,14 +7198,14 @@
       <c r="C155" s="46"/>
       <c r="D155" s="46"/>
       <c r="E155" s="47" t="str">
-        <f>DEC2HEX(F155)</f>
+        <f t="shared" si="22"/>
         <v>64</v>
       </c>
       <c r="F155" s="47">
         <v>100</v>
       </c>
       <c r="G155" s="47" t="str">
-        <f>CHAR(F155)</f>
+        <f t="shared" si="23"/>
         <v>d</v>
       </c>
     </row>
@@ -7116,14 +7219,14 @@
       <c r="C156" s="46"/>
       <c r="D156" s="46"/>
       <c r="E156" s="47" t="str">
-        <f>DEC2HEX(F156)</f>
+        <f t="shared" si="22"/>
         <v>65</v>
       </c>
       <c r="F156" s="47">
         <v>101</v>
       </c>
       <c r="G156" s="47" t="str">
-        <f>CHAR(F156)</f>
+        <f t="shared" si="23"/>
         <v>e</v>
       </c>
     </row>
@@ -7137,14 +7240,14 @@
       <c r="C157" s="46"/>
       <c r="D157" s="46"/>
       <c r="E157" s="47" t="str">
-        <f>DEC2HEX(F157)</f>
+        <f t="shared" si="22"/>
         <v>4E</v>
       </c>
       <c r="F157" s="47">
         <v>78</v>
       </c>
       <c r="G157" s="47" t="str">
-        <f>CHAR(F157)</f>
+        <f t="shared" si="23"/>
         <v>N</v>
       </c>
     </row>
@@ -7158,23 +7261,23 @@
       <c r="C158" s="51"/>
       <c r="D158" s="51"/>
       <c r="E158" s="50" t="str">
-        <f>DEC2HEX(F158)</f>
+        <f t="shared" si="22"/>
         <v>40</v>
       </c>
       <c r="F158" s="50">
         <v>64</v>
       </c>
       <c r="G158" s="50" t="str">
-        <f>CHAR(F158)</f>
+        <f t="shared" si="23"/>
         <v>@</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="42" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B159" s="42" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C159" s="42">
         <v>126</v>
@@ -7183,31 +7286,31 @@
         <v>139</v>
       </c>
       <c r="E159" s="45" t="str">
-        <f>DEC2HEX(F159)</f>
+        <f t="shared" ref="E159:E190" si="26">DEC2HEX(F159)</f>
         <v>BE</v>
       </c>
       <c r="F159" s="45">
         <v>190</v>
       </c>
       <c r="G159" s="45" t="str">
-        <f>CHAR(F159)</f>
+        <f t="shared" si="23"/>
         <v>¾</v>
       </c>
       <c r="I159" s="4">
-        <f>IF(ISBLANK(B159),D159-C159+1,0)</f>
+        <f t="shared" ref="I159:I164" si="27">IF(ISBLANK(B159),D159-C159+1,0)</f>
         <v>0</v>
       </c>
       <c r="J159" s="4">
-        <f>IF(ISBLANK(B159),0,D159-C159+1)</f>
+        <f t="shared" ref="J159:J164" si="28">IF(ISBLANK(B159),0,D159-C159+1)</f>
         <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="42" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B160" s="56" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C160" s="56">
         <v>156</v>
@@ -7216,31 +7319,31 @@
         <v>159</v>
       </c>
       <c r="E160" s="5" t="str">
-        <f>DEC2HEX(F160)</f>
+        <f t="shared" si="26"/>
         <v>4C</v>
       </c>
       <c r="F160" s="5">
         <v>76</v>
       </c>
       <c r="G160" s="5" t="str">
-        <f>CHAR(F160)</f>
+        <f t="shared" ref="G160:G191" si="29">CHAR(F160)</f>
         <v>L</v>
       </c>
       <c r="I160" s="4">
-        <f>IF(ISBLANK(B160),D160-C160+1,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J160" s="4">
-        <f>IF(ISBLANK(B160),0,D160-C160+1)</f>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="42" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B161" s="56" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C161" s="56">
         <v>300</v>
@@ -7249,31 +7352,31 @@
         <v>307</v>
       </c>
       <c r="E161" s="5" t="str">
-        <f>DEC2HEX(F161)</f>
+        <f t="shared" si="26"/>
         <v>55</v>
       </c>
       <c r="F161" s="5">
         <v>85</v>
       </c>
       <c r="G161" s="5" t="str">
-        <f>CHAR(F161)</f>
+        <f t="shared" si="29"/>
         <v>U</v>
       </c>
       <c r="I161" s="4">
-        <f>IF(ISBLANK(B161),D161-C161+1,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J161" s="4">
-        <f>IF(ISBLANK(B161),0,D161-C161+1)</f>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="42" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B162" s="56" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C162" s="56">
         <v>436</v>
@@ -7282,31 +7385,31 @@
         <v>439</v>
       </c>
       <c r="E162" s="5" t="str">
-        <f>DEC2HEX(F162)</f>
+        <f t="shared" si="26"/>
         <v>2C</v>
       </c>
       <c r="F162" s="5">
         <v>44</v>
       </c>
       <c r="G162" s="5" t="str">
-        <f>CHAR(F162)</f>
+        <f t="shared" si="29"/>
         <v>,</v>
       </c>
       <c r="I162" s="4">
-        <f>IF(ISBLANK(B162),D162-C162+1,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J162" s="4">
-        <f>IF(ISBLANK(B162),0,D162-C162+1)</f>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="42" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B163" s="56" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C163" s="56">
         <v>636</v>
@@ -7315,31 +7418,31 @@
         <v>643</v>
       </c>
       <c r="E163" s="5" t="str">
-        <f>DEC2HEX(F163)</f>
+        <f t="shared" si="26"/>
         <v>E6</v>
       </c>
       <c r="F163" s="5">
         <v>230</v>
       </c>
       <c r="G163" s="5" t="str">
-        <f>CHAR(F163)</f>
+        <f t="shared" si="29"/>
         <v>æ</v>
       </c>
       <c r="I163" s="4">
-        <f>IF(ISBLANK(B163),D163-C163+1,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J163" s="4">
-        <f>IF(ISBLANK(B163),0,D163-C163+1)</f>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="42" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B164" s="56" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C164" s="55">
         <v>756</v>
@@ -7348,41 +7451,41 @@
         <v>759</v>
       </c>
       <c r="E164" s="5" t="str">
-        <f>DEC2HEX(F164)</f>
+        <f t="shared" si="26"/>
         <v>4D</v>
       </c>
       <c r="F164" s="5">
         <v>77</v>
       </c>
       <c r="G164" s="5" t="str">
-        <f>CHAR(F164)</f>
+        <f t="shared" si="29"/>
         <v>M</v>
       </c>
       <c r="I164" s="4">
-        <f>IF(ISBLANK(B164),D164-C164+1,0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J164" s="4">
-        <f>IF(ISBLANK(B164),0,D164-C164+1)</f>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="42" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="E165" s="5" t="str">
-        <f>DEC2HEX(F165)</f>
+        <f t="shared" si="26"/>
         <v>3D</v>
       </c>
       <c r="F165" s="5">
         <v>61</v>
       </c>
       <c r="G165" s="5" t="str">
-        <f>CHAR(F165)</f>
+        <f t="shared" si="29"/>
         <v>=</v>
       </c>
     </row>
@@ -7400,22 +7503,22 @@
         <v>7</v>
       </c>
       <c r="E166" s="44" t="str">
-        <f>DEC2HEX(F166)</f>
+        <f t="shared" si="26"/>
         <v>6E</v>
       </c>
       <c r="F166" s="44">
         <v>110</v>
       </c>
       <c r="G166" s="44" t="str">
-        <f>CHAR(F166)</f>
+        <f t="shared" si="29"/>
         <v>n</v>
       </c>
       <c r="I166" s="4">
-        <f>IF(ISBLANK(B166),D166-C166+1,0)</f>
+        <f t="shared" ref="I166:I186" si="30">IF(ISBLANK(B166),D166-C166+1,0)</f>
         <v>0</v>
       </c>
       <c r="J166" s="4">
-        <f>IF(ISBLANK(B166),0,D166-C166+1)</f>
+        <f t="shared" ref="J166:J186" si="31">IF(ISBLANK(B166),0,D166-C166+1)</f>
         <v>4</v>
       </c>
     </row>
@@ -7433,22 +7536,22 @@
         <v>51</v>
       </c>
       <c r="E167" s="44" t="str">
-        <f>DEC2HEX(F167)</f>
+        <f t="shared" si="26"/>
         <v>6F</v>
       </c>
       <c r="F167" s="43">
         <v>111</v>
       </c>
       <c r="G167" s="44" t="str">
-        <f>CHAR(F167)</f>
+        <f t="shared" si="29"/>
         <v>o</v>
       </c>
       <c r="I167" s="4">
-        <f>IF(ISBLANK(B167),D167-C167+1,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J167" s="4">
-        <f>IF(ISBLANK(B167),0,D167-C167+1)</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
     </row>
@@ -7466,22 +7569,22 @@
         <v>91</v>
       </c>
       <c r="E168" s="44" t="str">
-        <f>DEC2HEX(F168)</f>
+        <f t="shared" si="26"/>
         <v>6F</v>
       </c>
       <c r="F168" s="43">
         <v>111</v>
       </c>
       <c r="G168" s="44" t="str">
-        <f>CHAR(F168)</f>
+        <f t="shared" si="29"/>
         <v>o</v>
       </c>
       <c r="I168" s="4">
-        <f>IF(ISBLANK(B168),D168-C168+1,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J168" s="4">
-        <f>IF(ISBLANK(B168),0,D168-C168+1)</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
     </row>
@@ -7499,22 +7602,22 @@
         <v>99</v>
       </c>
       <c r="E169" s="44" t="str">
-        <f>DEC2HEX(F169)</f>
+        <f t="shared" si="26"/>
         <v>6F</v>
       </c>
       <c r="F169" s="43">
         <v>111</v>
       </c>
       <c r="G169" s="44" t="str">
-        <f>CHAR(F169)</f>
+        <f t="shared" si="29"/>
         <v>o</v>
       </c>
       <c r="I169" s="4">
-        <f>IF(ISBLANK(B169),D169-C169+1,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J169" s="4">
-        <f>IF(ISBLANK(B169),0,D169-C169+1)</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
     </row>
@@ -7532,22 +7635,22 @@
         <v>239</v>
       </c>
       <c r="E170" s="66" t="str">
-        <f>DEC2HEX(F170)</f>
+        <f t="shared" si="26"/>
         <v>D6</v>
       </c>
       <c r="F170" s="66">
         <v>214</v>
       </c>
       <c r="G170" s="66" t="str">
-        <f>CHAR(F170)</f>
+        <f t="shared" si="29"/>
         <v>Ö</v>
       </c>
       <c r="I170" s="4">
-        <f>IF(ISBLANK(B170),D170-C170+1,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J170" s="4">
-        <f>IF(ISBLANK(B170),0,D170-C170+1)</f>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
     </row>
@@ -7565,22 +7668,22 @@
         <v>315</v>
       </c>
       <c r="E171" s="66" t="str">
-        <f>DEC2HEX(F171)</f>
+        <f t="shared" si="26"/>
         <v>D5</v>
       </c>
       <c r="F171" s="66">
         <v>213</v>
       </c>
       <c r="G171" s="66" t="str">
-        <f>CHAR(F171)</f>
+        <f t="shared" si="29"/>
         <v>Õ</v>
       </c>
       <c r="I171" s="4">
-        <f>IF(ISBLANK(B171),D171-C171+1,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J171" s="4">
-        <f>IF(ISBLANK(B171),0,D171-C171+1)</f>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="K171" s="5"/>
@@ -7600,22 +7703,22 @@
         <v>331</v>
       </c>
       <c r="E172" s="66" t="str">
-        <f>DEC2HEX(F172)</f>
+        <f t="shared" si="26"/>
         <v>CD</v>
       </c>
       <c r="F172" s="66">
         <v>205</v>
       </c>
       <c r="G172" s="66" t="str">
-        <f>CHAR(F172)</f>
+        <f t="shared" si="29"/>
         <v>Í</v>
       </c>
       <c r="I172" s="4">
-        <f>IF(ISBLANK(B172),D172-C172+1,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J172" s="4">
-        <f>IF(ISBLANK(B172),0,D172-C172+1)</f>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
     </row>
@@ -7633,25 +7736,25 @@
         <v>467</v>
       </c>
       <c r="E173" s="5" t="str">
-        <f>DEC2HEX(F173)</f>
+        <f t="shared" si="26"/>
         <v>EE</v>
       </c>
       <c r="F173" s="5">
         <v>238</v>
       </c>
       <c r="G173" s="5" t="str">
-        <f>CHAR(F173)</f>
+        <f t="shared" si="29"/>
         <v>î</v>
       </c>
       <c r="H173" s="4" t="s">
         <v>154</v>
       </c>
       <c r="I173" s="4">
-        <f>IF(ISBLANK(B173),D173-C173+1,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J173" s="4">
-        <f>IF(ISBLANK(B173),0,D173-C173+1)</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
     </row>
@@ -7669,22 +7772,22 @@
         <v>559</v>
       </c>
       <c r="E174" s="58" t="str">
-        <f>DEC2HEX(F174)</f>
+        <f t="shared" si="26"/>
         <v>D4</v>
       </c>
       <c r="F174" s="58">
         <v>212</v>
       </c>
       <c r="G174" s="58" t="str">
-        <f>CHAR(F174)</f>
+        <f t="shared" si="29"/>
         <v>Ô</v>
       </c>
       <c r="I174" s="4">
-        <f>IF(ISBLANK(B174),D174-C174+1,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J174" s="4">
-        <f>IF(ISBLANK(B174),0,D174-C174+1)</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
     </row>
@@ -7702,22 +7805,22 @@
         <v>563</v>
       </c>
       <c r="E175" s="58" t="str">
-        <f>DEC2HEX(F175)</f>
+        <f t="shared" si="26"/>
         <v>57</v>
       </c>
       <c r="F175" s="58">
         <v>87</v>
       </c>
       <c r="G175" s="58" t="str">
-        <f>CHAR(F175)</f>
+        <f t="shared" si="29"/>
         <v>W</v>
       </c>
       <c r="I175" s="4">
-        <f>IF(ISBLANK(B175),D175-C175+1,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J175" s="4">
-        <f>IF(ISBLANK(B175),0,D175-C175+1)</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
     </row>
@@ -7726,7 +7829,7 @@
         <v>133</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C176" s="57">
         <v>564</v>
@@ -7735,22 +7838,22 @@
         <v>567</v>
       </c>
       <c r="E176" s="58" t="str">
-        <f>DEC2HEX(F176)</f>
+        <f t="shared" si="26"/>
         <v>44</v>
       </c>
       <c r="F176" s="58">
         <v>68</v>
       </c>
       <c r="G176" s="58" t="str">
-        <f>CHAR(F176)</f>
+        <f t="shared" si="29"/>
         <v>D</v>
       </c>
       <c r="I176" s="4">
-        <f>IF(ISBLANK(B176),D176-C176+1,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J176" s="4">
-        <f>IF(ISBLANK(B176),0,D176-C176+1)</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
     </row>
@@ -7768,22 +7871,22 @@
         <v>743</v>
       </c>
       <c r="E177" s="58" t="str">
-        <f>DEC2HEX(F177)</f>
+        <f t="shared" si="26"/>
         <v>CB</v>
       </c>
       <c r="F177" s="58">
         <v>203</v>
       </c>
       <c r="G177" s="58" t="str">
-        <f>CHAR(F177)</f>
+        <f t="shared" si="29"/>
         <v>Ë</v>
       </c>
       <c r="I177" s="4">
-        <f>IF(ISBLANK(B177),D177-C177+1,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J177" s="4">
-        <f>IF(ISBLANK(B177),0,D177-C177+1)</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="L177" s="5"/>
@@ -7803,22 +7906,22 @@
         <v>751</v>
       </c>
       <c r="E178" s="66" t="str">
-        <f>DEC2HEX(F178)</f>
+        <f t="shared" si="26"/>
         <v>CC</v>
       </c>
       <c r="F178" s="66">
         <v>204</v>
       </c>
       <c r="G178" s="66" t="str">
-        <f>CHAR(F178)</f>
+        <f t="shared" si="29"/>
         <v>Ì</v>
       </c>
       <c r="I178" s="4">
-        <f>IF(ISBLANK(B178),D178-C178+1,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J178" s="4">
-        <f>IF(ISBLANK(B178),0,D178-C178+1)</f>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="L178" s="5"/>
@@ -7838,22 +7941,22 @@
         <v>799</v>
       </c>
       <c r="E179" s="34" t="str">
-        <f>DEC2HEX(F179)</f>
+        <f t="shared" si="26"/>
         <v>B9</v>
       </c>
       <c r="F179" s="34">
         <v>185</v>
       </c>
       <c r="G179" s="34" t="str">
-        <f>CHAR(F179)</f>
+        <f t="shared" si="29"/>
         <v>¹</v>
       </c>
       <c r="I179" s="4">
-        <f>IF(ISBLANK(B179),D179-C179+1,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J179" s="4">
-        <f>IF(ISBLANK(B179),0,D179-C179+1)</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
     </row>
@@ -7871,23 +7974,23 @@
         <v>803</v>
       </c>
       <c r="E180" s="34" t="str">
-        <f>DEC2HEX(F180)</f>
+        <f t="shared" si="26"/>
         <v>BA</v>
       </c>
       <c r="F180" s="34">
         <v>186</v>
       </c>
       <c r="G180" s="34" t="str">
-        <f>CHAR(F180)</f>
+        <f t="shared" si="29"/>
         <v>º</v>
       </c>
       <c r="H180" s="5"/>
       <c r="I180" s="4">
-        <f>IF(ISBLANK(B180),D180-C180+1,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J180" s="4">
-        <f>IF(ISBLANK(B180),0,D180-C180+1)</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
     </row>
@@ -7905,22 +8008,22 @@
         <v>899</v>
       </c>
       <c r="E181" s="34" t="str">
-        <f>DEC2HEX(F181)</f>
+        <f t="shared" si="26"/>
         <v>3A</v>
       </c>
       <c r="F181" s="34">
         <v>58</v>
       </c>
       <c r="G181" s="34" t="str">
-        <f>CHAR(F181)</f>
+        <f t="shared" si="29"/>
         <v>:</v>
       </c>
       <c r="I181" s="4">
-        <f>IF(ISBLANK(B181),D181-C181+1,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J181" s="4">
-        <f>IF(ISBLANK(B181),0,D181-C181+1)</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
     </row>
@@ -7938,22 +8041,22 @@
         <v>935</v>
       </c>
       <c r="E182" s="34" t="str">
-        <f>DEC2HEX(F182)</f>
+        <f t="shared" si="26"/>
         <v>BA</v>
       </c>
       <c r="F182" s="34">
         <v>186</v>
       </c>
       <c r="G182" s="34" t="str">
-        <f>CHAR(F182)</f>
+        <f t="shared" si="29"/>
         <v>º</v>
       </c>
       <c r="I182" s="4">
-        <f>IF(ISBLANK(B182),D182-C182+1,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J182" s="4">
-        <f>IF(ISBLANK(B182),0,D182-C182+1)</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
     </row>
@@ -7971,22 +8074,22 @@
         <v>939</v>
       </c>
       <c r="E183" s="34" t="str">
-        <f>DEC2HEX(F183)</f>
+        <f t="shared" si="26"/>
         <v>3B</v>
       </c>
       <c r="F183" s="34">
         <v>59</v>
       </c>
       <c r="G183" s="34" t="str">
-        <f>CHAR(F183)</f>
+        <f t="shared" si="29"/>
         <v>;</v>
       </c>
       <c r="I183" s="4">
-        <f>IF(ISBLANK(B183),D183-C183+1,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J183" s="4">
-        <f>IF(ISBLANK(B183),0,D183-C183+1)</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
     </row>
@@ -8004,22 +8107,22 @@
         <v>963</v>
       </c>
       <c r="E184" s="34" t="str">
-        <f>DEC2HEX(F184)</f>
+        <f t="shared" si="26"/>
         <v>B9</v>
       </c>
       <c r="F184" s="34">
         <v>185</v>
       </c>
       <c r="G184" s="34" t="str">
-        <f>CHAR(F184)</f>
+        <f t="shared" si="29"/>
         <v>¹</v>
       </c>
       <c r="I184" s="4">
-        <f>IF(ISBLANK(B184),D184-C184+1,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J184" s="4">
-        <f>IF(ISBLANK(B184),0,D184-C184+1)</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
     </row>
@@ -8037,22 +8140,22 @@
         <v>967</v>
       </c>
       <c r="E185" s="34" t="str">
-        <f>DEC2HEX(F185)</f>
+        <f t="shared" si="26"/>
         <v>B9</v>
       </c>
       <c r="F185" s="34">
         <v>185</v>
       </c>
       <c r="G185" s="34" t="str">
-        <f>CHAR(F185)</f>
+        <f t="shared" si="29"/>
         <v>¹</v>
       </c>
       <c r="I185" s="4">
-        <f>IF(ISBLANK(B185),D185-C185+1,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J185" s="4">
-        <f>IF(ISBLANK(B185),0,D185-C185+1)</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
     </row>
@@ -8070,22 +8173,22 @@
         <v>983</v>
       </c>
       <c r="E186" s="34" t="str">
-        <f>DEC2HEX(F186)</f>
+        <f t="shared" si="26"/>
         <v>BA</v>
       </c>
       <c r="F186" s="34">
         <v>186</v>
       </c>
       <c r="G186" s="34" t="str">
-        <f>CHAR(F186)</f>
+        <f t="shared" si="29"/>
         <v>º</v>
       </c>
       <c r="I186" s="4">
-        <f>IF(ISBLANK(B186),D186-C186+1,0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J186" s="4">
-        <f>IF(ISBLANK(B186),0,D186-C186+1)</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
     </row>
@@ -8097,14 +8200,14 @@
         <v>417</v>
       </c>
       <c r="E187" s="5" t="str">
-        <f>DEC2HEX(F187)</f>
+        <f t="shared" si="26"/>
         <v>C6</v>
       </c>
       <c r="F187" s="5">
         <v>198</v>
       </c>
       <c r="G187" s="5" t="str">
-        <f>CHAR(F187)</f>
+        <f t="shared" si="29"/>
         <v>Æ</v>
       </c>
       <c r="I187" s="5"/>
@@ -8123,22 +8226,22 @@
         <v>763</v>
       </c>
       <c r="E188" s="34" t="str">
-        <f>DEC2HEX(F188)</f>
+        <f t="shared" si="26"/>
         <v>E8</v>
       </c>
       <c r="F188" s="34">
         <v>232</v>
       </c>
       <c r="G188" s="34" t="str">
-        <f>CHAR(F188)</f>
+        <f t="shared" si="29"/>
         <v>è</v>
       </c>
       <c r="I188" s="4">
-        <f>IF(ISBLANK(B188),D188-C188+1,0)</f>
+        <f t="shared" ref="I188:I195" si="32">IF(ISBLANK(B188),D188-C188+1,0)</f>
         <v>0</v>
       </c>
       <c r="J188" s="4">
-        <f>IF(ISBLANK(B188),0,D188-C188+1)</f>
+        <f t="shared" ref="J188:J195" si="33">IF(ISBLANK(B188),0,D188-C188+1)</f>
         <v>4</v>
       </c>
       <c r="L188" s="5"/>
@@ -8158,22 +8261,22 @@
         <v>767</v>
       </c>
       <c r="E189" s="34" t="str">
-        <f>DEC2HEX(F189)</f>
+        <f t="shared" si="26"/>
         <v>E9</v>
       </c>
       <c r="F189" s="34">
         <v>233</v>
       </c>
       <c r="G189" s="34" t="str">
-        <f>CHAR(F189)</f>
+        <f t="shared" si="29"/>
         <v>é</v>
       </c>
       <c r="I189" s="4">
-        <f>IF(ISBLANK(B189),D189-C189+1,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J189" s="4">
-        <f>IF(ISBLANK(B189),0,D189-C189+1)</f>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
     </row>
@@ -8191,22 +8294,22 @@
         <v>771</v>
       </c>
       <c r="E190" s="34" t="str">
-        <f>DEC2HEX(F190)</f>
+        <f t="shared" si="26"/>
         <v>EA</v>
       </c>
       <c r="F190" s="34">
         <v>234</v>
       </c>
       <c r="G190" s="34" t="str">
-        <f>CHAR(F190)</f>
+        <f t="shared" si="29"/>
         <v>ê</v>
       </c>
       <c r="I190" s="4">
-        <f>IF(ISBLANK(B190),D190-C190+1,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J190" s="4">
-        <f>IF(ISBLANK(B190),0,D190-C190+1)</f>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="L190" s="5"/>
@@ -8226,22 +8329,22 @@
         <v>775</v>
       </c>
       <c r="E191" s="34" t="str">
-        <f>DEC2HEX(F191)</f>
+        <f t="shared" ref="E191:E199" si="34">DEC2HEX(F191)</f>
         <v>EB</v>
       </c>
       <c r="F191" s="34">
         <v>235</v>
       </c>
       <c r="G191" s="34" t="str">
-        <f>CHAR(F191)</f>
+        <f t="shared" si="29"/>
         <v>ë</v>
       </c>
       <c r="I191" s="4">
-        <f>IF(ISBLANK(B191),D191-C191+1,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J191" s="4">
-        <f>IF(ISBLANK(B191),0,D191-C191+1)</f>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
     </row>
@@ -8259,22 +8362,22 @@
         <v>779</v>
       </c>
       <c r="E192" s="34" t="str">
-        <f>DEC2HEX(F192)</f>
+        <f t="shared" si="34"/>
         <v>EA</v>
       </c>
       <c r="F192" s="34">
         <v>234</v>
       </c>
       <c r="G192" s="34" t="str">
-        <f>CHAR(F192)</f>
+        <f t="shared" ref="G192:G199" si="35">CHAR(F192)</f>
         <v>ê</v>
       </c>
       <c r="I192" s="4">
-        <f>IF(ISBLANK(B192),D192-C192+1,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J192" s="4">
-        <f>IF(ISBLANK(B192),0,D192-C192+1)</f>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
     </row>
@@ -8292,22 +8395,22 @@
         <v>783</v>
       </c>
       <c r="E193" s="34" t="str">
-        <f>DEC2HEX(F193)</f>
+        <f t="shared" si="34"/>
         <v>EB</v>
       </c>
       <c r="F193" s="34">
         <v>235</v>
       </c>
       <c r="G193" s="34" t="str">
-        <f>CHAR(F193)</f>
+        <f t="shared" si="35"/>
         <v>ë</v>
       </c>
       <c r="I193" s="4">
-        <f>IF(ISBLANK(B193),D193-C193+1,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J193" s="4">
-        <f>IF(ISBLANK(B193),0,D193-C193+1)</f>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
     </row>
@@ -8325,22 +8428,22 @@
         <v>787</v>
       </c>
       <c r="E194" s="34" t="str">
-        <f>DEC2HEX(F194)</f>
+        <f t="shared" si="34"/>
         <v>EA</v>
       </c>
       <c r="F194" s="34">
         <v>234</v>
       </c>
       <c r="G194" s="34" t="str">
-        <f>CHAR(F194)</f>
+        <f t="shared" si="35"/>
         <v>ê</v>
       </c>
       <c r="I194" s="4">
-        <f>IF(ISBLANK(B194),D194-C194+1,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J194" s="4">
-        <f>IF(ISBLANK(B194),0,D194-C194+1)</f>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
     </row>
@@ -8358,22 +8461,22 @@
         <v>791</v>
       </c>
       <c r="E195" s="34" t="str">
-        <f>DEC2HEX(F195)</f>
+        <f t="shared" si="34"/>
         <v>EB</v>
       </c>
       <c r="F195" s="34">
         <v>235</v>
       </c>
       <c r="G195" s="34" t="str">
-        <f>CHAR(F195)</f>
+        <f t="shared" si="35"/>
         <v>ë</v>
       </c>
       <c r="I195" s="4">
-        <f>IF(ISBLANK(B195),D195-C195+1,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J195" s="4">
-        <f>IF(ISBLANK(B195),0,D195-C195+1)</f>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
     </row>
@@ -8387,14 +8490,14 @@
       <c r="C196" s="46"/>
       <c r="D196" s="46"/>
       <c r="E196" s="47" t="str">
-        <f>DEC2HEX(F196)</f>
+        <f t="shared" si="34"/>
         <v>A4</v>
       </c>
       <c r="F196" s="47">
         <v>164</v>
       </c>
       <c r="G196" s="47" t="str">
-        <f>CHAR(F196)</f>
+        <f t="shared" si="35"/>
         <v>¤</v>
       </c>
     </row>
@@ -8408,14 +8511,14 @@
       <c r="C197" s="46"/>
       <c r="D197" s="46"/>
       <c r="E197" s="47" t="str">
-        <f>DEC2HEX(F197)</f>
+        <f t="shared" si="34"/>
         <v>62</v>
       </c>
       <c r="F197" s="47">
         <v>98</v>
       </c>
       <c r="G197" s="47" t="str">
-        <f>CHAR(F197)</f>
+        <f t="shared" si="35"/>
         <v>b</v>
       </c>
     </row>
@@ -8433,22 +8536,22 @@
         <v>151</v>
       </c>
       <c r="E198" s="5" t="str">
-        <f>DEC2HEX(F198)</f>
+        <f t="shared" si="34"/>
         <v>C3</v>
       </c>
       <c r="F198" s="5">
         <v>195</v>
       </c>
       <c r="G198" s="5" t="str">
-        <f>CHAR(F198)</f>
+        <f t="shared" si="35"/>
         <v>Ã</v>
       </c>
       <c r="I198" s="4">
-        <f>IF(ISBLANK(B198),D198-C198+1,0)</f>
+        <f t="shared" ref="I198:I225" si="36">IF(ISBLANK(B198),D198-C198+1,0)</f>
         <v>0</v>
       </c>
       <c r="J198" s="4">
-        <f>IF(ISBLANK(B198),0,D198-C198+1)</f>
+        <f t="shared" ref="J198:J225" si="37">IF(ISBLANK(B198),0,D198-C198+1)</f>
         <v>4</v>
       </c>
     </row>
@@ -8466,25 +8569,25 @@
         <v>263</v>
       </c>
       <c r="E199" s="5" t="str">
-        <f>DEC2HEX(F199)</f>
+        <f t="shared" si="34"/>
         <v>DB</v>
       </c>
       <c r="F199" s="5">
         <v>219</v>
       </c>
       <c r="G199" s="5" t="str">
-        <f>CHAR(F199)</f>
+        <f t="shared" si="35"/>
         <v>Û</v>
       </c>
       <c r="H199" s="4" t="s">
         <v>158</v>
       </c>
       <c r="I199" s="4">
-        <f>IF(ISBLANK(B199),D199-C199+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J199" s="4">
-        <f>IF(ISBLANK(B199),0,D199-C199+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
@@ -8502,11 +8605,11 @@
         <v>391</v>
       </c>
       <c r="I200" s="4">
-        <f>IF(ISBLANK(B200),D200-C200+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J200" s="4">
-        <f>IF(ISBLANK(B200),0,D200-C200+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
@@ -8524,22 +8627,22 @@
         <v>415</v>
       </c>
       <c r="E201" s="39" t="str">
-        <f>DEC2HEX(F201)</f>
+        <f t="shared" ref="E201:E212" si="38">DEC2HEX(F201)</f>
         <v>74</v>
       </c>
       <c r="F201" s="39">
         <v>116</v>
       </c>
       <c r="G201" s="39" t="str">
-        <f>CHAR(F201)</f>
+        <f t="shared" ref="G201:G212" si="39">CHAR(F201)</f>
         <v>t</v>
       </c>
       <c r="I201" s="4">
-        <f>IF(ISBLANK(B201),D201-C201+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J201" s="4">
-        <f>IF(ISBLANK(B201),0,D201-C201+1)</f>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
     </row>
@@ -8557,22 +8660,22 @@
         <v>543</v>
       </c>
       <c r="E202" s="5" t="str">
-        <f>DEC2HEX(F202)</f>
+        <f t="shared" si="38"/>
         <v>76</v>
       </c>
       <c r="F202" s="5">
         <v>118</v>
       </c>
       <c r="G202" s="5" t="str">
-        <f>CHAR(F202)</f>
+        <f t="shared" si="39"/>
         <v>v</v>
       </c>
       <c r="I202" s="4">
-        <f>IF(ISBLANK(B202),D202-C202+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J202" s="4">
-        <f>IF(ISBLANK(B202),0,D202-C202+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
@@ -8590,22 +8693,22 @@
         <v>547</v>
       </c>
       <c r="E203" s="5" t="str">
-        <f>DEC2HEX(F203)</f>
+        <f t="shared" si="38"/>
         <v>77</v>
       </c>
       <c r="F203" s="5">
         <v>119</v>
       </c>
       <c r="G203" s="5" t="str">
-        <f>CHAR(F203)</f>
+        <f t="shared" si="39"/>
         <v>w</v>
       </c>
       <c r="I203" s="4">
-        <f>IF(ISBLANK(B203),D203-C203+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J203" s="4">
-        <f>IF(ISBLANK(B203),0,D203-C203+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
@@ -8623,22 +8726,22 @@
         <v>555</v>
       </c>
       <c r="E204" s="5" t="str">
-        <f>DEC2HEX(F204)</f>
+        <f t="shared" si="38"/>
         <v>78</v>
       </c>
       <c r="F204" s="5">
         <v>120</v>
       </c>
       <c r="G204" s="5" t="str">
-        <f>CHAR(F204)</f>
+        <f t="shared" si="39"/>
         <v>x</v>
       </c>
       <c r="I204" s="4">
-        <f>IF(ISBLANK(B204),D204-C204+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J204" s="4">
-        <f>IF(ISBLANK(B204),0,D204-C204+1)</f>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
     </row>
@@ -8656,22 +8759,22 @@
         <v>215</v>
       </c>
       <c r="E205" s="5" t="str">
-        <f>DEC2HEX(F205)</f>
+        <f t="shared" si="38"/>
         <v>70</v>
       </c>
       <c r="F205" s="5">
         <v>112</v>
       </c>
       <c r="G205" s="5" t="str">
-        <f>CHAR(F205)</f>
+        <f t="shared" si="39"/>
         <v>p</v>
       </c>
       <c r="I205" s="4">
-        <f>IF(ISBLANK(B205),D205-C205+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J205" s="4">
-        <f>IF(ISBLANK(B205),0,D205-C205+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="N205" s="5"/>
@@ -8691,22 +8794,22 @@
         <v>247</v>
       </c>
       <c r="E206" s="5" t="str">
-        <f>DEC2HEX(F206)</f>
+        <f t="shared" si="38"/>
         <v>72</v>
       </c>
       <c r="F206" s="5">
         <v>114</v>
       </c>
       <c r="G206" s="5" t="str">
-        <f>CHAR(F206)</f>
+        <f t="shared" si="39"/>
         <v>r</v>
       </c>
       <c r="I206" s="4">
-        <f>IF(ISBLANK(B206),D206-C206+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J206" s="4">
-        <f>IF(ISBLANK(B206),0,D206-C206+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
@@ -8724,25 +8827,25 @@
         <v>251</v>
       </c>
       <c r="E207" s="5" t="str">
-        <f>DEC2HEX(F207)</f>
+        <f t="shared" si="38"/>
         <v>D8</v>
       </c>
       <c r="F207" s="5">
         <v>216</v>
       </c>
       <c r="G207" s="5" t="str">
-        <f>CHAR(F207)</f>
+        <f t="shared" si="39"/>
         <v>Ø</v>
       </c>
       <c r="H207" s="4" t="s">
         <v>158</v>
       </c>
       <c r="I207" s="4">
-        <f>IF(ISBLANK(B207),D207-C207+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J207" s="4">
-        <f>IF(ISBLANK(B207),0,D207-C207+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
@@ -8760,31 +8863,31 @@
         <v>275</v>
       </c>
       <c r="E208" s="5" t="str">
-        <f>DEC2HEX(F208)</f>
+        <f t="shared" si="38"/>
         <v>73</v>
       </c>
       <c r="F208" s="5">
         <v>115</v>
       </c>
       <c r="G208" s="5" t="str">
-        <f>CHAR(F208)</f>
+        <f t="shared" si="39"/>
         <v>s</v>
       </c>
       <c r="I208" s="4">
-        <f>IF(ISBLANK(B208),D208-C208+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J208" s="4">
-        <f>IF(ISBLANK(B208),0,D208-C208+1)</f>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="57" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B209" s="57" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C209" s="58">
         <v>196</v>
@@ -8793,32 +8896,32 @@
         <v>199</v>
       </c>
       <c r="E209" s="58" t="str">
-        <f>DEC2HEX(F209)</f>
+        <f t="shared" si="38"/>
         <v>EF</v>
       </c>
       <c r="F209" s="58">
         <v>239</v>
       </c>
       <c r="G209" s="58" t="str">
-        <f>CHAR(F209)</f>
+        <f t="shared" si="39"/>
         <v>ï</v>
       </c>
       <c r="H209" s="5"/>
       <c r="I209" s="4">
-        <f>IF(ISBLANK(B209),D209-C209+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J209" s="4">
-        <f>IF(ISBLANK(B209),0,D209-C209+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="57" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B210" s="57" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C210" s="58">
         <v>204</v>
@@ -8827,32 +8930,32 @@
         <v>207</v>
       </c>
       <c r="E210" s="58" t="str">
-        <f>DEC2HEX(F210)</f>
+        <f t="shared" si="38"/>
         <v>F0</v>
       </c>
       <c r="F210" s="58">
         <v>240</v>
       </c>
       <c r="G210" s="58" t="str">
-        <f>CHAR(F210)</f>
+        <f t="shared" si="39"/>
         <v>ð</v>
       </c>
       <c r="H210" s="5"/>
       <c r="I210" s="4">
-        <f>IF(ISBLANK(B210),D210-C210+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J210" s="4">
-        <f>IF(ISBLANK(B210),0,D210-C210+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="57" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B211" s="57" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C211" s="57">
         <v>216</v>
@@ -8861,32 +8964,32 @@
         <v>223</v>
       </c>
       <c r="E211" s="50" t="str">
-        <f>DEC2HEX(F211)</f>
+        <f t="shared" si="38"/>
         <v>4F</v>
       </c>
       <c r="F211" s="50">
         <v>79</v>
       </c>
       <c r="G211" s="50" t="str">
-        <f>CHAR(F211)</f>
+        <f t="shared" si="39"/>
         <v>O</v>
       </c>
       <c r="H211" s="5"/>
       <c r="I211" s="4">
-        <f>IF(ISBLANK(B211),D211-C211+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J211" s="4">
-        <f>IF(ISBLANK(B211),0,D211-C211+1)</f>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="57" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B212" s="57" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C212" s="57">
         <v>916</v>
@@ -8895,31 +8998,31 @@
         <v>919</v>
       </c>
       <c r="E212" s="58" t="str">
-        <f>DEC2HEX(F212)</f>
+        <f t="shared" si="38"/>
         <v>F2</v>
       </c>
       <c r="F212" s="58">
         <v>242</v>
       </c>
       <c r="G212" s="58" t="str">
-        <f>CHAR(F212)</f>
+        <f t="shared" si="39"/>
         <v>ò</v>
       </c>
       <c r="I212" s="4">
-        <f>IF(ISBLANK(B212),D212-C212+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J212" s="4">
-        <f>IF(ISBLANK(B212),0,D212-C212+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="57" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B213" s="57" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C213" s="4">
         <v>920</v>
@@ -8931,11 +9034,11 @@
       <c r="F213" s="57"/>
       <c r="G213" s="57"/>
       <c r="I213" s="4">
-        <f>IF(ISBLANK(B213),D213-C213+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J213" s="4">
-        <f>IF(ISBLANK(B213),0,D213-C213+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
@@ -8944,7 +9047,7 @@
         <v>406</v>
       </c>
       <c r="B214" s="59" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C214" s="58">
         <v>188</v>
@@ -8964,11 +9067,11 @@
         <v>ó</v>
       </c>
       <c r="I214" s="4">
-        <f>IF(ISBLANK(B214),D214-C214+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J214" s="4">
-        <f>IF(ISBLANK(B214),0,D214-C214+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="L214" s="5"/>
@@ -9001,11 +9104,11 @@
         <v>158</v>
       </c>
       <c r="I215" s="4">
-        <f>IF(ISBLANK(B215),D215-C215+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J215" s="4">
-        <f>IF(ISBLANK(B215),0,D215-C215+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
@@ -9025,11 +9128,11 @@
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
       <c r="I216" s="4">
-        <f>IF(ISBLANK(B216),D216-C216+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J216" s="4">
-        <f>IF(ISBLANK(B216),0,D216-C216+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
@@ -9058,11 +9161,11 @@
         <v>»</v>
       </c>
       <c r="I217" s="4">
-        <f>IF(ISBLANK(B217),D217-C217+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J217" s="4">
-        <f>IF(ISBLANK(B217),0,D217-C217+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
@@ -9091,11 +9194,11 @@
         <v>¼</v>
       </c>
       <c r="I218" s="4">
-        <f>IF(ISBLANK(B218),D218-C218+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J218" s="4">
-        <f>IF(ISBLANK(B218),0,D218-C218+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
@@ -9124,11 +9227,11 @@
         <v>½</v>
       </c>
       <c r="I219" s="4">
-        <f>IF(ISBLANK(B219),D219-C219+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J219" s="4">
-        <f>IF(ISBLANK(B219),0,D219-C219+1)</f>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
     </row>
@@ -9160,11 +9263,11 @@
         <v>158</v>
       </c>
       <c r="I220" s="4">
-        <f>IF(ISBLANK(B220),D220-C220+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J220" s="4">
-        <f>IF(ISBLANK(B220),0,D220-C220+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
@@ -9183,11 +9286,11 @@
       </c>
       <c r="E221" s="4"/>
       <c r="I221" s="4">
-        <f>IF(ISBLANK(B221),D221-C221+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J221" s="4">
-        <f>IF(ISBLANK(B221),0,D221-C221+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
@@ -9216,11 +9319,11 @@
         <v>y</v>
       </c>
       <c r="I222" s="4">
-        <f>IF(ISBLANK(B222),D222-C222+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J222" s="4">
-        <f>IF(ISBLANK(B222),0,D222-C222+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
@@ -9249,11 +9352,11 @@
         <v>z</v>
       </c>
       <c r="I223" s="4">
-        <f>IF(ISBLANK(B223),D223-C223+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J223" s="4">
-        <f>IF(ISBLANK(B223),0,D223-C223+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
@@ -9282,11 +9385,11 @@
         <v>{</v>
       </c>
       <c r="I224" s="4">
-        <f>IF(ISBLANK(B224),D224-C224+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J224" s="4">
-        <f>IF(ISBLANK(B224),0,D224-C224+1)</f>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
     </row>
@@ -9295,7 +9398,7 @@
         <v>157</v>
       </c>
       <c r="B225" s="40" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C225" s="41">
         <v>180</v>
@@ -9307,11 +9410,11 @@
       <c r="F225" s="41"/>
       <c r="G225" s="41"/>
       <c r="I225" s="4">
-        <f>IF(ISBLANK(B225),D225-C225+1,0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J225" s="4">
-        <f>IF(ISBLANK(B225),0,D225-C225+1)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
@@ -9325,14 +9428,14 @@
       <c r="C226" s="46"/>
       <c r="D226" s="46"/>
       <c r="E226" s="47" t="str">
-        <f>DEC2HEX(F226)</f>
+        <f t="shared" ref="E226:E244" si="40">DEC2HEX(F226)</f>
         <v>41</v>
       </c>
       <c r="F226" s="47">
         <v>65</v>
       </c>
       <c r="G226" s="47" t="str">
-        <f>CHAR(F226)</f>
+        <f t="shared" ref="G226:G244" si="41">CHAR(F226)</f>
         <v>A</v>
       </c>
     </row>
@@ -9350,22 +9453,22 @@
         <v>27</v>
       </c>
       <c r="E227" s="44" t="str">
-        <f>DEC2HEX(F227)</f>
+        <f t="shared" si="40"/>
         <v>6F</v>
       </c>
       <c r="F227" s="43">
         <v>111</v>
       </c>
       <c r="G227" s="44" t="str">
-        <f>CHAR(F227)</f>
+        <f t="shared" si="41"/>
         <v>o</v>
       </c>
       <c r="I227" s="4">
-        <f>IF(ISBLANK(B227),D227-C227+1,0)</f>
+        <f t="shared" ref="I227:I242" si="42">IF(ISBLANK(B227),D227-C227+1,0)</f>
         <v>0</v>
       </c>
       <c r="J227" s="4">
-        <f>IF(ISBLANK(B227),0,D227-C227+1)</f>
+        <f t="shared" ref="J227:J242" si="43">IF(ISBLANK(B227),0,D227-C227+1)</f>
         <v>4</v>
       </c>
     </row>
@@ -9383,22 +9486,22 @@
         <v>75</v>
       </c>
       <c r="E228" s="44" t="str">
-        <f>DEC2HEX(F228)</f>
+        <f t="shared" si="40"/>
         <v>6F</v>
       </c>
       <c r="F228" s="43">
         <v>111</v>
       </c>
       <c r="G228" s="44" t="str">
-        <f>CHAR(F228)</f>
+        <f t="shared" si="41"/>
         <v>o</v>
       </c>
       <c r="I228" s="4">
-        <f>IF(ISBLANK(B228),D228-C228+1,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J228" s="4">
-        <f>IF(ISBLANK(B228),0,D228-C228+1)</f>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
     </row>
@@ -9416,22 +9519,22 @@
         <v>79</v>
       </c>
       <c r="E229" s="44" t="str">
-        <f>DEC2HEX(F229)</f>
+        <f t="shared" si="40"/>
         <v>6E</v>
       </c>
       <c r="F229" s="44">
         <v>110</v>
       </c>
       <c r="G229" s="44" t="str">
-        <f>CHAR(F229)</f>
+        <f t="shared" si="41"/>
         <v>n</v>
       </c>
       <c r="I229" s="4">
-        <f>IF(ISBLANK(B229),D229-C229+1,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J229" s="4">
-        <f>IF(ISBLANK(B229),0,D229-C229+1)</f>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
     </row>
@@ -9449,22 +9552,22 @@
         <v>83</v>
       </c>
       <c r="E230" s="44" t="str">
-        <f>DEC2HEX(F230)</f>
+        <f t="shared" si="40"/>
         <v>6F</v>
       </c>
       <c r="F230" s="43">
         <v>111</v>
       </c>
       <c r="G230" s="44" t="str">
-        <f>CHAR(F230)</f>
+        <f t="shared" si="41"/>
         <v>o</v>
       </c>
       <c r="I230" s="4">
-        <f>IF(ISBLANK(B230),D230-C230+1,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J230" s="4">
-        <f>IF(ISBLANK(B230),0,D230-C230+1)</f>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
     </row>
@@ -9482,22 +9585,22 @@
         <v>423</v>
       </c>
       <c r="E231" s="5" t="str">
-        <f>DEC2HEX(F231)</f>
+        <f t="shared" si="40"/>
         <v>49</v>
       </c>
       <c r="F231" s="5">
         <v>73</v>
       </c>
       <c r="G231" s="5" t="str">
-        <f>CHAR(F231)</f>
+        <f t="shared" si="41"/>
         <v>I</v>
       </c>
       <c r="I231" s="4">
-        <f>IF(ISBLANK(B231),D231-C231+1,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J231" s="4">
-        <f>IF(ISBLANK(B231),0,D231-C231+1)</f>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
     </row>
@@ -9515,22 +9618,22 @@
         <v>611</v>
       </c>
       <c r="E232" s="5" t="str">
-        <f>DEC2HEX(F232)</f>
+        <f t="shared" si="40"/>
         <v>42</v>
       </c>
       <c r="F232" s="5">
         <v>66</v>
       </c>
       <c r="G232" s="5" t="str">
-        <f>CHAR(F232)</f>
+        <f t="shared" si="41"/>
         <v>B</v>
       </c>
       <c r="I232" s="4">
-        <f>IF(ISBLANK(B232),D232-C232+1,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J232" s="4">
-        <f>IF(ISBLANK(B232),0,D232-C232+1)</f>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
     </row>
@@ -9548,22 +9651,22 @@
         <v>619</v>
       </c>
       <c r="E233" s="5" t="str">
-        <f>DEC2HEX(F233)</f>
+        <f t="shared" si="40"/>
         <v>C0</v>
       </c>
       <c r="F233" s="5">
         <v>192</v>
       </c>
       <c r="G233" s="5" t="str">
-        <f>CHAR(F233)</f>
+        <f t="shared" si="41"/>
         <v>À</v>
       </c>
       <c r="I233" s="4">
-        <f>IF(ISBLANK(B233),D233-C233+1,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J233" s="4">
-        <f>IF(ISBLANK(B233),0,D233-C233+1)</f>
+        <f t="shared" si="43"/>
         <v>8</v>
       </c>
     </row>
@@ -9581,22 +9684,22 @@
         <v>635</v>
       </c>
       <c r="E234" s="5" t="str">
-        <f>DEC2HEX(F234)</f>
+        <f t="shared" si="40"/>
         <v>C1</v>
       </c>
       <c r="F234" s="5">
         <v>193</v>
       </c>
       <c r="G234" s="5" t="str">
-        <f>CHAR(F234)</f>
+        <f t="shared" si="41"/>
         <v>Á</v>
       </c>
       <c r="I234" s="4">
-        <f>IF(ISBLANK(B234),D234-C234+1,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J234" s="4">
-        <f>IF(ISBLANK(B234),0,D234-C234+1)</f>
+        <f t="shared" si="43"/>
         <v>8</v>
       </c>
     </row>
@@ -9614,22 +9717,22 @@
         <v>887</v>
       </c>
       <c r="E235" s="34" t="str">
-        <f>DEC2HEX(F235)</f>
+        <f t="shared" si="40"/>
         <v>3A</v>
       </c>
       <c r="F235" s="34">
         <v>58</v>
       </c>
       <c r="G235" s="34" t="str">
-        <f>CHAR(F235)</f>
+        <f t="shared" si="41"/>
         <v>:</v>
       </c>
       <c r="I235" s="4">
-        <f>IF(ISBLANK(B235),D235-C235+1,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J235" s="4">
-        <f>IF(ISBLANK(B235),0,D235-C235+1)</f>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
     </row>
@@ -9647,22 +9750,22 @@
         <v>911</v>
       </c>
       <c r="E236" s="34" t="str">
-        <f>DEC2HEX(F236)</f>
+        <f t="shared" si="40"/>
         <v>BA</v>
       </c>
       <c r="F236" s="34">
         <v>186</v>
       </c>
       <c r="G236" s="34" t="str">
-        <f>CHAR(F236)</f>
+        <f t="shared" si="41"/>
         <v>º</v>
       </c>
       <c r="I236" s="4">
-        <f>IF(ISBLANK(B236),D236-C236+1,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J236" s="4">
-        <f>IF(ISBLANK(B236),0,D236-C236+1)</f>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
     </row>
@@ -9680,22 +9783,22 @@
         <v>927</v>
       </c>
       <c r="E237" s="34" t="str">
-        <f>DEC2HEX(F237)</f>
+        <f t="shared" si="40"/>
         <v>3B</v>
       </c>
       <c r="F237" s="34">
         <v>59</v>
       </c>
       <c r="G237" s="34" t="str">
-        <f>CHAR(F237)</f>
+        <f t="shared" si="41"/>
         <v>;</v>
       </c>
       <c r="I237" s="4">
-        <f>IF(ISBLANK(B237),D237-C237+1,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J237" s="4">
-        <f>IF(ISBLANK(B237),0,D237-C237+1)</f>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
     </row>
@@ -9713,22 +9816,22 @@
         <v>931</v>
       </c>
       <c r="E238" s="34" t="str">
-        <f>DEC2HEX(F238)</f>
+        <f t="shared" si="40"/>
         <v>B9</v>
       </c>
       <c r="F238" s="34">
         <v>185</v>
       </c>
       <c r="G238" s="34" t="str">
-        <f>CHAR(F238)</f>
+        <f t="shared" si="41"/>
         <v>¹</v>
       </c>
       <c r="I238" s="4">
-        <f>IF(ISBLANK(B238),D238-C238+1,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J238" s="4">
-        <f>IF(ISBLANK(B238),0,D238-C238+1)</f>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
     </row>
@@ -9746,22 +9849,22 @@
         <v>959</v>
       </c>
       <c r="E239" s="34" t="str">
-        <f>DEC2HEX(F239)</f>
+        <f t="shared" si="40"/>
         <v>B9</v>
       </c>
       <c r="F239" s="34">
         <v>185</v>
       </c>
       <c r="G239" s="34" t="str">
-        <f>CHAR(F239)</f>
+        <f t="shared" si="41"/>
         <v>¹</v>
       </c>
       <c r="I239" s="4">
-        <f>IF(ISBLANK(B239),D239-C239+1,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J239" s="4">
-        <f>IF(ISBLANK(B239),0,D239-C239+1)</f>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
     </row>
@@ -9779,22 +9882,22 @@
         <v>979</v>
       </c>
       <c r="E240" s="34" t="str">
-        <f>DEC2HEX(F240)</f>
+        <f t="shared" si="40"/>
         <v>BA</v>
       </c>
       <c r="F240" s="34">
         <v>186</v>
       </c>
       <c r="G240" s="34" t="str">
-        <f>CHAR(F240)</f>
+        <f t="shared" si="41"/>
         <v>º</v>
       </c>
       <c r="I240" s="4">
-        <f>IF(ISBLANK(B240),D240-C240+1,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J240" s="4">
-        <f>IF(ISBLANK(B240),0,D240-C240+1)</f>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
     </row>
@@ -9812,22 +9915,22 @@
         <v>999</v>
       </c>
       <c r="E241" s="34" t="str">
-        <f>DEC2HEX(F241)</f>
+        <f t="shared" si="40"/>
         <v>B9</v>
       </c>
       <c r="F241" s="34">
         <v>185</v>
       </c>
       <c r="G241" s="34" t="str">
-        <f>CHAR(F241)</f>
+        <f t="shared" si="41"/>
         <v>¹</v>
       </c>
       <c r="I241" s="4">
-        <f>IF(ISBLANK(B241),D241-C241+1,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J241" s="4">
-        <f>IF(ISBLANK(B241),0,D241-C241+1)</f>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
     </row>
@@ -9845,22 +9948,22 @@
         <v>1011</v>
       </c>
       <c r="E242" s="34" t="str">
-        <f>DEC2HEX(F242)</f>
+        <f t="shared" si="40"/>
         <v>BA</v>
       </c>
       <c r="F242" s="34">
         <v>186</v>
       </c>
       <c r="G242" s="34" t="str">
-        <f>CHAR(F242)</f>
+        <f t="shared" si="41"/>
         <v>º</v>
       </c>
       <c r="I242" s="4">
-        <f>IF(ISBLANK(B242),D242-C242+1,0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J242" s="4">
-        <f>IF(ISBLANK(B242),0,D242-C242+1)</f>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
     </row>
@@ -9874,14 +9977,14 @@
       <c r="C243" s="46"/>
       <c r="D243" s="46"/>
       <c r="E243" s="47" t="str">
-        <f>DEC2HEX(F243)</f>
+        <f t="shared" si="40"/>
         <v>4A</v>
       </c>
       <c r="F243" s="47">
         <v>74</v>
       </c>
       <c r="G243" s="47" t="str">
-        <f>CHAR(F243)</f>
+        <f t="shared" si="41"/>
         <v>J</v>
       </c>
     </row>
@@ -9895,14 +9998,14 @@
       <c r="C244" s="46"/>
       <c r="D244" s="46"/>
       <c r="E244" s="47" t="str">
-        <f>DEC2HEX(F244)</f>
+        <f t="shared" si="40"/>
         <v>4B</v>
       </c>
       <c r="F244" s="47">
         <v>75</v>
       </c>
       <c r="G244" s="47" t="str">
-        <f>CHAR(F244)</f>
+        <f t="shared" si="41"/>
         <v>K</v>
       </c>
     </row>
@@ -10012,14 +10115,14 @@
       <c r="C250" s="51"/>
       <c r="D250" s="51"/>
       <c r="E250" s="50" t="str">
-        <f>DEC2HEX(F250)</f>
+        <f t="shared" ref="E250:E273" si="44">DEC2HEX(F250)</f>
         <v>21</v>
       </c>
       <c r="F250" s="50">
         <v>33</v>
       </c>
       <c r="G250" s="50" t="str">
-        <f>CHAR(F250)</f>
+        <f t="shared" ref="G250:G273" si="45">CHAR(F250)</f>
         <v>!</v>
       </c>
       <c r="H250" s="4" t="s">
@@ -10032,14 +10135,14 @@
       <c r="C251" s="51"/>
       <c r="D251" s="51"/>
       <c r="E251" s="50" t="str">
-        <f>DEC2HEX(F251)</f>
+        <f t="shared" si="44"/>
         <v>22</v>
       </c>
       <c r="F251" s="50">
         <v>34</v>
       </c>
       <c r="G251" s="50" t="str">
-        <f>CHAR(F251)</f>
+        <f t="shared" si="45"/>
         <v>"</v>
       </c>
       <c r="H251" s="4" t="s">
@@ -10052,14 +10155,14 @@
       <c r="C252" s="51"/>
       <c r="D252" s="51"/>
       <c r="E252" s="50" t="str">
-        <f>DEC2HEX(F252)</f>
+        <f t="shared" si="44"/>
         <v>23</v>
       </c>
       <c r="F252" s="50">
         <v>35</v>
       </c>
       <c r="G252" s="50" t="str">
-        <f>CHAR(F252)</f>
+        <f t="shared" si="45"/>
         <v>#</v>
       </c>
       <c r="H252" s="4" t="s">
@@ -10072,14 +10175,14 @@
       <c r="C253" s="51"/>
       <c r="D253" s="51"/>
       <c r="E253" s="50" t="str">
-        <f>DEC2HEX(F253)</f>
+        <f t="shared" si="44"/>
         <v>24</v>
       </c>
       <c r="F253" s="50">
         <v>36</v>
       </c>
       <c r="G253" s="50" t="str">
-        <f>CHAR(F253)</f>
+        <f t="shared" si="45"/>
         <v>$</v>
       </c>
       <c r="H253" s="4" t="s">
@@ -10092,14 +10195,14 @@
       <c r="C254" s="51"/>
       <c r="D254" s="51"/>
       <c r="E254" s="50" t="str">
-        <f>DEC2HEX(F254)</f>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="F254" s="50">
         <v>37</v>
       </c>
       <c r="G254" s="50" t="str">
-        <f>CHAR(F254)</f>
+        <f t="shared" si="45"/>
         <v>%</v>
       </c>
       <c r="H254" s="4" t="s">
@@ -10112,14 +10215,14 @@
       <c r="C255" s="51"/>
       <c r="D255" s="51"/>
       <c r="E255" s="50" t="str">
-        <f>DEC2HEX(F255)</f>
+        <f t="shared" si="44"/>
         <v>26</v>
       </c>
       <c r="F255" s="50">
         <v>38</v>
       </c>
       <c r="G255" s="50" t="str">
-        <f>CHAR(F255)</f>
+        <f t="shared" si="45"/>
         <v>&amp;</v>
       </c>
       <c r="H255" s="4" t="s">
@@ -10132,14 +10235,14 @@
       <c r="C256" s="51"/>
       <c r="D256" s="51"/>
       <c r="E256" s="50" t="str">
-        <f>DEC2HEX(F256)</f>
+        <f t="shared" si="44"/>
         <v>27</v>
       </c>
       <c r="F256" s="50">
         <v>39</v>
       </c>
       <c r="G256" s="50" t="str">
-        <f>CHAR(F256)</f>
+        <f t="shared" si="45"/>
         <v>'</v>
       </c>
       <c r="H256" s="4" t="s">
@@ -10152,14 +10255,14 @@
       <c r="C257" s="51"/>
       <c r="D257" s="51"/>
       <c r="E257" s="50" t="str">
-        <f>DEC2HEX(F257)</f>
+        <f t="shared" si="44"/>
         <v>28</v>
       </c>
       <c r="F257" s="50">
         <v>40</v>
       </c>
       <c r="G257" s="50" t="str">
-        <f>CHAR(F257)</f>
+        <f t="shared" si="45"/>
         <v>(</v>
       </c>
       <c r="H257" s="4" t="s">
@@ -10172,14 +10275,14 @@
       <c r="C258" s="51"/>
       <c r="D258" s="51"/>
       <c r="E258" s="50" t="str">
-        <f>DEC2HEX(F258)</f>
+        <f t="shared" si="44"/>
         <v>29</v>
       </c>
       <c r="F258" s="50">
         <v>41</v>
       </c>
       <c r="G258" s="50" t="str">
-        <f>CHAR(F258)</f>
+        <f t="shared" si="45"/>
         <v>)</v>
       </c>
       <c r="H258" s="4" t="s">
@@ -10192,14 +10295,14 @@
       <c r="C259" s="51"/>
       <c r="D259" s="51"/>
       <c r="E259" s="50" t="str">
-        <f>DEC2HEX(F259)</f>
+        <f t="shared" si="44"/>
         <v>2A</v>
       </c>
       <c r="F259" s="50">
         <v>42</v>
       </c>
       <c r="G259" s="50" t="str">
-        <f>CHAR(F259)</f>
+        <f t="shared" si="45"/>
         <v>*</v>
       </c>
       <c r="H259" s="4" t="s">
@@ -10212,14 +10315,14 @@
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="2" t="str">
-        <f>DEC2HEX(F260)</f>
+        <f t="shared" si="44"/>
         <v>2F</v>
       </c>
       <c r="F260" s="2">
         <v>47</v>
       </c>
       <c r="G260" s="2" t="str">
-        <f>CHAR(F260)</f>
+        <f t="shared" si="45"/>
         <v>/</v>
       </c>
       <c r="H260" s="4" t="s">
@@ -10232,14 +10335,14 @@
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="2" t="str">
-        <f>DEC2HEX(F261)</f>
+        <f t="shared" si="44"/>
         <v>30</v>
       </c>
       <c r="F261" s="2">
         <v>48</v>
       </c>
       <c r="G261" s="2" t="str">
-        <f>CHAR(F261)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H261" s="4" t="s">
@@ -10252,14 +10355,14 @@
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="2" t="str">
-        <f>DEC2HEX(F262)</f>
+        <f t="shared" si="44"/>
         <v>31</v>
       </c>
       <c r="F262" s="2">
         <v>49</v>
       </c>
       <c r="G262" s="2" t="str">
-        <f>CHAR(F262)</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="H262" s="4" t="s">
@@ -10272,14 +10375,14 @@
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="2" t="str">
-        <f>DEC2HEX(F263)</f>
+        <f t="shared" si="44"/>
         <v>32</v>
       </c>
       <c r="F263" s="2">
         <v>50</v>
       </c>
       <c r="G263" s="2" t="str">
-        <f>CHAR(F263)</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="H263" s="4" t="s">
@@ -10292,14 +10395,14 @@
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="2" t="str">
-        <f>DEC2HEX(F264)</f>
+        <f t="shared" si="44"/>
         <v>33</v>
       </c>
       <c r="F264" s="2">
         <v>51</v>
       </c>
       <c r="G264" s="2" t="str">
-        <f>CHAR(F264)</f>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="H264" s="4" t="s">
@@ -10312,14 +10415,14 @@
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="2" t="str">
-        <f>DEC2HEX(F265)</f>
+        <f t="shared" si="44"/>
         <v>34</v>
       </c>
       <c r="F265" s="2">
         <v>52</v>
       </c>
       <c r="G265" s="2" t="str">
-        <f>CHAR(F265)</f>
+        <f t="shared" si="45"/>
         <v>4</v>
       </c>
       <c r="H265" s="4" t="s">
@@ -10332,14 +10435,14 @@
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="2" t="str">
-        <f>DEC2HEX(F266)</f>
+        <f t="shared" si="44"/>
         <v>35</v>
       </c>
       <c r="F266" s="2">
         <v>53</v>
       </c>
       <c r="G266" s="2" t="str">
-        <f>CHAR(F266)</f>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="H266" s="4" t="s">
@@ -10352,14 +10455,14 @@
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="2" t="str">
-        <f>DEC2HEX(F267)</f>
+        <f t="shared" si="44"/>
         <v>36</v>
       </c>
       <c r="F267" s="2">
         <v>54</v>
       </c>
       <c r="G267" s="2" t="str">
-        <f>CHAR(F267)</f>
+        <f t="shared" si="45"/>
         <v>6</v>
       </c>
       <c r="H267" s="4" t="s">
@@ -10372,14 +10475,14 @@
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="2" t="str">
-        <f>DEC2HEX(F268)</f>
+        <f t="shared" si="44"/>
         <v>37</v>
       </c>
       <c r="F268" s="2">
         <v>55</v>
       </c>
       <c r="G268" s="2" t="str">
-        <f>CHAR(F268)</f>
+        <f t="shared" si="45"/>
         <v>7</v>
       </c>
       <c r="H268" s="4" t="s">
@@ -10392,14 +10495,14 @@
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="2" t="str">
-        <f>DEC2HEX(F269)</f>
+        <f t="shared" si="44"/>
         <v>38</v>
       </c>
       <c r="F269" s="2">
         <v>56</v>
       </c>
       <c r="G269" s="2" t="str">
-        <f>CHAR(F269)</f>
+        <f t="shared" si="45"/>
         <v>8</v>
       </c>
       <c r="H269" s="4" t="s">
@@ -10412,14 +10515,14 @@
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="2" t="str">
-        <f>DEC2HEX(F270)</f>
+        <f t="shared" si="44"/>
         <v>39</v>
       </c>
       <c r="F270" s="2">
         <v>57</v>
       </c>
       <c r="G270" s="2" t="str">
-        <f>CHAR(F270)</f>
+        <f t="shared" si="45"/>
         <v>9</v>
       </c>
       <c r="H270" s="4" t="s">
@@ -10432,14 +10535,14 @@
       <c r="C271" s="51"/>
       <c r="D271" s="51"/>
       <c r="E271" s="50" t="str">
-        <f>DEC2HEX(F271)</f>
+        <f t="shared" si="44"/>
         <v>3C</v>
       </c>
       <c r="F271" s="50">
         <v>60</v>
       </c>
       <c r="G271" s="50" t="str">
-        <f>CHAR(F271)</f>
+        <f t="shared" si="45"/>
         <v>&lt;</v>
       </c>
       <c r="H271" s="4" t="s">
@@ -10452,14 +10555,14 @@
       <c r="C272" s="50"/>
       <c r="D272" s="50"/>
       <c r="E272" s="50" t="str">
-        <f>DEC2HEX(F272)</f>
+        <f t="shared" si="44"/>
         <v>3E</v>
       </c>
       <c r="F272" s="50">
         <v>62</v>
       </c>
       <c r="G272" s="50" t="str">
-        <f>CHAR(F272)</f>
+        <f t="shared" si="45"/>
         <v>&gt;</v>
       </c>
       <c r="H272" s="4" t="s">
@@ -10472,14 +10575,14 @@
       <c r="C273" s="51"/>
       <c r="D273" s="51"/>
       <c r="E273" s="50" t="str">
-        <f>DEC2HEX(F273)</f>
+        <f t="shared" si="44"/>
         <v>3F</v>
       </c>
       <c r="F273" s="50">
         <v>63</v>
       </c>
       <c r="G273" s="50" t="str">
-        <f>CHAR(F273)</f>
+        <f t="shared" si="45"/>
         <v>?</v>
       </c>
       <c r="H273" s="4" t="s">
@@ -10501,14 +10604,14 @@
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="2" t="str">
-        <f>DEC2HEX(F275)</f>
+        <f t="shared" ref="E275:E314" si="46">DEC2HEX(F275)</f>
         <v>5C</v>
       </c>
       <c r="F275" s="2">
         <v>92</v>
       </c>
       <c r="G275" s="2" t="str">
-        <f>CHAR(F275)</f>
+        <f t="shared" ref="G275:G314" si="47">CHAR(F275)</f>
         <v>\</v>
       </c>
       <c r="H275" s="4" t="s">
@@ -10521,14 +10624,14 @@
       <c r="C276" s="50"/>
       <c r="D276" s="50"/>
       <c r="E276" s="50" t="str">
-        <f>DEC2HEX(F276)</f>
+        <f t="shared" si="46"/>
         <v>5D</v>
       </c>
       <c r="F276" s="50">
         <v>93</v>
       </c>
       <c r="G276" s="50" t="str">
-        <f>CHAR(F276)</f>
+        <f t="shared" si="47"/>
         <v>]</v>
       </c>
       <c r="H276" s="4" t="s">
@@ -10541,14 +10644,14 @@
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="2" t="str">
-        <f>DEC2HEX(F277)</f>
+        <f t="shared" si="46"/>
         <v>60</v>
       </c>
       <c r="F277" s="2">
         <v>96</v>
       </c>
       <c r="G277" s="2" t="str">
-        <f>CHAR(F277)</f>
+        <f t="shared" si="47"/>
         <v>`</v>
       </c>
       <c r="H277" s="4" t="s">
@@ -10559,14 +10662,14 @@
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5" t="str">
-        <f>DEC2HEX(F278)</f>
+        <f t="shared" si="46"/>
         <v>71</v>
       </c>
       <c r="F278" s="5">
         <v>113</v>
       </c>
       <c r="G278" s="5" t="str">
-        <f>CHAR(F278)</f>
+        <f t="shared" si="47"/>
         <v>q</v>
       </c>
       <c r="H278" s="4" t="s">
@@ -10575,14 +10678,14 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E279" s="5" t="str">
-        <f>DEC2HEX(F279)</f>
+        <f t="shared" si="46"/>
         <v>75</v>
       </c>
       <c r="F279" s="5">
         <v>117</v>
       </c>
       <c r="G279" s="5" t="str">
-        <f>CHAR(F279)</f>
+        <f t="shared" si="47"/>
         <v>u</v>
       </c>
       <c r="H279" s="4" t="s">
@@ -10596,14 +10699,14 @@
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5" t="str">
-        <f>DEC2HEX(F280)</f>
+        <f t="shared" si="46"/>
         <v>7D</v>
       </c>
       <c r="F280" s="5">
         <v>125</v>
       </c>
       <c r="G280" s="5" t="str">
-        <f>CHAR(F280)</f>
+        <f t="shared" si="47"/>
         <v>}</v>
       </c>
       <c r="H280" s="4" t="s">
@@ -10616,14 +10719,14 @@
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="2" t="str">
-        <f>DEC2HEX(F281)</f>
+        <f t="shared" si="46"/>
         <v>7F</v>
       </c>
       <c r="F281" s="2">
         <v>127</v>
       </c>
       <c r="G281" s="2" t="str">
-        <f>CHAR(F281)</f>
+        <f t="shared" si="47"/>
         <v></v>
       </c>
       <c r="H281" s="4" t="s">
@@ -10636,14 +10739,14 @@
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="2" t="str">
-        <f>DEC2HEX(F282)</f>
+        <f t="shared" si="46"/>
         <v>80</v>
       </c>
       <c r="F282" s="2">
         <v>128</v>
       </c>
       <c r="G282" s="2" t="str">
-        <f>CHAR(F282)</f>
+        <f t="shared" si="47"/>
         <v>€</v>
       </c>
       <c r="H282" s="4" t="s">
@@ -10656,14 +10759,14 @@
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="2" t="str">
-        <f>DEC2HEX(F283)</f>
+        <f t="shared" si="46"/>
         <v>81</v>
       </c>
       <c r="F283" s="2">
         <v>129</v>
       </c>
       <c r="G283" s="2" t="str">
-        <f>CHAR(F283)</f>
+        <f t="shared" si="47"/>
         <v></v>
       </c>
       <c r="H283" s="4" t="s">
@@ -10676,14 +10779,14 @@
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="2" t="str">
-        <f>DEC2HEX(F284)</f>
+        <f t="shared" si="46"/>
         <v>82</v>
       </c>
       <c r="F284" s="2">
         <v>130</v>
       </c>
       <c r="G284" s="2" t="str">
-        <f>CHAR(F284)</f>
+        <f t="shared" si="47"/>
         <v>‚</v>
       </c>
       <c r="H284" s="4" t="s">
@@ -10696,14 +10799,14 @@
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="2" t="str">
-        <f>DEC2HEX(F285)</f>
+        <f t="shared" si="46"/>
         <v>83</v>
       </c>
       <c r="F285" s="2">
         <v>131</v>
       </c>
       <c r="G285" s="2" t="str">
-        <f>CHAR(F285)</f>
+        <f t="shared" si="47"/>
         <v>ƒ</v>
       </c>
       <c r="H285" s="4" t="s">
@@ -10716,14 +10819,14 @@
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="2" t="str">
-        <f>DEC2HEX(F286)</f>
+        <f t="shared" si="46"/>
         <v>84</v>
       </c>
       <c r="F286" s="2">
         <v>132</v>
       </c>
       <c r="G286" s="2" t="str">
-        <f>CHAR(F286)</f>
+        <f t="shared" si="47"/>
         <v>„</v>
       </c>
       <c r="H286" s="4" t="s">
@@ -10736,14 +10839,14 @@
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="2" t="str">
-        <f>DEC2HEX(F287)</f>
+        <f t="shared" si="46"/>
         <v>85</v>
       </c>
       <c r="F287" s="2">
         <v>133</v>
       </c>
       <c r="G287" s="2" t="str">
-        <f>CHAR(F287)</f>
+        <f t="shared" si="47"/>
         <v>…</v>
       </c>
       <c r="H287" s="4" t="s">
@@ -10756,14 +10859,14 @@
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="2" t="str">
-        <f>DEC2HEX(F288)</f>
+        <f t="shared" si="46"/>
         <v>86</v>
       </c>
       <c r="F288" s="2">
         <v>134</v>
       </c>
       <c r="G288" s="2" t="str">
-        <f>CHAR(F288)</f>
+        <f t="shared" si="47"/>
         <v>†</v>
       </c>
       <c r="H288" s="4" t="s">
@@ -10776,14 +10879,14 @@
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="2" t="str">
-        <f>DEC2HEX(F289)</f>
+        <f t="shared" si="46"/>
         <v>87</v>
       </c>
       <c r="F289" s="2">
         <v>135</v>
       </c>
       <c r="G289" s="2" t="str">
-        <f>CHAR(F289)</f>
+        <f t="shared" si="47"/>
         <v>‡</v>
       </c>
       <c r="H289" s="4" t="s">
@@ -10796,14 +10899,14 @@
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="2" t="str">
-        <f>DEC2HEX(F290)</f>
+        <f t="shared" si="46"/>
         <v>88</v>
       </c>
       <c r="F290" s="2">
         <v>136</v>
       </c>
       <c r="G290" s="2" t="str">
-        <f>CHAR(F290)</f>
+        <f t="shared" si="47"/>
         <v>ˆ</v>
       </c>
       <c r="H290" s="4" t="s">
@@ -10816,14 +10919,14 @@
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="2" t="str">
-        <f>DEC2HEX(F291)</f>
+        <f t="shared" si="46"/>
         <v>89</v>
       </c>
       <c r="F291" s="2">
         <v>137</v>
       </c>
       <c r="G291" s="2" t="str">
-        <f>CHAR(F291)</f>
+        <f t="shared" si="47"/>
         <v>‰</v>
       </c>
       <c r="H291" s="4" t="s">
@@ -10836,14 +10939,14 @@
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="2" t="str">
-        <f>DEC2HEX(F292)</f>
+        <f t="shared" si="46"/>
         <v>8A</v>
       </c>
       <c r="F292" s="2">
         <v>138</v>
       </c>
       <c r="G292" s="2" t="str">
-        <f>CHAR(F292)</f>
+        <f t="shared" si="47"/>
         <v>Š</v>
       </c>
       <c r="H292" s="4" t="s">
@@ -10856,14 +10959,14 @@
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="2" t="str">
-        <f>DEC2HEX(F293)</f>
+        <f t="shared" si="46"/>
         <v>8B</v>
       </c>
       <c r="F293" s="2">
         <v>139</v>
       </c>
       <c r="G293" s="2" t="str">
-        <f>CHAR(F293)</f>
+        <f t="shared" si="47"/>
         <v>‹</v>
       </c>
       <c r="H293" s="4" t="s">
@@ -10876,14 +10979,14 @@
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="2" t="str">
-        <f>DEC2HEX(F294)</f>
+        <f t="shared" si="46"/>
         <v>8C</v>
       </c>
       <c r="F294" s="2">
         <v>140</v>
       </c>
       <c r="G294" s="2" t="str">
-        <f>CHAR(F294)</f>
+        <f t="shared" si="47"/>
         <v>Œ</v>
       </c>
       <c r="H294" s="4" t="s">
@@ -10896,14 +10999,14 @@
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="2" t="str">
-        <f>DEC2HEX(F295)</f>
+        <f t="shared" si="46"/>
         <v>8D</v>
       </c>
       <c r="F295" s="2">
         <v>141</v>
       </c>
       <c r="G295" s="2" t="str">
-        <f>CHAR(F295)</f>
+        <f t="shared" si="47"/>
         <v></v>
       </c>
       <c r="H295" s="4" t="s">
@@ -10916,14 +11019,14 @@
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="2" t="str">
-        <f>DEC2HEX(F296)</f>
+        <f t="shared" si="46"/>
         <v>8E</v>
       </c>
       <c r="F296" s="2">
         <v>142</v>
       </c>
       <c r="G296" s="2" t="str">
-        <f>CHAR(F296)</f>
+        <f t="shared" si="47"/>
         <v>Ž</v>
       </c>
       <c r="H296" s="4" t="s">
@@ -10936,14 +11039,14 @@
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="2" t="str">
-        <f>DEC2HEX(F297)</f>
+        <f t="shared" si="46"/>
         <v>8F</v>
       </c>
       <c r="F297" s="2">
         <v>143</v>
       </c>
       <c r="G297" s="2" t="str">
-        <f>CHAR(F297)</f>
+        <f t="shared" si="47"/>
         <v></v>
       </c>
       <c r="H297" s="4" t="s">
@@ -10956,14 +11059,14 @@
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="2" t="str">
-        <f>DEC2HEX(F298)</f>
+        <f t="shared" si="46"/>
         <v>90</v>
       </c>
       <c r="F298" s="2">
         <v>144</v>
       </c>
       <c r="G298" s="2" t="str">
-        <f>CHAR(F298)</f>
+        <f t="shared" si="47"/>
         <v></v>
       </c>
       <c r="H298" s="4" t="s">
@@ -10976,14 +11079,14 @@
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="2" t="str">
-        <f>DEC2HEX(F299)</f>
+        <f t="shared" si="46"/>
         <v>91</v>
       </c>
       <c r="F299" s="2">
         <v>145</v>
       </c>
       <c r="G299" s="2" t="str">
-        <f>CHAR(F299)</f>
+        <f t="shared" si="47"/>
         <v>‘</v>
       </c>
       <c r="H299" s="4" t="s">
@@ -10996,14 +11099,14 @@
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="2" t="str">
-        <f>DEC2HEX(F300)</f>
+        <f t="shared" si="46"/>
         <v>92</v>
       </c>
       <c r="F300" s="2">
         <v>146</v>
       </c>
       <c r="G300" s="2" t="str">
-        <f>CHAR(F300)</f>
+        <f t="shared" si="47"/>
         <v>’</v>
       </c>
       <c r="H300" s="4" t="s">
@@ -11016,14 +11119,14 @@
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="2" t="str">
-        <f>DEC2HEX(F301)</f>
+        <f t="shared" si="46"/>
         <v>93</v>
       </c>
       <c r="F301" s="2">
         <v>147</v>
       </c>
       <c r="G301" s="2" t="str">
-        <f>CHAR(F301)</f>
+        <f t="shared" si="47"/>
         <v>“</v>
       </c>
       <c r="H301" s="4" t="s">
@@ -11036,14 +11139,14 @@
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="2" t="str">
-        <f>DEC2HEX(F302)</f>
+        <f t="shared" si="46"/>
         <v>94</v>
       </c>
       <c r="F302" s="2">
         <v>148</v>
       </c>
       <c r="G302" s="2" t="str">
-        <f>CHAR(F302)</f>
+        <f t="shared" si="47"/>
         <v>”</v>
       </c>
       <c r="H302" s="4" t="s">
@@ -11056,14 +11159,14 @@
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="2" t="str">
-        <f>DEC2HEX(F303)</f>
+        <f t="shared" si="46"/>
         <v>95</v>
       </c>
       <c r="F303" s="2">
         <v>149</v>
       </c>
       <c r="G303" s="2" t="str">
-        <f>CHAR(F303)</f>
+        <f t="shared" si="47"/>
         <v>•</v>
       </c>
       <c r="H303" s="4" t="s">
@@ -11076,14 +11179,14 @@
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="2" t="str">
-        <f>DEC2HEX(F304)</f>
+        <f t="shared" si="46"/>
         <v>96</v>
       </c>
       <c r="F304" s="2">
         <v>150</v>
       </c>
       <c r="G304" s="2" t="str">
-        <f>CHAR(F304)</f>
+        <f t="shared" si="47"/>
         <v>–</v>
       </c>
       <c r="H304" s="4" t="s">
@@ -11096,14 +11199,14 @@
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="2" t="str">
-        <f>DEC2HEX(F305)</f>
+        <f t="shared" si="46"/>
         <v>97</v>
       </c>
       <c r="F305" s="2">
         <v>151</v>
       </c>
       <c r="G305" s="2" t="str">
-        <f>CHAR(F305)</f>
+        <f t="shared" si="47"/>
         <v>—</v>
       </c>
       <c r="H305" s="4" t="s">
@@ -11116,14 +11219,14 @@
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="2" t="str">
-        <f>DEC2HEX(F306)</f>
+        <f t="shared" si="46"/>
         <v>98</v>
       </c>
       <c r="F306" s="2">
         <v>152</v>
       </c>
       <c r="G306" s="2" t="str">
-        <f>CHAR(F306)</f>
+        <f t="shared" si="47"/>
         <v>˜</v>
       </c>
       <c r="H306" s="4" t="s">
@@ -11136,14 +11239,14 @@
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="2" t="str">
-        <f>DEC2HEX(F307)</f>
+        <f t="shared" si="46"/>
         <v>99</v>
       </c>
       <c r="F307" s="2">
         <v>153</v>
       </c>
       <c r="G307" s="2" t="str">
-        <f>CHAR(F307)</f>
+        <f t="shared" si="47"/>
         <v>™</v>
       </c>
       <c r="H307" s="4" t="s">
@@ -11156,14 +11259,14 @@
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="2" t="str">
-        <f>DEC2HEX(F308)</f>
+        <f t="shared" si="46"/>
         <v>9A</v>
       </c>
       <c r="F308" s="2">
         <v>154</v>
       </c>
       <c r="G308" s="2" t="str">
-        <f>CHAR(F308)</f>
+        <f t="shared" si="47"/>
         <v>š</v>
       </c>
       <c r="H308" s="4" t="s">
@@ -11176,14 +11279,14 @@
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="2" t="str">
-        <f>DEC2HEX(F309)</f>
+        <f t="shared" si="46"/>
         <v>9B</v>
       </c>
       <c r="F309" s="2">
         <v>155</v>
       </c>
       <c r="G309" s="2" t="str">
-        <f>CHAR(F309)</f>
+        <f t="shared" si="47"/>
         <v>›</v>
       </c>
       <c r="H309" s="4" t="s">
@@ -11196,14 +11299,14 @@
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="2" t="str">
-        <f>DEC2HEX(F310)</f>
+        <f t="shared" si="46"/>
         <v>9C</v>
       </c>
       <c r="F310" s="2">
         <v>156</v>
       </c>
       <c r="G310" s="2" t="str">
-        <f>CHAR(F310)</f>
+        <f t="shared" si="47"/>
         <v>œ</v>
       </c>
       <c r="H310" s="4" t="s">
@@ -11216,14 +11319,14 @@
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="2" t="str">
-        <f>DEC2HEX(F311)</f>
+        <f t="shared" si="46"/>
         <v>9D</v>
       </c>
       <c r="F311" s="2">
         <v>157</v>
       </c>
       <c r="G311" s="2" t="str">
-        <f>CHAR(F311)</f>
+        <f t="shared" si="47"/>
         <v></v>
       </c>
       <c r="H311" s="4" t="s">
@@ -11236,14 +11339,14 @@
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="2" t="str">
-        <f>DEC2HEX(F312)</f>
+        <f t="shared" si="46"/>
         <v>9E</v>
       </c>
       <c r="F312" s="2">
         <v>158</v>
       </c>
       <c r="G312" s="2" t="str">
-        <f>CHAR(F312)</f>
+        <f t="shared" si="47"/>
         <v>ž</v>
       </c>
       <c r="H312" s="4" t="s">
@@ -11256,14 +11359,14 @@
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="2" t="str">
-        <f>DEC2HEX(F313)</f>
+        <f t="shared" si="46"/>
         <v>9F</v>
       </c>
       <c r="F313" s="2">
         <v>159</v>
       </c>
       <c r="G313" s="2" t="str">
-        <f>CHAR(F313)</f>
+        <f t="shared" si="47"/>
         <v>Ÿ</v>
       </c>
       <c r="H313" s="4" t="s">
@@ -11276,14 +11379,14 @@
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="2" t="str">
-        <f>DEC2HEX(F314)</f>
+        <f t="shared" si="46"/>
         <v>A0</v>
       </c>
       <c r="F314" s="2">
         <v>160</v>
       </c>
       <c r="G314" s="2" t="str">
-        <f>CHAR(F314)</f>
+        <f t="shared" si="47"/>
         <v> </v>
       </c>
       <c r="H314" s="4" t="s">
@@ -11305,14 +11408,14 @@
       <c r="C316" s="51"/>
       <c r="D316" s="51"/>
       <c r="E316" s="50" t="str">
-        <f>DEC2HEX(F316)</f>
+        <f t="shared" ref="E316:E338" si="48">DEC2HEX(F316)</f>
         <v>A2</v>
       </c>
       <c r="F316" s="50">
         <v>162</v>
       </c>
       <c r="G316" s="50" t="str">
-        <f>CHAR(F316)</f>
+        <f t="shared" ref="G316:G338" si="49">CHAR(F316)</f>
         <v>¢</v>
       </c>
       <c r="H316" s="4" t="s">
@@ -11325,14 +11428,14 @@
       <c r="C317" s="51"/>
       <c r="D317" s="51"/>
       <c r="E317" s="50" t="str">
-        <f>DEC2HEX(F317)</f>
+        <f t="shared" si="48"/>
         <v>A7</v>
       </c>
       <c r="F317" s="50">
         <v>167</v>
       </c>
       <c r="G317" s="50" t="str">
-        <f>CHAR(F317)</f>
+        <f t="shared" si="49"/>
         <v>§</v>
       </c>
       <c r="H317" s="4" t="s">
@@ -11345,14 +11448,14 @@
       <c r="C318" s="51"/>
       <c r="D318" s="51"/>
       <c r="E318" s="50" t="str">
-        <f>DEC2HEX(F318)</f>
+        <f t="shared" si="48"/>
         <v>A8</v>
       </c>
       <c r="F318" s="50">
         <v>168</v>
       </c>
       <c r="G318" s="50" t="str">
-        <f>CHAR(F318)</f>
+        <f t="shared" si="49"/>
         <v>¨</v>
       </c>
       <c r="H318" s="4" t="s">
@@ -11365,14 +11468,14 @@
       <c r="C319" s="51"/>
       <c r="D319" s="51"/>
       <c r="E319" s="50" t="str">
-        <f>DEC2HEX(F319)</f>
+        <f t="shared" si="48"/>
         <v>A9</v>
       </c>
       <c r="F319" s="50">
         <v>169</v>
       </c>
       <c r="G319" s="50" t="str">
-        <f>CHAR(F319)</f>
+        <f t="shared" si="49"/>
         <v>©</v>
       </c>
       <c r="H319" s="4" t="s">
@@ -11385,14 +11488,14 @@
       <c r="C320" s="51"/>
       <c r="D320" s="51"/>
       <c r="E320" s="50" t="str">
-        <f>DEC2HEX(F320)</f>
+        <f t="shared" si="48"/>
         <v>AA</v>
       </c>
       <c r="F320" s="50">
         <v>170</v>
       </c>
       <c r="G320" s="50" t="str">
-        <f>CHAR(F320)</f>
+        <f t="shared" si="49"/>
         <v>ª</v>
       </c>
       <c r="H320" s="4" t="s">
@@ -11405,14 +11508,14 @@
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="2" t="str">
-        <f>DEC2HEX(F321)</f>
+        <f t="shared" si="48"/>
         <v>AD</v>
       </c>
       <c r="F321" s="2">
         <v>173</v>
       </c>
       <c r="G321" s="2" t="str">
-        <f>CHAR(F321)</f>
+        <f t="shared" si="49"/>
         <v>­</v>
       </c>
       <c r="H321" s="4" t="s">
@@ -11425,14 +11528,14 @@
       <c r="C322" s="51"/>
       <c r="D322" s="51"/>
       <c r="E322" s="50" t="str">
-        <f>DEC2HEX(F322)</f>
+        <f t="shared" si="48"/>
         <v>AE</v>
       </c>
       <c r="F322" s="50">
         <v>174</v>
       </c>
       <c r="G322" s="50" t="str">
-        <f>CHAR(F322)</f>
+        <f t="shared" si="49"/>
         <v>®</v>
       </c>
       <c r="H322" s="4" t="s">
@@ -11445,14 +11548,14 @@
       <c r="C323" s="50"/>
       <c r="D323" s="50"/>
       <c r="E323" s="50" t="str">
-        <f>DEC2HEX(F323)</f>
+        <f t="shared" si="48"/>
         <v>AF</v>
       </c>
       <c r="F323" s="50">
         <v>175</v>
       </c>
       <c r="G323" s="50" t="str">
-        <f>CHAR(F323)</f>
+        <f t="shared" si="49"/>
         <v>¯</v>
       </c>
       <c r="H323" s="4" t="s">
@@ -11466,14 +11569,14 @@
       <c r="C324" s="51"/>
       <c r="D324" s="51"/>
       <c r="E324" s="50" t="str">
-        <f>DEC2HEX(F324)</f>
+        <f t="shared" si="48"/>
         <v>B0</v>
       </c>
       <c r="F324" s="50">
         <v>176</v>
       </c>
       <c r="G324" s="50" t="str">
-        <f>CHAR(F324)</f>
+        <f t="shared" si="49"/>
         <v>°</v>
       </c>
       <c r="H324" s="4" t="s">
@@ -11486,14 +11589,14 @@
       <c r="C325" s="51"/>
       <c r="D325" s="51"/>
       <c r="E325" s="50" t="str">
-        <f>DEC2HEX(F325)</f>
+        <f t="shared" si="48"/>
         <v>B1</v>
       </c>
       <c r="F325" s="50">
         <v>177</v>
       </c>
       <c r="G325" s="50" t="str">
-        <f>CHAR(F325)</f>
+        <f t="shared" si="49"/>
         <v>±</v>
       </c>
       <c r="H325" s="4" t="s">
@@ -11506,14 +11609,14 @@
       <c r="C326" s="51"/>
       <c r="D326" s="51"/>
       <c r="E326" s="50" t="str">
-        <f>DEC2HEX(F326)</f>
+        <f t="shared" si="48"/>
         <v>B2</v>
       </c>
       <c r="F326" s="50">
         <v>178</v>
       </c>
       <c r="G326" s="50" t="str">
-        <f>CHAR(F326)</f>
+        <f t="shared" si="49"/>
         <v>²</v>
       </c>
       <c r="H326" s="4" t="s">
@@ -11526,14 +11629,14 @@
       <c r="C327" s="50"/>
       <c r="D327" s="50"/>
       <c r="E327" s="50" t="str">
-        <f>DEC2HEX(F327)</f>
+        <f t="shared" si="48"/>
         <v>B3</v>
       </c>
       <c r="F327" s="50">
         <v>179</v>
       </c>
       <c r="G327" s="50" t="str">
-        <f>CHAR(F327)</f>
+        <f t="shared" si="49"/>
         <v>³</v>
       </c>
       <c r="H327" s="4" t="s">
@@ -11546,14 +11649,14 @@
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="2" t="str">
-        <f>DEC2HEX(F328)</f>
+        <f t="shared" si="48"/>
         <v>B4</v>
       </c>
       <c r="F328" s="2">
         <v>180</v>
       </c>
       <c r="G328" s="2" t="str">
-        <f>CHAR(F328)</f>
+        <f t="shared" si="49"/>
         <v>´</v>
       </c>
       <c r="H328" s="4" t="s">
@@ -11566,14 +11669,14 @@
       <c r="C329" s="50"/>
       <c r="D329" s="50"/>
       <c r="E329" s="50" t="str">
-        <f>DEC2HEX(F329)</f>
+        <f t="shared" si="48"/>
         <v>C2</v>
       </c>
       <c r="F329" s="50">
         <v>194</v>
       </c>
       <c r="G329" s="50" t="str">
-        <f>CHAR(F329)</f>
+        <f t="shared" si="49"/>
         <v>Â</v>
       </c>
       <c r="H329" s="4" t="s">
@@ -11586,14 +11689,14 @@
       <c r="C330" s="51"/>
       <c r="D330" s="51"/>
       <c r="E330" s="50" t="str">
-        <f>DEC2HEX(F330)</f>
+        <f t="shared" si="48"/>
         <v>C7</v>
       </c>
       <c r="F330" s="50">
         <v>199</v>
       </c>
       <c r="G330" s="50" t="str">
-        <f>CHAR(F330)</f>
+        <f t="shared" si="49"/>
         <v>Ç</v>
       </c>
       <c r="H330" s="4" t="s">
@@ -11606,14 +11709,14 @@
       <c r="C331" s="51"/>
       <c r="D331" s="51"/>
       <c r="E331" s="50" t="str">
-        <f>DEC2HEX(F331)</f>
+        <f t="shared" si="48"/>
         <v>C8</v>
       </c>
       <c r="F331" s="50">
         <v>200</v>
       </c>
       <c r="G331" s="50" t="str">
-        <f>CHAR(F331)</f>
+        <f t="shared" si="49"/>
         <v>È</v>
       </c>
       <c r="H331" s="4" t="s">
@@ -11626,14 +11729,14 @@
       <c r="C332" s="51"/>
       <c r="D332" s="51"/>
       <c r="E332" s="50" t="str">
-        <f>DEC2HEX(F332)</f>
+        <f t="shared" si="48"/>
         <v>CA</v>
       </c>
       <c r="F332" s="50">
         <v>202</v>
       </c>
       <c r="G332" s="50" t="str">
-        <f>CHAR(F332)</f>
+        <f t="shared" si="49"/>
         <v>Ê</v>
       </c>
       <c r="H332" s="4" t="s">
@@ -11646,14 +11749,14 @@
       <c r="C333" s="51"/>
       <c r="D333" s="51"/>
       <c r="E333" s="50" t="str">
-        <f>DEC2HEX(F333)</f>
+        <f t="shared" si="48"/>
         <v>CF</v>
       </c>
       <c r="F333" s="50">
         <v>207</v>
       </c>
       <c r="G333" s="50" t="str">
-        <f>CHAR(F333)</f>
+        <f t="shared" si="49"/>
         <v>Ï</v>
       </c>
       <c r="H333" s="4" t="s">
@@ -11666,14 +11769,14 @@
       <c r="C334" s="51"/>
       <c r="D334" s="51"/>
       <c r="E334" s="50" t="str">
-        <f>DEC2HEX(F334)</f>
+        <f t="shared" si="48"/>
         <v>D1</v>
       </c>
       <c r="F334" s="50">
         <v>209</v>
       </c>
       <c r="G334" s="50" t="str">
-        <f>CHAR(F334)</f>
+        <f t="shared" si="49"/>
         <v>Ñ</v>
       </c>
       <c r="H334" s="4" t="s">
@@ -11687,14 +11790,14 @@
       <c r="C335" s="51"/>
       <c r="D335" s="51"/>
       <c r="E335" s="50" t="str">
-        <f>DEC2HEX(F335)</f>
+        <f t="shared" si="48"/>
         <v>D2</v>
       </c>
       <c r="F335" s="50">
         <v>210</v>
       </c>
       <c r="G335" s="50" t="str">
-        <f>CHAR(F335)</f>
+        <f t="shared" si="49"/>
         <v>Ò</v>
       </c>
       <c r="H335" s="4" t="s">
@@ -11707,14 +11810,14 @@
       <c r="C336" s="50"/>
       <c r="D336" s="50"/>
       <c r="E336" s="50" t="str">
-        <f>DEC2HEX(F336)</f>
+        <f t="shared" si="48"/>
         <v>D3</v>
       </c>
       <c r="F336" s="50">
         <v>211</v>
       </c>
       <c r="G336" s="50" t="str">
-        <f>CHAR(F336)</f>
+        <f t="shared" si="49"/>
         <v>Ó</v>
       </c>
       <c r="H336" s="4" t="s">
@@ -11727,14 +11830,14 @@
       <c r="C337" s="51"/>
       <c r="D337" s="51"/>
       <c r="E337" s="50" t="str">
-        <f>DEC2HEX(F337)</f>
+        <f t="shared" si="48"/>
         <v>E2</v>
       </c>
       <c r="F337" s="50">
         <v>226</v>
       </c>
       <c r="G337" s="50" t="str">
-        <f>CHAR(F337)</f>
+        <f t="shared" si="49"/>
         <v>â</v>
       </c>
       <c r="H337" s="4" t="s">
@@ -11747,14 +11850,14 @@
       <c r="C338" s="51"/>
       <c r="D338" s="51"/>
       <c r="E338" s="50" t="str">
-        <f>DEC2HEX(F338)</f>
+        <f t="shared" si="48"/>
         <v>E5</v>
       </c>
       <c r="F338" s="50">
         <v>229</v>
       </c>
       <c r="G338" s="50" t="str">
-        <f>CHAR(F338)</f>
+        <f t="shared" si="49"/>
         <v>å</v>
       </c>
       <c r="H338" s="4" t="s">
@@ -11776,14 +11879,14 @@
       <c r="C340" s="51"/>
       <c r="D340" s="51"/>
       <c r="E340" s="58" t="str">
-        <f>DEC2HEX(F340)</f>
+        <f t="shared" ref="E340:E346" si="50">DEC2HEX(F340)</f>
         <v>F1</v>
       </c>
       <c r="F340" s="58">
         <v>241</v>
       </c>
       <c r="G340" s="58" t="str">
-        <f>CHAR(F340)</f>
+        <f t="shared" ref="G340:G346" si="51">CHAR(F340)</f>
         <v>ñ</v>
       </c>
       <c r="H340" s="4" t="s">
@@ -11796,14 +11899,14 @@
       <c r="C341" s="50"/>
       <c r="D341" s="50"/>
       <c r="E341" s="50" t="str">
-        <f>DEC2HEX(F341)</f>
+        <f t="shared" si="50"/>
         <v>F4</v>
       </c>
       <c r="F341" s="50">
         <v>244</v>
       </c>
       <c r="G341" s="50" t="str">
-        <f>CHAR(F341)</f>
+        <f t="shared" si="51"/>
         <v>ô</v>
       </c>
       <c r="H341" s="4" t="s">
@@ -11816,14 +11919,14 @@
       <c r="C342" s="51"/>
       <c r="D342" s="51"/>
       <c r="E342" s="50" t="str">
-        <f>DEC2HEX(F342)</f>
+        <f t="shared" si="50"/>
         <v>F5</v>
       </c>
       <c r="F342" s="50">
         <v>245</v>
       </c>
       <c r="G342" s="50" t="str">
-        <f>CHAR(F342)</f>
+        <f t="shared" si="51"/>
         <v>õ</v>
       </c>
       <c r="H342" s="4" t="s">
@@ -11836,14 +11939,14 @@
       <c r="C343" s="51"/>
       <c r="D343" s="51"/>
       <c r="E343" s="50" t="str">
-        <f>DEC2HEX(F343)</f>
+        <f t="shared" si="50"/>
         <v>F8</v>
       </c>
       <c r="F343" s="50">
         <v>248</v>
       </c>
       <c r="G343" s="50" t="str">
-        <f>CHAR(F343)</f>
+        <f t="shared" si="51"/>
         <v>ø</v>
       </c>
       <c r="H343" s="4" t="s">
@@ -11856,14 +11959,14 @@
       <c r="C344" s="50"/>
       <c r="D344" s="50"/>
       <c r="E344" s="50" t="str">
-        <f>DEC2HEX(F344)</f>
+        <f t="shared" si="50"/>
         <v>F9</v>
       </c>
       <c r="F344" s="50">
         <v>249</v>
       </c>
       <c r="G344" s="50" t="str">
-        <f>CHAR(F344)</f>
+        <f t="shared" si="51"/>
         <v>ù</v>
       </c>
       <c r="H344" s="4" t="s">
@@ -11876,14 +11979,14 @@
       <c r="C345" s="51"/>
       <c r="D345" s="51"/>
       <c r="E345" s="50" t="str">
-        <f>DEC2HEX(F345)</f>
+        <f t="shared" si="50"/>
         <v>FA</v>
       </c>
       <c r="F345" s="50">
         <v>250</v>
       </c>
       <c r="G345" s="50" t="str">
-        <f>CHAR(F345)</f>
+        <f t="shared" si="51"/>
         <v>ú</v>
       </c>
       <c r="H345" s="4" t="s">
@@ -11896,14 +11999,14 @@
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="2" t="str">
-        <f>DEC2HEX(F346)</f>
+        <f t="shared" si="50"/>
         <v>FF</v>
       </c>
       <c r="F346" s="2">
         <v>255</v>
       </c>
       <c r="G346" s="2" t="str">
-        <f>CHAR(F346)</f>
+        <f t="shared" si="51"/>
         <v>ÿ</v>
       </c>
       <c r="H346" s="4" t="s">
@@ -11922,7 +12025,7 @@
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="51"/>
       <c r="B348" s="51" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C348" s="50"/>
       <c r="D348" s="50"/>
@@ -12187,670 +12290,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCBF3F3-FF41-4C02-8701-7BCC901F5CE2}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5">
-        <v>200</v>
-      </c>
-      <c r="E4" s="5">
-        <v>265</v>
-      </c>
-      <c r="F4" s="4">
-        <v>300</v>
-      </c>
-      <c r="G4" s="4">
-        <v>375</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
-        <v>234</v>
-      </c>
-      <c r="E5" s="4">
-        <v>234</v>
-      </c>
-      <c r="F5" s="4">
-        <v>234</v>
-      </c>
-      <c r="G5" s="4">
-        <v>234</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
-        <v>60</v>
-      </c>
-      <c r="E6" s="4">
-        <v>28</v>
-      </c>
-      <c r="F6" s="4">
-        <v>70</v>
-      </c>
-      <c r="G6" s="4">
-        <v>28</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4">
-        <v>28</v>
-      </c>
-      <c r="F7" s="4">
-        <v>28</v>
-      </c>
-      <c r="G7" s="4">
-        <v>28</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
-        <v>197</v>
-      </c>
-      <c r="E10" s="4">
-        <v>230</v>
-      </c>
-      <c r="F10" s="4">
-        <v>265</v>
-      </c>
-      <c r="G10" s="4">
-        <v>292</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
-        <v>201</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4">
-        <v>59</v>
-      </c>
-      <c r="E17" s="4">
-        <v>80</v>
-      </c>
-      <c r="F17" s="4">
-        <f>SUM(D17:E17)</f>
-        <v>139</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4">
-        <v>340</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4">
-        <v>424</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4">
-        <v>229</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
-        <v>424</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4">
-        <f>D18-F17</f>
-        <v>285</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4">
-        <f>F18-F17</f>
-        <v>90</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4">
-        <f>H18-H17</f>
-        <v>84</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4">
-        <f>D19/3</f>
-        <v>95</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4">
-        <v>139</v>
-      </c>
-      <c r="G23" s="4">
-        <v>234</v>
-      </c>
-      <c r="H23" s="4">
-        <v>329</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4">
-        <v>234</v>
-      </c>
-      <c r="G24" s="4">
-        <v>329</v>
-      </c>
-      <c r="H24" s="4">
-        <v>424</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4">
-        <f>F24-F23</f>
-        <v>95</v>
-      </c>
-      <c r="G25" s="4">
-        <f>G24-G23</f>
-        <v>95</v>
-      </c>
-      <c r="H25" s="4">
-        <f>H24-H23</f>
-        <v>95</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4">
-        <v>159</v>
-      </c>
-      <c r="F27" s="4">
-        <v>256</v>
-      </c>
-      <c r="G27" s="4">
-        <v>350</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4">
-        <v>198</v>
-      </c>
-      <c r="F28" s="4">
-        <f>F27+E29</f>
-        <v>295</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4">
-        <f>E28-E27</f>
-        <v>39</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E32">
-        <v>350</v>
-      </c>
-      <c r="F32">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>467</v>
-      </c>
-      <c r="C34" t="s">
-        <v>461</v>
-      </c>
-      <c r="D34">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>466</v>
-      </c>
-      <c r="C35" t="s">
-        <v>462</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>465</v>
-      </c>
-      <c r="C36" t="s">
-        <v>463</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <f>D34*D35*D36</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>468</v>
-      </c>
-      <c r="C37" t="s">
-        <v>464</v>
-      </c>
-      <c r="D37">
-        <v>66.666666666664241</v>
-      </c>
-      <c r="F37">
-        <f>D37*6000</f>
-        <v>399999.99999998545</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D38">
-        <v>60</v>
-      </c>
-      <c r="E38">
-        <f>(D38*D37)/F36</f>
-        <v>9.9999999999996358</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E39">
-        <f>E38/10000</f>
-        <v>9.9999999999996359E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F11E91-2EAD-43A0-98E3-ED829AFB723A}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:F47"/>
@@ -13365,7 +12804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF126D5-F0E5-4AA3-B66B-4770F069A49D}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:O164"/>
@@ -15890,12 +15329,253 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5E37B4-5322-4FE8-8710-76CFCD283BCB}">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="69" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="69" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="69" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="70" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="70"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="69" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="69" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="69" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="69" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="69" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="69" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="69" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="69" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="69" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="70" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>522</v>
+      </c>
+      <c r="C17" t="s">
+        <v>519</v>
+      </c>
+      <c r="D17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" t="s">
+        <v>513</v>
+      </c>
+      <c r="G17" t="s">
+        <v>520</v>
+      </c>
+      <c r="H17" t="s">
+        <v>523</v>
+      </c>
+      <c r="I17" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="70"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="70"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="69" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="69" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="69" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="69" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="69" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="69" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="71" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="71" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="71" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="71" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="71"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="69" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="69"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="69"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="69" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="69" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="69" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="69" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="69" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="69" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="69" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="69" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="69"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B43">
+    <sortCondition ref="B2:B43"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70996779-99C6-41A6-AC16-676643B6E809}">
   <dimension ref="B1:J5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15908,7 +15588,7 @@
         <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E1" t="s">
         <v>176</v>
@@ -15920,13 +15600,13 @@
         <v>133</v>
       </c>
       <c r="H1" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="I1" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="J1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
